--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -1305,7 +1305,7 @@
     <t>Wind of Change</t>
   </si>
   <si>
-    <t>Next time you have purchased, toss any 0–1 🃏 from your discard.</t>
+    <t>Next time you have gained a new 🃏 from the market, toss any 0–1 🃏 from your discard.</t>
   </si>
   <si>
     <t>Overtime</t>
@@ -9611,7 +9611,7 @@
       <c r="B160" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="C160" s="46" t="s">
+      <c r="C160" s="43" t="s">
         <v>357</v>
       </c>
       <c r="D160" s="46" t="s">
@@ -9621,8 +9621,8 @@
         <v>17</v>
       </c>
       <c r="F160" s="46"/>
-      <c r="G160" s="46" t="s">
-        <v>172</v>
+      <c r="G160" s="43" t="s">
+        <v>351</v>
       </c>
       <c r="H160" s="46">
         <v>3.0</v>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -1668,19 +1668,19 @@
     <t>Mongooses</t>
   </si>
   <si>
+    <t>Serenade</t>
+  </si>
+  <si>
+    <t>Draw [🌅 1 🃏] [☀️ 2 🃏🃏] [🌙 1 🃏]. Place 1 🃏 on your deck.</t>
+  </si>
+  <si>
+    <t>Selecting Contracts</t>
+  </si>
+  <si>
+    <t>Toss any 1 🃏 of the top [🌅 2 🃏🃏] [☀️ 4 🃏🃏🃏] [🌙 1 🃏] of your discard. Place the rest on your deck in any order.</t>
+  </si>
+  <si>
     <t>Bouquets</t>
-  </si>
-  <si>
-    <t>Draw [🌅 1 🃏] [☀️ 2 🃏🃏] [🌙 1 🃏]. Place 1 🃏 on your deck.</t>
-  </si>
-  <si>
-    <t>Selecting Contracts</t>
-  </si>
-  <si>
-    <t>Toss any 1 🃏 of the top [🌅 2 🃏🃏] [☀️ 4 🃏🃏🃏] [🌙 1 🃏] of your discard. Place the rest on your deck in any order.</t>
-  </si>
-  <si>
-    <t>Serenade</t>
   </si>
   <si>
     <t>Take 1 🃏 from [🌅 your stall] [☀️ an opponent's stall] [🌙 the market]. Place this 🃏 in its place.</t>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -719,7 +719,7 @@
     <t>You may toss 1 🃏 from the supply. You may swap 1 animalfolk 🃏 with the top 🃏 of the bin.</t>
   </si>
   <si>
-    <t>Matching Colours</t>
+    <t>Colour Swap</t>
   </si>
   <si>
     <t>Swap 1 animalfolk 🃏 with 1 🃏 of equal value from any player's stall.</t>
@@ -1434,7 +1434,7 @@
     <t>Roll ❇️✳️. Swap 2 🃏🃏 from any player's [source] with as many 🃏🃏 from a different player's [destination].</t>
   </si>
   <si>
-    <t>Fresh Start</t>
+    <t>Souvenirs</t>
   </si>
   <si>
     <t>Draw 🃏🃏🃏 from the supply equal to the number of players. Give 1 of them to each player.</t>
@@ -7143,7 +7143,7 @@
       <c r="A103" s="22">
         <v>101.0</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="22" t="s">
         <v>228</v>
       </c>
       <c r="C103" s="22" t="s">
@@ -10501,7 +10501,7 @@
       <c r="A181" s="43">
         <v>179.0</v>
       </c>
-      <c r="B181" s="46" t="s">
+      <c r="B181" s="43" t="s">
         <v>400</v>
       </c>
       <c r="C181" s="43" t="s">

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="571">
   <si>
     <t>type_id</t>
   </si>
@@ -158,7 +158,7 @@
     <t>Look at the top 3 🃏🃏🃏 of the supply and take 1 of them. Toss the rest.</t>
   </si>
   <si>
-    <t>Stock Clearance</t>
+    <t>Exclusive Contacts</t>
   </si>
   <si>
     <t>🃏🃏🃏 in the market have +2 cost for you this turn. Hand size +2 for this turn.</t>
@@ -3404,7 +3404,7 @@
       <c r="A19" s="6">
         <v>17.0</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -4258,7 +4258,9 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7">
         <v>1.0</v>
@@ -4300,7 +4302,9 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7">
         <v>2.0</v>
@@ -4386,7 +4390,9 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7">
         <v>4.0</v>
@@ -4428,7 +4434,9 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7">
         <v>5.0</v>
@@ -4470,7 +4478,9 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="F43" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9">
         <v>5.0</v>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="572">
   <si>
     <t>type_id</t>
   </si>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t>Slice of Life</t>
+  </si>
+  <si>
+    <t>While this 🃏 is in your discard at the end of your turn, draw 1 🃏.</t>
   </si>
   <si>
     <t>Voracious Consumer</t>
@@ -1230,7 +1233,7 @@
     <t>Insight</t>
   </si>
   <si>
-    <t>Look at the top 2 🃏🃏 of your deck. You may reorder them. Finish 2: Draw 2 🃏🃏.</t>
+    <t>Discard 1–3 🃏🃏🃏 from your deck. Finish 3: Take any 1 🃏 from your discard.</t>
   </si>
   <si>
     <t>Perfect Move</t>
@@ -3278,8 +3281,12 @@
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7">
@@ -3410,8 +3417,12 @@
       <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7">
@@ -6168,8 +6179,12 @@
       <c r="C80" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
+      <c r="D80" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
       <c r="H80" s="23">
@@ -6389,14 +6404,12 @@
       <c r="B85" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C85" s="23" t="s">
-        <v>177</v>
+      <c r="C85" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
-      <c r="F85" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="F85" s="23"/>
       <c r="G85" s="23"/>
       <c r="H85" s="23">
         <v>5.0</v>
@@ -6431,18 +6444,14 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="23"/>
+        <v>193</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="23"/>
       <c r="H86" s="23">
         <v>1.0</v>
@@ -6451,7 +6460,7 @@
         <v>0.0</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K86" s="25">
         <v>14.0</v>
@@ -6474,10 +6483,10 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D87" s="23" t="s">
         <v>17</v>
@@ -6494,7 +6503,7 @@
         <v>3.0</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K87" s="25">
         <v>14.0</v>
@@ -6517,10 +6526,10 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D88" s="23" t="s">
         <v>17</v>
@@ -6535,7 +6544,7 @@
         <v>3.0</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K88" s="25">
         <v>14.0</v>
@@ -6558,10 +6567,10 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>17</v>
@@ -6578,7 +6587,7 @@
         <v>3.0</v>
       </c>
       <c r="J89" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K89" s="25">
         <v>14.0</v>
@@ -6601,18 +6610,16 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="23"/>
+        <v>202</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="G90" s="23"/>
       <c r="H90" s="23">
         <v>5.0</v>
@@ -6621,7 +6628,7 @@
         <v>1.0</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K90" s="25">
         <v>14.0</v>
@@ -6644,10 +6651,10 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
@@ -6664,7 +6671,7 @@
         <v>1.0</v>
       </c>
       <c r="J91" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K91" s="25">
         <v>14.0</v>
@@ -6687,10 +6694,10 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>17</v>
@@ -6707,7 +6714,7 @@
         <v>0.0</v>
       </c>
       <c r="J92" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K92" s="25">
         <v>15.0</v>
@@ -6730,10 +6737,10 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
@@ -6746,7 +6753,7 @@
         <v>3.0</v>
       </c>
       <c r="J93" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K93" s="25">
         <v>15.0</v>
@@ -6769,10 +6776,10 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>17</v>
@@ -6789,7 +6796,7 @@
         <v>3.0</v>
       </c>
       <c r="J94" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K94" s="25">
         <v>15.0</v>
@@ -6812,10 +6819,10 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>17</v>
@@ -6832,7 +6839,7 @@
         <v>3.0</v>
       </c>
       <c r="J95" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K95" s="25">
         <v>15.0</v>
@@ -6855,10 +6862,10 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>17</v>
@@ -6875,7 +6882,7 @@
         <v>1.0</v>
       </c>
       <c r="J96" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K96" s="25">
         <v>15.0</v>
@@ -6898,10 +6905,10 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D97" s="23" t="s">
         <v>17</v>
@@ -6918,7 +6925,7 @@
         <v>1.0</v>
       </c>
       <c r="J97" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K97" s="25">
         <v>15.0</v>
@@ -6941,10 +6948,10 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>17</v>
@@ -6961,7 +6968,7 @@
         <v>0.0</v>
       </c>
       <c r="J98" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K98" s="25">
         <v>16.0</v>
@@ -6984,10 +6991,10 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
@@ -7002,7 +7009,7 @@
         <v>3.0</v>
       </c>
       <c r="J99" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K99" s="25">
         <v>16.0</v>
@@ -7025,10 +7032,10 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D100" s="23" t="s">
         <v>17</v>
@@ -7045,7 +7052,7 @@
         <v>3.0</v>
       </c>
       <c r="J100" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K100" s="25">
         <v>16.0</v>
@@ -7068,10 +7075,10 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D101" s="23" t="s">
         <v>17</v>
@@ -7088,7 +7095,7 @@
         <v>3.0</v>
       </c>
       <c r="J101" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K101" s="25">
         <v>16.0</v>
@@ -7111,10 +7118,10 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D102" s="23" t="s">
         <v>17</v>
@@ -7131,7 +7138,7 @@
         <v>1.0</v>
       </c>
       <c r="J102" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K102" s="25">
         <v>16.0</v>
@@ -7154,10 +7161,10 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D103" s="23" t="s">
         <v>17</v>
@@ -7174,7 +7181,7 @@
         <v>1.0</v>
       </c>
       <c r="J103" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K103" s="25">
         <v>16.0</v>
@@ -7197,10 +7204,10 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
@@ -7215,7 +7222,7 @@
         <v>0.0</v>
       </c>
       <c r="J104" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K104" s="25">
         <v>17.0</v>
@@ -7238,10 +7245,10 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
@@ -7256,7 +7263,7 @@
         <v>3.0</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K105" s="25">
         <v>17.0</v>
@@ -7279,10 +7286,10 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D106" s="23" t="s">
         <v>17</v>
@@ -7299,7 +7306,7 @@
         <v>3.0</v>
       </c>
       <c r="J106" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K106" s="25">
         <v>17.0</v>
@@ -7322,10 +7329,10 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D107" s="23" t="s">
         <v>17</v>
@@ -7342,7 +7349,7 @@
         <v>3.0</v>
       </c>
       <c r="J107" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K107" s="25">
         <v>17.0</v>
@@ -7365,10 +7372,10 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D108" s="23" t="s">
         <v>17</v>
@@ -7385,7 +7392,7 @@
         <v>1.0</v>
       </c>
       <c r="J108" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K108" s="25">
         <v>17.0</v>
@@ -7408,10 +7415,10 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
@@ -7426,7 +7433,7 @@
         <v>1.0</v>
       </c>
       <c r="J109" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K109" s="25">
         <v>17.0</v>
@@ -7449,10 +7456,10 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D110" s="23" t="s">
         <v>17</v>
@@ -7469,7 +7476,7 @@
         <v>0.0</v>
       </c>
       <c r="J110" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K110" s="25">
         <v>18.0</v>
@@ -7492,10 +7499,10 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D111" s="23"/>
       <c r="E111" s="23"/>
@@ -7512,7 +7519,7 @@
         <v>3.0</v>
       </c>
       <c r="J111" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K111" s="25">
         <v>18.0</v>
@@ -7535,10 +7542,10 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D112" s="23" t="s">
         <v>17</v>
@@ -7555,7 +7562,7 @@
         <v>3.0</v>
       </c>
       <c r="J112" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K112" s="25">
         <v>18.0</v>
@@ -7578,10 +7585,10 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D113" s="23" t="s">
         <v>17</v>
@@ -7598,7 +7605,7 @@
         <v>3.0</v>
       </c>
       <c r="J113" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K113" s="25">
         <v>18.0</v>
@@ -7621,10 +7628,10 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D114" s="23" t="s">
         <v>17</v>
@@ -7641,7 +7648,7 @@
         <v>1.0</v>
       </c>
       <c r="J114" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K114" s="25">
         <v>18.0</v>
@@ -7664,10 +7671,10 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D115" s="27"/>
       <c r="E115" s="27"/>
@@ -7684,7 +7691,7 @@
         <v>1.0</v>
       </c>
       <c r="J115" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K115" s="29">
         <v>18.0</v>
@@ -7707,10 +7714,10 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D116" s="31" t="s">
         <v>17</v>
@@ -7729,7 +7736,7 @@
         <v>0.0</v>
       </c>
       <c r="J116" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K116" s="33">
         <v>19.0</v>
@@ -7752,10 +7759,10 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D117" s="31"/>
       <c r="E117" s="31"/>
@@ -7770,7 +7777,7 @@
         <v>3.0</v>
       </c>
       <c r="J117" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K117" s="33">
         <v>19.0</v>
@@ -7793,10 +7800,10 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D118" s="31" t="s">
         <v>17</v>
@@ -7813,7 +7820,7 @@
         <v>3.0</v>
       </c>
       <c r="J118" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K118" s="33">
         <v>19.0</v>
@@ -7836,10 +7843,10 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D119" s="31" t="s">
         <v>17</v>
@@ -7856,7 +7863,7 @@
         <v>3.0</v>
       </c>
       <c r="J119" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K119" s="33">
         <v>19.0</v>
@@ -7879,10 +7886,10 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D120" s="31" t="s">
         <v>17</v>
@@ -7899,7 +7906,7 @@
         <v>1.0</v>
       </c>
       <c r="J120" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K120" s="33">
         <v>19.0</v>
@@ -7922,10 +7929,10 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D121" s="31" t="s">
         <v>17</v>
@@ -7942,7 +7949,7 @@
         <v>1.0</v>
       </c>
       <c r="J121" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K121" s="33">
         <v>19.0</v>
@@ -7965,10 +7972,10 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D122" s="34" t="s">
         <v>17</v>
@@ -7978,7 +7985,7 @@
       </c>
       <c r="F122" s="35"/>
       <c r="G122" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H122" s="31">
         <v>1.0</v>
@@ -7987,7 +7994,7 @@
         <v>0.0</v>
       </c>
       <c r="J122" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K122" s="36">
         <v>20.0</v>
@@ -8010,10 +8017,10 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D123" s="37"/>
       <c r="E123" s="37"/>
@@ -8026,7 +8033,7 @@
         <v>3.0</v>
       </c>
       <c r="J123" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K123" s="36">
         <v>20.0</v>
@@ -8049,10 +8056,10 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D124" s="34" t="s">
         <v>17</v>
@@ -8062,7 +8069,7 @@
       </c>
       <c r="F124" s="35"/>
       <c r="G124" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H124" s="31">
         <v>3.0</v>
@@ -8071,7 +8078,7 @@
         <v>3.0</v>
       </c>
       <c r="J124" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K124" s="36">
         <v>20.0</v>
@@ -8094,10 +8101,10 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D125" s="34" t="s">
         <v>17</v>
@@ -8107,7 +8114,7 @@
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H125" s="31">
         <v>4.0</v>
@@ -8116,7 +8123,7 @@
         <v>3.0</v>
       </c>
       <c r="J125" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K125" s="36">
         <v>20.0</v>
@@ -8139,10 +8146,10 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D126" s="34" t="s">
         <v>17</v>
@@ -8152,7 +8159,7 @@
       </c>
       <c r="F126" s="35"/>
       <c r="G126" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H126" s="31">
         <v>5.0</v>
@@ -8161,7 +8168,7 @@
         <v>1.0</v>
       </c>
       <c r="J126" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K126" s="36">
         <v>20.0</v>
@@ -8184,10 +8191,10 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D127" s="34" t="s">
         <v>17</v>
@@ -8197,7 +8204,7 @@
       </c>
       <c r="F127" s="35"/>
       <c r="G127" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H127" s="31">
         <v>5.0</v>
@@ -8206,7 +8213,7 @@
         <v>1.0</v>
       </c>
       <c r="J127" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K127" s="36">
         <v>20.0</v>
@@ -8229,10 +8236,10 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D128" s="34" t="s">
         <v>17</v>
@@ -8249,7 +8256,7 @@
         <v>0.0</v>
       </c>
       <c r="J128" s="33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K128" s="33">
         <v>21.0</v>
@@ -8272,10 +8279,10 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D129" s="37"/>
       <c r="E129" s="37"/>
@@ -8288,7 +8295,7 @@
         <v>3.0</v>
       </c>
       <c r="J129" s="33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K129" s="33">
         <v>21.0</v>
@@ -8311,10 +8318,10 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D130" s="34" t="s">
         <v>17</v>
@@ -8331,7 +8338,7 @@
         <v>3.0</v>
       </c>
       <c r="J130" s="33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K130" s="33">
         <v>21.0</v>
@@ -8354,10 +8361,10 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D131" s="34" t="s">
         <v>17</v>
@@ -8374,7 +8381,7 @@
         <v>3.0</v>
       </c>
       <c r="J131" s="33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K131" s="33">
         <v>21.0</v>
@@ -8397,10 +8404,10 @@
         <v>130.0</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D132" s="34" t="s">
         <v>17</v>
@@ -8415,7 +8422,7 @@
         <v>1.0</v>
       </c>
       <c r="J132" s="33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K132" s="33">
         <v>21.0</v>
@@ -8438,10 +8445,10 @@
         <v>131.0</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D133" s="34" t="s">
         <v>17</v>
@@ -8458,7 +8465,7 @@
         <v>1.0</v>
       </c>
       <c r="J133" s="33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K133" s="33">
         <v>21.0</v>
@@ -8481,10 +8488,10 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="35"/>
@@ -8497,7 +8504,7 @@
         <v>0.0</v>
       </c>
       <c r="J134" s="33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K134" s="33">
         <v>22.0</v>
@@ -8520,10 +8527,10 @@
         <v>133.0</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D135" s="34" t="s">
         <v>17</v>
@@ -8540,7 +8547,7 @@
         <v>3.0</v>
       </c>
       <c r="J135" s="33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K135" s="33">
         <v>22.0</v>
@@ -8563,10 +8570,10 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D136" s="34" t="s">
         <v>17</v>
@@ -8583,7 +8590,7 @@
         <v>3.0</v>
       </c>
       <c r="J136" s="33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K136" s="33">
         <v>22.0</v>
@@ -8606,10 +8613,10 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D137" s="34" t="s">
         <v>17</v>
@@ -8626,7 +8633,7 @@
         <v>3.0</v>
       </c>
       <c r="J137" s="33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K137" s="33">
         <v>22.0</v>
@@ -8649,10 +8656,10 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D138" s="34" t="s">
         <v>17</v>
@@ -8669,7 +8676,7 @@
         <v>1.0</v>
       </c>
       <c r="J138" s="33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K138" s="33">
         <v>22.0</v>
@@ -8692,10 +8699,10 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D139" s="35"/>
       <c r="E139" s="35"/>
@@ -8708,7 +8715,7 @@
         <v>1.0</v>
       </c>
       <c r="J139" s="33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K139" s="33">
         <v>22.0</v>
@@ -8731,10 +8738,10 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D140" s="31" t="s">
         <v>17</v>
@@ -8751,7 +8758,7 @@
         <v>0.0</v>
       </c>
       <c r="J140" s="32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K140" s="33">
         <v>23.0</v>
@@ -8774,10 +8781,10 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D141" s="31" t="s">
         <v>17</v>
@@ -8792,7 +8799,7 @@
         <v>3.0</v>
       </c>
       <c r="J141" s="32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K141" s="33">
         <v>23.0</v>
@@ -8815,10 +8822,10 @@
         <v>140.0</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D142" s="31" t="s">
         <v>17</v>
@@ -8835,7 +8842,7 @@
         <v>3.0</v>
       </c>
       <c r="J142" s="32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K142" s="33">
         <v>23.0</v>
@@ -8858,10 +8865,10 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D143" s="31"/>
       <c r="E143" s="31"/>
@@ -8874,7 +8881,7 @@
         <v>3.0</v>
       </c>
       <c r="J143" s="32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K143" s="33">
         <v>23.0</v>
@@ -8897,10 +8904,10 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D144" s="31" t="s">
         <v>17</v>
@@ -8917,7 +8924,7 @@
         <v>1.0</v>
       </c>
       <c r="J144" s="32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K144" s="33">
         <v>23.0</v>
@@ -8940,10 +8947,10 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D145" s="31" t="s">
         <v>17</v>
@@ -8960,7 +8967,7 @@
         <v>1.0</v>
       </c>
       <c r="J145" s="32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K145" s="33">
         <v>23.0</v>
@@ -8983,10 +8990,10 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D146" s="31" t="s">
         <v>17</v>
@@ -8996,7 +9003,7 @@
       </c>
       <c r="F146" s="31"/>
       <c r="G146" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H146" s="31">
         <v>1.0</v>
@@ -9005,7 +9012,7 @@
         <v>0.0</v>
       </c>
       <c r="J146" s="32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K146" s="33">
         <v>24.0</v>
@@ -9028,10 +9035,10 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D147" s="31" t="s">
         <v>17</v>
@@ -9039,7 +9046,7 @@
       <c r="E147" s="31"/>
       <c r="F147" s="31"/>
       <c r="G147" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H147" s="31">
         <v>2.0</v>
@@ -9048,7 +9055,7 @@
         <v>3.0</v>
       </c>
       <c r="J147" s="32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K147" s="33">
         <v>24.0</v>
@@ -9071,10 +9078,10 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D148" s="31" t="s">
         <v>17</v>
@@ -9084,7 +9091,7 @@
       </c>
       <c r="F148" s="31"/>
       <c r="G148" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H148" s="31">
         <v>3.0</v>
@@ -9093,7 +9100,7 @@
         <v>3.0</v>
       </c>
       <c r="J148" s="32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K148" s="33">
         <v>24.0</v>
@@ -9116,10 +9123,10 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D149" s="31" t="s">
         <v>17</v>
@@ -9129,7 +9136,7 @@
       </c>
       <c r="F149" s="31"/>
       <c r="G149" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H149" s="31">
         <v>4.0</v>
@@ -9138,7 +9145,7 @@
         <v>3.0</v>
       </c>
       <c r="J149" s="32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K149" s="33">
         <v>24.0</v>
@@ -9161,10 +9168,10 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="C150" s="31" t="s">
         <v>332</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>333</v>
       </c>
       <c r="D150" s="31" t="s">
         <v>17</v>
@@ -9174,7 +9181,7 @@
       </c>
       <c r="F150" s="31"/>
       <c r="G150" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H150" s="31">
         <v>5.0</v>
@@ -9183,7 +9190,7 @@
         <v>1.0</v>
       </c>
       <c r="J150" s="32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K150" s="33">
         <v>24.0</v>
@@ -9206,10 +9213,10 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="40" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C151" s="40" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D151" s="40" t="s">
         <v>17</v>
@@ -9219,7 +9226,7 @@
       </c>
       <c r="F151" s="40"/>
       <c r="G151" s="40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H151" s="40">
         <v>5.0</v>
@@ -9228,7 +9235,7 @@
         <v>1.0</v>
       </c>
       <c r="J151" s="41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K151" s="42">
         <v>24.0</v>
@@ -9251,10 +9258,10 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="44" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D152" s="43" t="s">
         <v>17</v>
@@ -9273,7 +9280,7 @@
         <v>0.0</v>
       </c>
       <c r="J152" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K152" s="44">
         <v>25.0</v>
@@ -9296,10 +9303,10 @@
         <v>151.0</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C153" s="43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D153" s="43" t="s">
         <v>17</v>
@@ -9318,7 +9325,7 @@
         <v>3.0</v>
       </c>
       <c r="J153" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K153" s="44">
         <v>25.0</v>
@@ -9341,10 +9348,10 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C154" s="43" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D154" s="43" t="s">
         <v>17</v>
@@ -9363,7 +9370,7 @@
         <v>3.0</v>
       </c>
       <c r="J154" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K154" s="44">
         <v>25.0</v>
@@ -9386,10 +9393,10 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C155" s="43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D155" s="43" t="s">
         <v>17</v>
@@ -9408,7 +9415,7 @@
         <v>3.0</v>
       </c>
       <c r="J155" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K155" s="44">
         <v>25.0</v>
@@ -9431,10 +9438,10 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D156" s="43" t="s">
         <v>17</v>
@@ -9453,7 +9460,7 @@
         <v>1.0</v>
       </c>
       <c r="J156" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K156" s="44">
         <v>25.0</v>
@@ -9476,10 +9483,10 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C157" s="43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D157" s="45"/>
       <c r="E157" s="45"/>
@@ -9496,7 +9503,7 @@
         <v>1.0</v>
       </c>
       <c r="J157" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K157" s="44">
         <v>25.0</v>
@@ -9519,10 +9526,10 @@
         <v>156.0</v>
       </c>
       <c r="B158" s="46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C158" s="43" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D158" s="46" t="s">
         <v>17</v>
@@ -9532,7 +9539,7 @@
       </c>
       <c r="F158" s="46"/>
       <c r="G158" s="46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H158" s="46">
         <v>1.0</v>
@@ -9541,7 +9548,7 @@
         <v>0.0</v>
       </c>
       <c r="J158" s="47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K158" s="44">
         <v>26.0</v>
@@ -9564,10 +9571,10 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="46" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C159" s="43" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D159" s="46" t="s">
         <v>17</v>
@@ -9575,7 +9582,7 @@
       <c r="E159" s="46"/>
       <c r="F159" s="46"/>
       <c r="G159" s="46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H159" s="46">
         <v>2.0</v>
@@ -9584,7 +9591,7 @@
         <v>3.0</v>
       </c>
       <c r="J159" s="47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K159" s="44">
         <v>26.0</v>
@@ -9607,10 +9614,10 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="46" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C160" s="43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D160" s="46" t="s">
         <v>17</v>
@@ -9629,7 +9636,7 @@
         <v>3.0</v>
       </c>
       <c r="J160" s="47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K160" s="44">
         <v>26.0</v>
@@ -9652,10 +9659,10 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="46" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C161" s="43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D161" s="46" t="s">
         <v>17</v>
@@ -9674,7 +9681,7 @@
         <v>3.0</v>
       </c>
       <c r="J161" s="47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K161" s="44">
         <v>26.0</v>
@@ -9697,10 +9704,10 @@
         <v>160.0</v>
       </c>
       <c r="B162" s="46" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C162" s="43" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D162" s="46" t="s">
         <v>17</v>
@@ -9719,7 +9726,7 @@
         <v>1.0</v>
       </c>
       <c r="J162" s="47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K162" s="44">
         <v>26.0</v>
@@ -9742,10 +9749,10 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="46" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C163" s="43" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D163" s="46" t="s">
         <v>17</v>
@@ -9764,7 +9771,7 @@
         <v>1.0</v>
       </c>
       <c r="J163" s="47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K163" s="44">
         <v>26.0</v>
@@ -9787,10 +9794,10 @@
         <v>162.0</v>
       </c>
       <c r="B164" s="48" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C164" s="49" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D164" s="48" t="s">
         <v>17</v>
@@ -9807,7 +9814,7 @@
         <v>0.0</v>
       </c>
       <c r="J164" s="51" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K164" s="44">
         <v>27.0</v>
@@ -9830,10 +9837,10 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="48" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C165" s="49" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D165" s="48"/>
       <c r="E165" s="48"/>
@@ -9850,7 +9857,7 @@
         <v>3.0</v>
       </c>
       <c r="J165" s="51" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K165" s="44">
         <v>27.0</v>
@@ -9873,10 +9880,10 @@
         <v>164.0</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C166" s="49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D166" s="48" t="s">
         <v>17</v>
@@ -9893,7 +9900,7 @@
         <v>3.0</v>
       </c>
       <c r="J166" s="51" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K166" s="44">
         <v>27.0</v>
@@ -9916,10 +9923,10 @@
         <v>165.0</v>
       </c>
       <c r="B167" s="48" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C167" s="49" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D167" s="48" t="s">
         <v>17</v>
@@ -9936,7 +9943,7 @@
         <v>3.0</v>
       </c>
       <c r="J167" s="51" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K167" s="44">
         <v>27.0</v>
@@ -9959,10 +9966,10 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C168" s="49" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D168" s="48" t="s">
         <v>17</v>
@@ -9979,7 +9986,7 @@
         <v>1.0</v>
       </c>
       <c r="J168" s="51" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K168" s="44">
         <v>27.0</v>
@@ -10002,10 +10009,10 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C169" s="49" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D169" s="48"/>
       <c r="E169" s="48"/>
@@ -10018,7 +10025,7 @@
         <v>1.0</v>
       </c>
       <c r="J169" s="51" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K169" s="44">
         <v>27.0</v>
@@ -10041,10 +10048,10 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C170" s="43" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D170" s="46" t="s">
         <v>17</v>
@@ -10061,7 +10068,7 @@
         <v>0.0</v>
       </c>
       <c r="J170" s="47" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K170" s="44">
         <v>28.0</v>
@@ -10084,10 +10091,10 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C171" s="43" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D171" s="46" t="s">
         <v>17</v>
@@ -10104,7 +10111,7 @@
         <v>3.0</v>
       </c>
       <c r="J171" s="47" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K171" s="44">
         <v>28.0</v>
@@ -10127,10 +10134,10 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="46" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C172" s="43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D172" s="46" t="s">
         <v>17</v>
@@ -10147,7 +10154,7 @@
         <v>3.0</v>
       </c>
       <c r="J172" s="47" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K172" s="44">
         <v>28.0</v>
@@ -10170,10 +10177,10 @@
         <v>171.0</v>
       </c>
       <c r="B173" s="46" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C173" s="43" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D173" s="46" t="s">
         <v>17</v>
@@ -10190,7 +10197,7 @@
         <v>3.0</v>
       </c>
       <c r="J173" s="47" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K173" s="44">
         <v>28.0</v>
@@ -10213,10 +10220,10 @@
         <v>172.0</v>
       </c>
       <c r="B174" s="46" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C174" s="43" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D174" s="46" t="s">
         <v>17</v>
@@ -10233,7 +10240,7 @@
         <v>1.0</v>
       </c>
       <c r="J174" s="47" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K174" s="44">
         <v>28.0</v>
@@ -10256,10 +10263,10 @@
         <v>173.0</v>
       </c>
       <c r="B175" s="46" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C175" s="43" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D175" s="46" t="s">
         <v>17</v>
@@ -10276,7 +10283,7 @@
         <v>1.0</v>
       </c>
       <c r="J175" s="47" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K175" s="44">
         <v>28.0</v>
@@ -10299,10 +10306,10 @@
         <v>174.0</v>
       </c>
       <c r="B176" s="46" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D176" s="46" t="s">
         <v>17</v>
@@ -10319,7 +10326,7 @@
         <v>0.0</v>
       </c>
       <c r="J176" s="47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K176" s="44">
         <v>29.0</v>
@@ -10342,10 +10349,10 @@
         <v>175.0</v>
       </c>
       <c r="B177" s="46" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C177" s="43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D177" s="46"/>
       <c r="E177" s="46"/>
@@ -10360,7 +10367,7 @@
         <v>3.0</v>
       </c>
       <c r="J177" s="47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K177" s="44">
         <v>29.0</v>
@@ -10383,10 +10390,10 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C178" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D178" s="46" t="s">
         <v>17</v>
@@ -10403,7 +10410,7 @@
         <v>3.0</v>
       </c>
       <c r="J178" s="47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K178" s="44">
         <v>29.0</v>
@@ -10426,10 +10433,10 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D179" s="46" t="s">
         <v>17</v>
@@ -10446,7 +10453,7 @@
         <v>3.0</v>
       </c>
       <c r="J179" s="47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K179" s="44">
         <v>29.0</v>
@@ -10469,10 +10476,10 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D180" s="46" t="s">
         <v>17</v>
@@ -10489,7 +10496,7 @@
         <v>1.0</v>
       </c>
       <c r="J180" s="47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K180" s="44">
         <v>29.0</v>
@@ -10512,10 +10519,10 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="43" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C181" s="43" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D181" s="46" t="s">
         <v>17</v>
@@ -10532,7 +10539,7 @@
         <v>1.0</v>
       </c>
       <c r="J181" s="47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K181" s="44">
         <v>29.0</v>
@@ -10555,10 +10562,10 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="44" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C182" s="44" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D182" s="44" t="s">
         <v>17</v>
@@ -10575,7 +10582,7 @@
         <v>0.0</v>
       </c>
       <c r="J182" s="44" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K182" s="44">
         <v>30.0</v>
@@ -10598,10 +10605,10 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="44" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C183" s="44" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D183" s="44" t="s">
         <v>17</v>
@@ -10618,7 +10625,7 @@
         <v>3.0</v>
       </c>
       <c r="J183" s="44" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K183" s="44">
         <v>30.0</v>
@@ -10641,10 +10648,10 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="44" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C184" s="44" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D184" s="52"/>
       <c r="E184" s="52"/>
@@ -10657,7 +10664,7 @@
         <v>3.0</v>
       </c>
       <c r="J184" s="44" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K184" s="44">
         <v>30.0</v>
@@ -10680,10 +10687,10 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="44" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C185" s="44" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D185" s="44" t="s">
         <v>17</v>
@@ -10700,7 +10707,7 @@
         <v>3.0</v>
       </c>
       <c r="J185" s="44" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K185" s="44">
         <v>30.0</v>
@@ -10723,10 +10730,10 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="44" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C186" s="44" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D186" s="44" t="s">
         <v>17</v>
@@ -10743,7 +10750,7 @@
         <v>1.0</v>
       </c>
       <c r="J186" s="44" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K186" s="44">
         <v>30.0</v>
@@ -10766,10 +10773,10 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="54" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C187" s="54" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D187" s="55"/>
       <c r="E187" s="55"/>
@@ -10784,7 +10791,7 @@
         <v>1.0</v>
       </c>
       <c r="J187" s="54" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K187" s="54">
         <v>30.0</v>
@@ -10807,10 +10814,10 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="58" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C188" s="58" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D188" s="58" t="s">
         <v>17</v>
@@ -10827,7 +10834,7 @@
         <v>0.0</v>
       </c>
       <c r="J188" s="58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K188" s="58">
         <v>31.0</v>
@@ -10850,10 +10857,10 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="58" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C189" s="58" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D189" s="58" t="s">
         <v>17</v>
@@ -10868,7 +10875,7 @@
         <v>3.0</v>
       </c>
       <c r="J189" s="58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K189" s="58">
         <v>31.0</v>
@@ -10891,10 +10898,10 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C190" s="58" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D190" s="58" t="s">
         <v>17</v>
@@ -10911,7 +10918,7 @@
         <v>3.0</v>
       </c>
       <c r="J190" s="58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K190" s="58">
         <v>31.0</v>
@@ -10934,10 +10941,10 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="58" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C191" s="58" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D191" s="58" t="s">
         <v>17</v>
@@ -10954,7 +10961,7 @@
         <v>3.0</v>
       </c>
       <c r="J191" s="58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K191" s="58">
         <v>31.0</v>
@@ -10977,10 +10984,10 @@
         <v>190.0</v>
       </c>
       <c r="B192" s="58" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C192" s="58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D192" s="58" t="s">
         <v>17</v>
@@ -10997,7 +11004,7 @@
         <v>1.0</v>
       </c>
       <c r="J192" s="58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K192" s="58">
         <v>31.0</v>
@@ -11020,10 +11027,10 @@
         <v>191.0</v>
       </c>
       <c r="B193" s="58" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C193" s="58" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D193" s="58" t="s">
         <v>17</v>
@@ -11038,7 +11045,7 @@
         <v>1.0</v>
       </c>
       <c r="J193" s="58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K193" s="58">
         <v>31.0</v>
@@ -11061,10 +11068,10 @@
         <v>192.0</v>
       </c>
       <c r="B194" s="58" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C194" s="58" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D194" s="59"/>
       <c r="E194" s="59"/>
@@ -11077,7 +11084,7 @@
         <v>0.0</v>
       </c>
       <c r="J194" s="58" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K194" s="58">
         <v>32.0</v>
@@ -11103,10 +11110,10 @@
         <v>193.0</v>
       </c>
       <c r="B195" s="58" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C195" s="58" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D195" s="58" t="s">
         <v>17</v>
@@ -11123,7 +11130,7 @@
         <v>3.0</v>
       </c>
       <c r="J195" s="58" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K195" s="58">
         <v>32.0</v>
@@ -11149,10 +11156,10 @@
         <v>194.0</v>
       </c>
       <c r="B196" s="58" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C196" s="58" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D196" s="58" t="s">
         <v>17</v>
@@ -11169,7 +11176,7 @@
         <v>3.0</v>
       </c>
       <c r="J196" s="58" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K196" s="58">
         <v>32.0</v>
@@ -11195,10 +11202,10 @@
         <v>195.0</v>
       </c>
       <c r="B197" s="58" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C197" s="58" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D197" s="58" t="s">
         <v>17</v>
@@ -11215,7 +11222,7 @@
         <v>3.0</v>
       </c>
       <c r="J197" s="58" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K197" s="58">
         <v>32.0</v>
@@ -11241,10 +11248,10 @@
         <v>196.0</v>
       </c>
       <c r="B198" s="58" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C198" s="58" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D198" s="58" t="s">
         <v>17</v>
@@ -11261,7 +11268,7 @@
         <v>1.0</v>
       </c>
       <c r="J198" s="58" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K198" s="58">
         <v>32.0</v>
@@ -11287,10 +11294,10 @@
         <v>197.0</v>
       </c>
       <c r="B199" s="58" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C199" s="58" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D199" s="59"/>
       <c r="E199" s="59"/>
@@ -11303,7 +11310,7 @@
         <v>1.0</v>
       </c>
       <c r="J199" s="58" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K199" s="58">
         <v>32.0</v>
@@ -11329,10 +11336,10 @@
         <v>198.0</v>
       </c>
       <c r="B200" s="58" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C200" s="58" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D200" s="59"/>
       <c r="E200" s="59"/>
@@ -11347,7 +11354,7 @@
         <v>0.0</v>
       </c>
       <c r="J200" s="58" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K200" s="58">
         <v>33.0</v>
@@ -11373,10 +11380,10 @@
         <v>199.0</v>
       </c>
       <c r="B201" s="58" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C201" s="58" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D201" s="58" t="s">
         <v>17</v>
@@ -11393,7 +11400,7 @@
         <v>3.0</v>
       </c>
       <c r="J201" s="58" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K201" s="58">
         <v>33.0</v>
@@ -11419,10 +11426,10 @@
         <v>200.0</v>
       </c>
       <c r="B202" s="58" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C202" s="58" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D202" s="58" t="s">
         <v>17</v>
@@ -11439,7 +11446,7 @@
         <v>3.0</v>
       </c>
       <c r="J202" s="58" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K202" s="58">
         <v>33.0</v>
@@ -11465,10 +11472,10 @@
         <v>201.0</v>
       </c>
       <c r="B203" s="58" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C203" s="58" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D203" s="58" t="s">
         <v>17</v>
@@ -11485,7 +11492,7 @@
         <v>3.0</v>
       </c>
       <c r="J203" s="58" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K203" s="58">
         <v>33.0</v>
@@ -11511,10 +11518,10 @@
         <v>202.0</v>
       </c>
       <c r="B204" s="58" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C204" s="58" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D204" s="58" t="s">
         <v>17</v>
@@ -11531,7 +11538,7 @@
         <v>1.0</v>
       </c>
       <c r="J204" s="58" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K204" s="58">
         <v>33.0</v>
@@ -11557,10 +11564,10 @@
         <v>203.0</v>
       </c>
       <c r="B205" s="58" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C205" s="58" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D205" s="58" t="s">
         <v>17</v>
@@ -11577,7 +11584,7 @@
         <v>1.0</v>
       </c>
       <c r="J205" s="58" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K205" s="58">
         <v>33.0</v>
@@ -11603,10 +11610,10 @@
         <v>204.0</v>
       </c>
       <c r="B206" s="58" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C206" s="58" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D206" s="58" t="s">
         <v>17</v>
@@ -11623,7 +11630,7 @@
         <v>0.0</v>
       </c>
       <c r="J206" s="58" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K206" s="58">
         <v>34.0</v>
@@ -11649,10 +11656,10 @@
         <v>205.0</v>
       </c>
       <c r="B207" s="58" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C207" s="58" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D207" s="58" t="s">
         <v>17</v>
@@ -11667,7 +11674,7 @@
         <v>3.0</v>
       </c>
       <c r="J207" s="58" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K207" s="58">
         <v>34.0</v>
@@ -11693,10 +11700,10 @@
         <v>206.0</v>
       </c>
       <c r="B208" s="58" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C208" s="58" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D208" s="58" t="s">
         <v>17</v>
@@ -11713,7 +11720,7 @@
         <v>3.0</v>
       </c>
       <c r="J208" s="58" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K208" s="58">
         <v>34.0</v>
@@ -11739,10 +11746,10 @@
         <v>207.0</v>
       </c>
       <c r="B209" s="58" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C209" s="58" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D209" s="58" t="s">
         <v>17</v>
@@ -11759,7 +11766,7 @@
         <v>3.0</v>
       </c>
       <c r="J209" s="58" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K209" s="58">
         <v>34.0</v>
@@ -11785,10 +11792,10 @@
         <v>208.0</v>
       </c>
       <c r="B210" s="58" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C210" s="58" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D210" s="58" t="s">
         <v>17</v>
@@ -11805,7 +11812,7 @@
         <v>1.0</v>
       </c>
       <c r="J210" s="58" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K210" s="58">
         <v>34.0</v>
@@ -11831,10 +11838,10 @@
         <v>209.0</v>
       </c>
       <c r="B211" s="58" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C211" s="58" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D211" s="58" t="s">
         <v>17</v>
@@ -11851,7 +11858,7 @@
         <v>1.0</v>
       </c>
       <c r="J211" s="58" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K211" s="58">
         <v>34.0</v>
@@ -11877,10 +11884,10 @@
         <v>210.0</v>
       </c>
       <c r="B212" s="60" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C212" s="57" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D212" s="60"/>
       <c r="E212" s="60"/>
@@ -11895,7 +11902,7 @@
         <v>0.0</v>
       </c>
       <c r="J212" s="61" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K212" s="58">
         <v>35.0</v>
@@ -11921,10 +11928,10 @@
         <v>211.0</v>
       </c>
       <c r="B213" s="57" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C213" s="57" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D213" s="60" t="s">
         <v>17</v>
@@ -11941,7 +11948,7 @@
         <v>3.0</v>
       </c>
       <c r="J213" s="61" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K213" s="58">
         <v>35.0</v>
@@ -11967,10 +11974,10 @@
         <v>212.0</v>
       </c>
       <c r="B214" s="60" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C214" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D214" s="60" t="s">
         <v>17</v>
@@ -11987,7 +11994,7 @@
         <v>3.0</v>
       </c>
       <c r="J214" s="61" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K214" s="58">
         <v>35.0</v>
@@ -12013,10 +12020,10 @@
         <v>213.0</v>
       </c>
       <c r="B215" s="57" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C215" s="57" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D215" s="60" t="s">
         <v>17</v>
@@ -12033,7 +12040,7 @@
         <v>3.0</v>
       </c>
       <c r="J215" s="61" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K215" s="58">
         <v>35.0</v>
@@ -12059,10 +12066,10 @@
         <v>214.0</v>
       </c>
       <c r="B216" s="60" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C216" s="57" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D216" s="60"/>
       <c r="E216" s="60"/>
@@ -12077,7 +12084,7 @@
         <v>1.0</v>
       </c>
       <c r="J216" s="61" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K216" s="58">
         <v>35.0</v>
@@ -12103,10 +12110,10 @@
         <v>215.0</v>
       </c>
       <c r="B217" s="60" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C217" s="57" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D217" s="60" t="s">
         <v>17</v>
@@ -12121,7 +12128,7 @@
         <v>1.0</v>
       </c>
       <c r="J217" s="61" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K217" s="58">
         <v>35.0</v>
@@ -12147,10 +12154,10 @@
         <v>216.0</v>
       </c>
       <c r="B218" s="60" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C218" s="57" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D218" s="60" t="s">
         <v>17</v>
@@ -12167,7 +12174,7 @@
         <v>0.0</v>
       </c>
       <c r="J218" s="61" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K218" s="58">
         <v>36.0</v>
@@ -12193,10 +12200,10 @@
         <v>217.0</v>
       </c>
       <c r="B219" s="60" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C219" s="57" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D219" s="60" t="s">
         <v>17</v>
@@ -12213,7 +12220,7 @@
         <v>3.0</v>
       </c>
       <c r="J219" s="61" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K219" s="58">
         <v>36.0</v>
@@ -12239,10 +12246,10 @@
         <v>218.0</v>
       </c>
       <c r="B220" s="60" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C220" s="57" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D220" s="60" t="s">
         <v>17</v>
@@ -12259,7 +12266,7 @@
         <v>3.0</v>
       </c>
       <c r="J220" s="61" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K220" s="58">
         <v>36.0</v>
@@ -12285,10 +12292,10 @@
         <v>219.0</v>
       </c>
       <c r="B221" s="60" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C221" s="57" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D221" s="60" t="s">
         <v>17</v>
@@ -12305,7 +12312,7 @@
         <v>3.0</v>
       </c>
       <c r="J221" s="61" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K221" s="58">
         <v>36.0</v>
@@ -12331,10 +12338,10 @@
         <v>220.0</v>
       </c>
       <c r="B222" s="60" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C222" s="57" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D222" s="60" t="s">
         <v>17</v>
@@ -12351,7 +12358,7 @@
         <v>1.0</v>
       </c>
       <c r="J222" s="61" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K222" s="58">
         <v>36.0</v>
@@ -12377,10 +12384,10 @@
         <v>221.0</v>
       </c>
       <c r="B223" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C223" s="62" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D223" s="63" t="s">
         <v>17</v>
@@ -12397,7 +12404,7 @@
         <v>1.0</v>
       </c>
       <c r="J223" s="64" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K223" s="65">
         <v>36.0</v>
@@ -32696,19 +32703,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N1" s="69" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O1" s="69" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P1" s="70" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q1" s="2"/>
     </row>
@@ -32717,10 +32724,10 @@
         <v>222.0</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D2" s="72" t="s">
         <v>17</v>
@@ -32766,10 +32773,10 @@
         <v>223.0</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D3" s="72" t="s">
         <v>17</v>
@@ -32811,10 +32818,10 @@
         <v>224.0</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D4" s="72" t="s">
         <v>17</v>
@@ -32860,10 +32867,10 @@
         <v>225.0</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D5" s="72" t="s">
         <v>17</v>
@@ -32907,10 +32914,10 @@
         <v>226.0</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D6" s="72" t="s">
         <v>17</v>
@@ -32956,10 +32963,10 @@
         <v>227.0</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>17</v>
@@ -33003,10 +33010,10 @@
         <v>228.0</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D8" s="72" t="s">
         <v>17</v>
@@ -33052,10 +33059,10 @@
         <v>229.0</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D9" s="72" t="s">
         <v>17</v>
@@ -33099,10 +33106,10 @@
         <v>230.0</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>17</v>
@@ -33148,10 +33155,10 @@
         <v>231.0</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D11" s="72" t="s">
         <v>17</v>
@@ -33197,10 +33204,10 @@
         <v>232.0</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D12" s="72" t="s">
         <v>17</v>
@@ -33246,10 +33253,10 @@
         <v>233.0</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D13" s="67" t="s">
         <v>17</v>
@@ -33295,10 +33302,10 @@
         <v>234.0</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D14" s="72" t="s">
         <v>17</v>
@@ -33344,10 +33351,10 @@
         <v>235.0</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D15" s="72" t="s">
         <v>17</v>
@@ -33366,7 +33373,7 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K15" s="74">
         <v>14.0</v>
@@ -33393,10 +33400,10 @@
         <v>236.0</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D16" s="72" t="s">
         <v>17</v>
@@ -33415,7 +33422,7 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K16" s="74">
         <v>15.0</v>
@@ -33442,10 +33449,10 @@
         <v>237.0</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D17" s="72" t="s">
         <v>17</v>
@@ -33464,7 +33471,7 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K17" s="74">
         <v>16.0</v>
@@ -33491,10 +33498,10 @@
         <v>238.0</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D18" s="72" t="s">
         <v>17</v>
@@ -33513,7 +33520,7 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K18" s="74">
         <v>17.0</v>
@@ -33540,10 +33547,10 @@
         <v>239.0</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D19" s="67" t="s">
         <v>17</v>
@@ -33564,7 +33571,7 @@
         <v>0.0</v>
       </c>
       <c r="J19" s="95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K19" s="81">
         <v>18.0</v>
@@ -33591,10 +33598,10 @@
         <v>240.0</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D20" s="72" t="s">
         <v>17</v>
@@ -33613,7 +33620,7 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="99" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K20" s="74">
         <v>19.0</v>
@@ -33640,10 +33647,10 @@
         <v>241.0</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D21" s="75" t="s">
         <v>17</v>
@@ -33662,7 +33669,7 @@
         <v>0.0</v>
       </c>
       <c r="J21" s="75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K21" s="74">
         <v>20.0</v>
@@ -33689,10 +33696,10 @@
         <v>242.0</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D22" s="75" t="s">
         <v>17</v>
@@ -33711,7 +33718,7 @@
         <v>0.0</v>
       </c>
       <c r="J22" s="75" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K22" s="74">
         <v>21.0</v>
@@ -33738,10 +33745,10 @@
         <v>243.0</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D23" s="75" t="s">
         <v>17</v>
@@ -33758,7 +33765,7 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K23" s="74">
         <v>22.0</v>
@@ -33785,10 +33792,10 @@
         <v>244.0</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D24" s="72" t="s">
         <v>17</v>
@@ -33805,7 +33812,7 @@
         <v>0.0</v>
       </c>
       <c r="J24" s="99" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K24" s="74">
         <v>23.0</v>
@@ -33832,10 +33839,10 @@
         <v>245.0</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D25" s="67" t="s">
         <v>17</v>
@@ -33850,7 +33857,7 @@
         <v>0.0</v>
       </c>
       <c r="J25" s="95" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K25" s="81">
         <v>24.0</v>
@@ -33877,10 +33884,10 @@
         <v>246.0</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D26" s="75" t="s">
         <v>17</v>
@@ -33899,7 +33906,7 @@
         <v>0.0</v>
       </c>
       <c r="J26" s="75" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K26" s="74">
         <v>25.0</v>
@@ -33926,10 +33933,10 @@
         <v>247.0</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D27" s="72" t="s">
         <v>17</v>
@@ -33937,7 +33944,7 @@
       <c r="E27" s="77"/>
       <c r="F27" s="72"/>
       <c r="G27" s="72" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H27" s="73">
         <v>2.0</v>
@@ -33946,7 +33953,7 @@
         <v>0.0</v>
       </c>
       <c r="J27" s="87" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K27" s="74">
         <v>26.0</v>
@@ -33973,10 +33980,10 @@
         <v>248.0</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D28" s="72" t="s">
         <v>17</v>
@@ -33995,7 +34002,7 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="97" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K28" s="74">
         <v>27.0</v>
@@ -34022,10 +34029,10 @@
         <v>249.0</v>
       </c>
       <c r="B29" s="104" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D29" s="72" t="s">
         <v>17</v>
@@ -34044,7 +34051,7 @@
         <v>0.0</v>
       </c>
       <c r="J29" s="99" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K29" s="74">
         <v>28.0</v>
@@ -34071,10 +34078,10 @@
         <v>250.0</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C30" s="77" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D30" s="72" t="s">
         <v>17</v>
@@ -34093,7 +34100,7 @@
         <v>0.0</v>
       </c>
       <c r="J30" s="99" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K30" s="74">
         <v>29.0</v>
@@ -34120,10 +34127,10 @@
         <v>251.0</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D31" s="82" t="s">
         <v>17</v>
@@ -34142,7 +34149,7 @@
         <v>0.0</v>
       </c>
       <c r="J31" s="82" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K31" s="81">
         <v>30.0</v>
@@ -34169,10 +34176,10 @@
         <v>252.0</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D32" s="75" t="s">
         <v>17</v>
@@ -34191,7 +34198,7 @@
         <v>0.0</v>
       </c>
       <c r="J32" s="75" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K32" s="74">
         <v>31.0</v>
@@ -34218,10 +34225,10 @@
         <v>253.0</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D33" s="75" t="s">
         <v>17</v>
@@ -34238,7 +34245,7 @@
         <v>0.0</v>
       </c>
       <c r="J33" s="75" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K33" s="74">
         <v>32.0</v>
@@ -34265,10 +34272,10 @@
         <v>254.0</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D34" s="72" t="s">
         <v>17</v>
@@ -34287,7 +34294,7 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="99" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K34" s="74">
         <v>33.0</v>
@@ -34314,10 +34321,10 @@
         <v>255.0</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D35" s="75" t="s">
         <v>17</v>
@@ -34336,7 +34343,7 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="75" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K35" s="74">
         <v>34.0</v>
@@ -34363,10 +34370,10 @@
         <v>256.0</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C36" s="77" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D36" s="72" t="s">
         <v>17</v>
@@ -34385,7 +34392,7 @@
         <v>0.0</v>
       </c>
       <c r="J36" s="110" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K36" s="74">
         <v>35.0</v>
@@ -34412,10 +34419,10 @@
         <v>257.0</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C37" s="79" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D37" s="67" t="s">
         <v>17</v>
@@ -34434,7 +34441,7 @@
         <v>0.0</v>
       </c>
       <c r="J37" s="95" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K37" s="81">
         <v>36.0</v>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="572">
   <si>
     <t>type_id</t>
   </si>
@@ -6409,8 +6409,12 @@
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
+      <c r="F85" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="H85" s="23">
         <v>5.0</v>
       </c>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -203,7 +203,7 @@
     <t>Take the top 🃏 of another player's deck or discard.</t>
   </si>
   <si>
-    <t>Stashing vendor</t>
+    <t>Stashing Vendor</t>
   </si>
   <si>
     <t>When used to build, you can include junk 🃏🃏🃏.</t>
@@ -3731,7 +3731,7 @@
       <c r="A26" s="6">
         <v>24.0</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="6" t="s">

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="572">
   <si>
     <t>type_id</t>
   </si>
@@ -1416,7 +1416,7 @@
     <t>Coffee Grinder</t>
   </si>
   <si>
-    <t>Discard 1–3 🃏🃏 from any player's deck.</t>
+    <t>Discard 1–3 🃏🃏🃏 from any player's deck.</t>
   </si>
   <si>
     <t>Accident</t>
@@ -33565,9 +33565,7 @@
       <c r="F19" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="67" t="s">
-        <v>110</v>
-      </c>
+      <c r="G19" s="67"/>
       <c r="H19" s="80">
         <v>2.0</v>
       </c>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="572">
   <si>
     <t>type_id</t>
   </si>
@@ -11527,13 +11527,11 @@
       <c r="C204" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="D204" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E204" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F204" s="59"/>
+      <c r="D204" s="58"/>
+      <c r="E204" s="58"/>
+      <c r="F204" s="58" t="s">
+        <v>17</v>
+      </c>
       <c r="G204" s="59"/>
       <c r="H204" s="60">
         <v>5.0</v>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="572">
   <si>
     <t>type_id</t>
   </si>
@@ -2067,7 +2067,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2290,6 +2290,9 @@
     </xf>
     <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="3" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -33849,7 +33852,9 @@
       </c>
       <c r="E25" s="67"/>
       <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
+      <c r="G25" s="102" t="s">
+        <v>110</v>
+      </c>
       <c r="H25" s="80">
         <v>2.0</v>
       </c>
@@ -33874,7 +33879,7 @@
       <c r="O25" s="82">
         <v>1.0</v>
       </c>
-      <c r="P25" s="102">
+      <c r="P25" s="103">
         <v>4.0</v>
       </c>
       <c r="Q25" s="2"/>
@@ -33923,7 +33928,7 @@
       <c r="O26" s="75">
         <v>1.0</v>
       </c>
-      <c r="P26" s="103">
+      <c r="P26" s="104">
         <v>5.0</v>
       </c>
       <c r="Q26" s="2"/>
@@ -33970,7 +33975,7 @@
       <c r="O27" s="75">
         <v>1.0</v>
       </c>
-      <c r="P27" s="103">
+      <c r="P27" s="104">
         <v>5.0</v>
       </c>
       <c r="Q27" s="2"/>
@@ -33991,14 +33996,14 @@
       <c r="E28" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="104"/>
+      <c r="F28" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="105"/>
       <c r="H28" s="73">
         <v>2.0</v>
       </c>
-      <c r="I28" s="105">
+      <c r="I28" s="106">
         <v>0.0</v>
       </c>
       <c r="J28" s="97" t="s">
@@ -34019,7 +34024,7 @@
       <c r="O28" s="75">
         <v>2.0</v>
       </c>
-      <c r="P28" s="103">
+      <c r="P28" s="104">
         <v>5.0</v>
       </c>
       <c r="Q28" s="2"/>
@@ -34028,7 +34033,7 @@
       <c r="A29" s="71">
         <v>249.0</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="105" t="s">
         <v>554</v>
       </c>
       <c r="C29" s="77" t="s">
@@ -34068,7 +34073,7 @@
       <c r="O29" s="75">
         <v>1.0</v>
       </c>
-      <c r="P29" s="103">
+      <c r="P29" s="104">
         <v>5.0</v>
       </c>
       <c r="Q29" s="2"/>
@@ -34117,7 +34122,7 @@
       <c r="O30" s="75">
         <v>3.0</v>
       </c>
-      <c r="P30" s="103">
+      <c r="P30" s="104">
         <v>5.0</v>
       </c>
       <c r="Q30" s="2"/>
@@ -34145,7 +34150,7 @@
       <c r="H31" s="80">
         <v>2.0</v>
       </c>
-      <c r="I31" s="106">
+      <c r="I31" s="107">
         <v>0.0</v>
       </c>
       <c r="J31" s="82" t="s">
@@ -34166,7 +34171,7 @@
       <c r="O31" s="82">
         <v>1.0</v>
       </c>
-      <c r="P31" s="107">
+      <c r="P31" s="108">
         <v>5.0</v>
       </c>
       <c r="Q31" s="2"/>
@@ -34194,7 +34199,7 @@
       <c r="H32" s="73">
         <v>2.0</v>
       </c>
-      <c r="I32" s="105">
+      <c r="I32" s="106">
         <v>0.0</v>
       </c>
       <c r="J32" s="75" t="s">
@@ -34215,7 +34220,7 @@
       <c r="O32" s="75">
         <v>1.0</v>
       </c>
-      <c r="P32" s="108">
+      <c r="P32" s="109">
         <v>6.0</v>
       </c>
       <c r="Q32" s="2"/>
@@ -34241,7 +34246,7 @@
       <c r="H33" s="73">
         <v>2.0</v>
       </c>
-      <c r="I33" s="105">
+      <c r="I33" s="106">
         <v>0.0</v>
       </c>
       <c r="J33" s="75" t="s">
@@ -34262,7 +34267,7 @@
       <c r="O33" s="75">
         <v>1.0</v>
       </c>
-      <c r="P33" s="108">
+      <c r="P33" s="109">
         <v>6.0</v>
       </c>
       <c r="Q33" s="2"/>
@@ -34283,7 +34288,7 @@
       <c r="E34" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="109" t="s">
+      <c r="F34" s="110" t="s">
         <v>17</v>
       </c>
       <c r="G34" s="97"/>
@@ -34311,7 +34316,7 @@
       <c r="O34" s="75">
         <v>2.0</v>
       </c>
-      <c r="P34" s="108">
+      <c r="P34" s="109">
         <v>6.0</v>
       </c>
       <c r="Q34" s="2"/>
@@ -34339,7 +34344,7 @@
       <c r="H35" s="73">
         <v>2.0</v>
       </c>
-      <c r="I35" s="105">
+      <c r="I35" s="106">
         <v>0.0</v>
       </c>
       <c r="J35" s="75" t="s">
@@ -34360,7 +34365,7 @@
       <c r="O35" s="75">
         <v>1.0</v>
       </c>
-      <c r="P35" s="108">
+      <c r="P35" s="109">
         <v>6.0</v>
       </c>
       <c r="Q35" s="2"/>
@@ -34381,7 +34386,7 @@
       <c r="E36" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="109" t="s">
+      <c r="F36" s="110" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="97"/>
@@ -34391,7 +34396,7 @@
       <c r="I36" s="98">
         <v>0.0</v>
       </c>
-      <c r="J36" s="110" t="s">
+      <c r="J36" s="111" t="s">
         <v>470</v>
       </c>
       <c r="K36" s="74">
@@ -34409,7 +34414,7 @@
       <c r="O36" s="75">
         <v>1.0</v>
       </c>
-      <c r="P36" s="108">
+      <c r="P36" s="109">
         <v>6.0</v>
       </c>
       <c r="Q36" s="2"/>
@@ -34458,7 +34463,7 @@
       <c r="O37" s="82">
         <v>2.0</v>
       </c>
-      <c r="P37" s="111">
+      <c r="P37" s="112">
         <v>6.0</v>
       </c>
       <c r="Q37" s="2"/>
@@ -34475,7 +34480,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="73"/>
-      <c r="I40" s="105"/>
+      <c r="I40" s="106"/>
       <c r="J40" s="2"/>
       <c r="K40" s="73"/>
       <c r="L40" s="2"/>
@@ -34494,9 +34499,9 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="73"/>
-      <c r="I41" s="105"/>
+      <c r="I41" s="106"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="112"/>
+      <c r="K41" s="113"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -34513,9 +34518,9 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="105"/>
+      <c r="I42" s="106"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="112"/>
+      <c r="K42" s="113"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -34532,7 +34537,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="73"/>
-      <c r="I43" s="105"/>
+      <c r="I43" s="106"/>
       <c r="J43" s="2"/>
       <c r="K43" s="73"/>
       <c r="L43" s="2"/>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="572">
   <si>
     <t>type_id</t>
   </si>
@@ -8293,7 +8293,9 @@
       </c>
       <c r="D129" s="37"/>
       <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
+      <c r="F129" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="G129" s="38"/>
       <c r="H129" s="31">
         <v>2.0</v>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -845,7 +845,7 @@
     <t>Spend X (1–10) to gain X/2 🟡 (rounded up).</t>
   </si>
   <si>
-    <t>Dodos 1</t>
+    <t>Dodo 1</t>
   </si>
   <si>
     <r>
@@ -878,7 +878,7 @@
     <t>Dodos</t>
   </si>
   <si>
-    <t>Dodos 2</t>
+    <t>Dodo 2</t>
   </si>
   <si>
     <r>
@@ -920,7 +920,7 @@
     </r>
   </si>
   <si>
-    <t>Dodos 3</t>
+    <t>Dodo 3</t>
   </si>
   <si>
     <r>
@@ -955,7 +955,7 @@
     </r>
   </si>
   <si>
-    <t>Dodos 4</t>
+    <t>Dodo 4</t>
   </si>
   <si>
     <r>
@@ -982,7 +982,7 @@
     </r>
   </si>
   <si>
-    <t>Dodos 5A</t>
+    <t>Dodo 5A</t>
   </si>
   <si>
     <r>
@@ -1017,7 +1017,7 @@
     </r>
   </si>
   <si>
-    <t>Dodos 5B</t>
+    <t>Dodo 5B</t>
   </si>
   <si>
     <r>
@@ -1044,7 +1044,7 @@
     </r>
   </si>
   <si>
-    <t>Capuchins 1</t>
+    <t>Capuchin 1</t>
   </si>
   <si>
     <t>Get 2 🟡. Choose an opponent to get 1 🟡.</t>
@@ -1053,19 +1053,19 @@
     <t>Capuchins</t>
   </si>
   <si>
-    <t>Capuchins 2</t>
+    <t>Capuchin 2</t>
   </si>
   <si>
     <t>Get 1 🟡.</t>
   </si>
   <si>
-    <t>Capuchins 3</t>
+    <t>Capuchin 3</t>
   </si>
   <si>
     <t>Give another player 1 🃏. Take 1 🟡 from them.</t>
   </si>
   <si>
-    <t>Capuchins 4</t>
+    <t>Capuchin 4</t>
   </si>
   <si>
     <r>
@@ -1085,7 +1085,7 @@
     </r>
   </si>
   <si>
-    <t>Capuchins 5A</t>
+    <t>Capuchin 5A</t>
   </si>
   <si>
     <r>
@@ -1105,7 +1105,7 @@
     </r>
   </si>
   <si>
-    <t>Capuchins 5B</t>
+    <t>Capuchin 5B</t>
   </si>
   <si>
     <r>
@@ -1125,7 +1125,7 @@
     </r>
   </si>
   <si>
-    <t>Olms 1</t>
+    <t>Olm 1</t>
   </si>
   <si>
     <t>You may toss 1 🃏 from the supply. When used to purchase, you may purchase the top 🃏 of the bin.</t>
@@ -1134,31 +1134,31 @@
     <t>Olms</t>
   </si>
   <si>
-    <t>Olms 2</t>
+    <t>Olm 2</t>
   </si>
   <si>
     <t>Toss any 1 animalfolk 🃏 from your discard to take the centre 🃏 from the market.</t>
   </si>
   <si>
-    <t>Olms 3</t>
+    <t>Olm 3</t>
   </si>
   <si>
     <t>Toss 1 🃏. Toss 0–2 🃏🃏 in the market.</t>
   </si>
   <si>
-    <t>Olms 4</t>
+    <t>Olm 4</t>
   </si>
   <si>
     <t>Look at the top 3 🃏🃏🃏 of an opponent's deck. You may toss 1 of them to take 1 🃏 from the market. Place all 3 🃏🃏🃏 on their discard.</t>
   </si>
   <si>
-    <t>Olms 5A</t>
+    <t>Olm 5A</t>
   </si>
   <si>
     <t>Look at 3 random 🃏🃏🃏 from an opponent. You may toss 1 of them to give 1 🃏 from the market to them.</t>
   </si>
   <si>
-    <t>Olms 5B</t>
+    <t>Olm 5B</t>
   </si>
   <si>
     <t>Place 1 🃏 from the market on each player's deck.</t>
@@ -1242,7 +1242,7 @@
     <t>Finish 3: 🃏🃏🃏 you use this turn get +1 to their value.</t>
   </si>
   <si>
-    <t>Skinks 1</t>
+    <t>Skink 1</t>
   </si>
   <si>
     <t>At the end of your turn, place the top 0–2 🃏🃏 of your discard on your deck in any order.</t>
@@ -1251,31 +1251,31 @@
     <t>Skinks</t>
   </si>
   <si>
-    <t>Skinks 2</t>
+    <t>Skink 2</t>
   </si>
   <si>
     <t>Draw 1 🃏 from the supply. At the end of your turn, toss 1 animalfolk 🃏 or this 🃏.</t>
   </si>
   <si>
-    <t>Skinks 3</t>
+    <t>Skink 3</t>
   </si>
   <si>
     <t>Draw 2 🃏🃏. At the end of your turn, toss 1 🃏.</t>
   </si>
   <si>
-    <t>Skinks 4</t>
+    <t>Skink 4</t>
   </si>
   <si>
     <t>At the end of your turn, search your deck for 1 🃏. Shuffle your deck.</t>
   </si>
   <si>
-    <t>Skinks 5A</t>
+    <t>Skink 5A</t>
   </si>
   <si>
     <t>Draw 3 🃏🃏🃏. At the end of your turn, discard 2 🃏🃏.</t>
   </si>
   <si>
-    <t>Skinks 5B</t>
+    <t>Skink 5B</t>
   </si>
   <si>
     <t>At the end of your turn, swap 1 🃏 with the top 🃏 of your discard.</t>
@@ -1443,7 +1443,7 @@
     <t>Draw 🃏🃏🃏 from the supply equal to the number of players. Give 1 of them to each player.</t>
   </si>
   <si>
-    <t>Glassfrogs 1</t>
+    <t>Glassfrog 1</t>
   </si>
   <si>
     <t>Repeat. Discard 1 🃏 to draw 1 🃏.</t>
@@ -1452,37 +1452,37 @@
     <t>Glassfrogs</t>
   </si>
   <si>
-    <t>Glassfrogs 2</t>
+    <t>Glassfrog 2</t>
   </si>
   <si>
     <t>Repeat. Look at the top 🃏 of the supply. Toss 1 🃏 in the market and place the new 🃏 in its place.</t>
   </si>
   <si>
-    <t>Glassfrogs 3</t>
+    <t>Glassfrog 3</t>
   </si>
   <si>
     <t>When this 🃏 is placed on your discard, toss any 1 🃏 from there.</t>
   </si>
   <si>
-    <t>Glassfrogs 4</t>
+    <t>Glassfrog 4</t>
   </si>
   <si>
     <t>Repeat. Search your deck for 1 🃏 to put aside. Shuffle your deck. Place the 🃏 on your deck.</t>
   </si>
   <si>
-    <t>Glassfrogs 5A</t>
+    <t>Glassfrog 5A</t>
   </si>
   <si>
     <t>Repeat. 1 random 🃏 in your hand gets +1 to its value for this turn.</t>
   </si>
   <si>
-    <t>Glassfrogs 5B</t>
+    <t>Glassfrog 5B</t>
   </si>
   <si>
     <t>Look at the top 🃏 of you deck. You may swap it with the top 🃏 of your discard.</t>
   </si>
   <si>
-    <t>Gorillas 1</t>
+    <t>Gorilla 1</t>
   </si>
   <si>
     <t>Flip and place your deck on your discard. Take the top or bottom 🃏 of your discard.</t>
@@ -1491,37 +1491,37 @@
     <t>Gorillas</t>
   </si>
   <si>
-    <t>Gorillas 2</t>
+    <t>Gorilla 2</t>
   </si>
   <si>
     <t>Discard your hand. Take 1 🃏 from the market.</t>
   </si>
   <si>
-    <t>Gorillas 3</t>
+    <t>Gorilla 3</t>
   </si>
   <si>
     <t>Toss the top 🃏 of your deck. If it was an animalfolk 🃏, draw 1 🃏 from the supply.</t>
   </si>
   <si>
-    <t>Gorillas 4</t>
+    <t>Gorilla 4</t>
   </si>
   <si>
     <t>🃏🃏🃏 you use this turn are valued 4.</t>
   </si>
   <si>
-    <t>Gorillas 5A</t>
+    <t>Gorilla 5A</t>
   </si>
   <si>
     <t>Draw 5 🃏🃏🃏. Discard 6 🃏🃏🃏.</t>
   </si>
   <si>
-    <t>Gorillas 5B</t>
+    <t>Gorilla 5B</t>
   </si>
   <si>
     <t>Toss all 🃏🃏🃏 in the market, fill it, and take 1 🃏 from there.</t>
   </si>
   <si>
-    <t>Walruses 1</t>
+    <t>Walrus 1</t>
   </si>
   <si>
     <t>When used to build, decide this 🃏 value (1–3).</t>
@@ -1530,37 +1530,37 @@
     <t>Walruses</t>
   </si>
   <si>
-    <t>Walruses 2</t>
+    <t>Walrus 2</t>
   </si>
   <si>
     <t>When you build this turn, you may include any animalfolk 🃏🃏🃏.</t>
   </si>
   <si>
-    <t>Walruses 3</t>
+    <t>Walrus 3</t>
   </si>
   <si>
     <t>When you build this turn, you may include 1 🃏 junk.</t>
   </si>
   <si>
-    <t>Walruses 4</t>
+    <t>Walrus 4</t>
   </si>
   <si>
     <t>Take any 1 🃏 of the bottom 3 🃏🃏🃏 of your discard.</t>
   </si>
   <si>
-    <t>Walruses 5A</t>
+    <t>Walrus 5A</t>
   </si>
   <si>
     <t>If you don't build this turn, hand size +2 for this turn.</t>
   </si>
   <si>
-    <t>Walruses 5B</t>
+    <t>Walrus 5B</t>
   </si>
   <si>
     <t>While this 🃏 is in your rightmost stack, your next stack can be 1 smaller or larger than usual.</t>
   </si>
   <si>
-    <t>Tasmanian Devils 1</t>
+    <t>Tasmanian Devil 1</t>
   </si>
   <si>
     <t>Look at the top 🃏 of any player's deck. You may discard it.</t>
@@ -1569,37 +1569,37 @@
     <t>Tasmanian Devils</t>
   </si>
   <si>
-    <t>Tasmanian Devils 2</t>
+    <t>Tasmanian Devil 2</t>
   </si>
   <si>
     <t>Discard 2 random 🃏🃏 from any player. They draw as many 🃏🃏.</t>
   </si>
   <si>
-    <t>Tasmanian Devils 3</t>
+    <t>Tasmanian Devil 3</t>
   </si>
   <si>
     <t>Shuffle any 2 🃏🃏 from any player's discard into their deck.</t>
   </si>
   <si>
-    <t>Tasmanian Devils 4</t>
+    <t>Tasmanian Devil 4</t>
   </si>
   <si>
     <t>Look at the top 3 🃏🃏🃏 of any player's deck and discard any of them. Shuffle their deck.</t>
   </si>
   <si>
-    <t>Tasmanian Devils 5A</t>
+    <t>Tasmanian Devil 5A</t>
   </si>
   <si>
     <t>Discard 1 random 🃏 from any player.</t>
   </si>
   <si>
-    <t>Tasmanian Devils 5B</t>
+    <t>Tasmanian Devil 5B</t>
   </si>
   <si>
     <t>Shuffle any player’s discard. They swap 5 random 🃏🃏🃏 with the top 🃏🃏🃏 of their discard.</t>
   </si>
   <si>
-    <t>Junglefowls 1</t>
+    <t>Junglefowl 1</t>
   </si>
   <si>
     <t>Draw 1 🃏 [🌅 +1 🃏].</t>
@@ -1608,31 +1608,31 @@
     <t>Junglefowls</t>
   </si>
   <si>
-    <t>Junglefowls 2</t>
+    <t>Junglefowl 2</t>
   </si>
   <si>
     <t>Draw 1 🃏 from the supply. [🌅 Hand size +3 for this turn.]</t>
   </si>
   <si>
-    <t>Junglefowls 3</t>
+    <t>Junglefowl 3</t>
   </si>
   <si>
     <t>Toss 1 🃏. [🌅 Draw 2 🃏🃏.]</t>
   </si>
   <si>
-    <t>Junglefowls 4</t>
+    <t>Junglefowl 4</t>
   </si>
   <si>
     <t>Look at the top 2 🃏🃏 [🌅 +2 🃏🃏] of your deck and take 1 of them. You may reorder the rest.</t>
   </si>
   <si>
-    <t>Junglefowls 5A</t>
+    <t>Junglefowl 5A</t>
   </si>
   <si>
     <t>Shuffle your discard. Take any 1 🃏 of the top 2 🃏🃏 [🌅 or 4 🃏🃏🃏] of your discard.</t>
   </si>
   <si>
-    <t>Junglefowls 5B</t>
+    <t>Junglefowl 5B</t>
   </si>
   <si>
     <t>Draw 1 🃏. It gets [🌅 +2] [☀️ +1] [🌙 -1] to its value for this turn.</t>
@@ -1845,19 +1845,19 @@
     <t>Mono gains 10 🟡. Acquire.</t>
   </si>
   <si>
-    <t>Dodos Mono</t>
+    <t>Dodo Mono</t>
   </si>
   <si>
     <t>Mono gains 12 🟡. Acquire. At the end of its turn, Mono discards 2 🃏🃏.</t>
   </si>
   <si>
-    <t>Capuchins Mono</t>
+    <t>Capuchin Mono</t>
   </si>
   <si>
     <t>Mono takes 1 🟡 from you. Discard 1 🃏 from your deck. If it is not junk, Mono takes it. Acquire.</t>
   </si>
   <si>
-    <t>Olms Mono</t>
+    <t>Olm Mono</t>
   </si>
   <si>
     <t>You toss 1 random animalfolk 🃏 valued 2+ to take the lowest valued 🃏 from the market.</t>
@@ -1875,7 +1875,7 @@
     <t>Next time Mono starts its turn with no Mono 🃏🃏🃏, it takes the leftmost 🃏 from the market.</t>
   </si>
   <si>
-    <t>Skinks Mono</t>
+    <t>Skink Mono</t>
   </si>
   <si>
     <t>Mono draws 2 🃏🃏. Acquire. At the end of Mono's turn, it draws 2 🃏🃏.</t>
@@ -1908,31 +1908,31 @@
     <t>Roll ❇️✳️. Look at 1 🃏 from your [source]. If it is not junk, place it into Mono's [destination]. Acquire.</t>
   </si>
   <si>
-    <t>Glassfrogs Mono</t>
+    <t>Glassfrog Mono</t>
   </si>
   <si>
     <t>Mono draws 2 🃏🃏 and discards its 2 lowest 🃏🃏. Twice. Acquire.</t>
   </si>
   <si>
-    <t>Gorillas Mono</t>
+    <t>Gorilla Mono</t>
   </si>
   <si>
     <t>🃏🃏🃏 Mono uses this turn are valued 4. Acquire.</t>
   </si>
   <si>
-    <t>Walruses Mono</t>
+    <t>Walrus Mono</t>
   </si>
   <si>
     <t>Mono can use a single animalfolk 🃏 to build a stack this turn.</t>
   </si>
   <si>
-    <t>Tasmanian Devils Mono</t>
+    <t>Shrewd Member</t>
   </si>
   <si>
     <t>You discard 1 random 🃏. Shuffle 2 junk 🃏🃏 from your discard into your deck. Acquire.</t>
   </si>
   <si>
-    <t>Junglefowls Mono</t>
+    <t>Junglefowl Mono</t>
   </si>
   <si>
     <t>Mono's hand size [🌅 +4] [☀️ +3] [🌙 -1] for this turn. Acquire.</t>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -8421,7 +8421,9 @@
       <c r="D132" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E132" s="34"/>
+      <c r="E132" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="F132" s="37"/>
       <c r="G132" s="38"/>
       <c r="H132" s="31">
@@ -8462,9 +8464,7 @@
       <c r="D133" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E133" s="34" t="s">
-        <v>17</v>
-      </c>
+      <c r="E133" s="34"/>
       <c r="F133" s="37"/>
       <c r="G133" s="38"/>
       <c r="H133" s="31">

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="600">
   <si>
     <t>type_id</t>
   </si>
@@ -1731,120 +1731,180 @@
     <t>animalfolk_game</t>
   </si>
   <si>
+    <t>animalfolk_flavour</t>
+  </si>
+  <si>
     <t>Swift Member</t>
   </si>
   <si>
     <t>Mono draws 3 🃏🃏🃏. Acquire.</t>
   </si>
   <si>
+    <t>Macaws help you manage your hand of cards. New players like their opportunistic nature while seasoned players use them to optimise their play.</t>
+  </si>
+  <si>
     <t>Loyal Member</t>
   </si>
   <si>
     <t>Mono takes the highest printed valued 🃏 from the market.</t>
   </si>
   <si>
+    <t>Pandas are close friends with the market keepers and benefit from that. They’re great for beginners and players wanting a more peaceful game.</t>
+  </si>
+  <si>
     <t>Wily Member</t>
   </si>
   <si>
     <t>Mono swaps 1 random 🃏 from you with 1 junk 🃏 from it. Acquire.</t>
   </si>
   <si>
+    <t>Raccoons are a great addition for players wanting some conflict. They don’t care about the definition of ‘ownership’. You have been warned!</t>
+  </si>
+  <si>
     <t>Stashing Member</t>
   </si>
   <si>
     <t>Mono can use junk 🃏🃏🃏 to build this turn.</t>
   </si>
   <si>
+    <t>No one can set up their stall faster than squirrels. Inexperienced players like these hoarders, while experts can pull off nice combos with them.</t>
+  </si>
+  <si>
     <t>Bold Member</t>
   </si>
   <si>
     <t>Roll 🐱. Swap that many 🃏🃏🃏 between the tops of your and Mono’s decks. Acquire.</t>
   </si>
   <si>
+    <t>Ocelots can give you an edge if luck is on your side. Add these to the game when you want to introduce a little havoc to your contest!</t>
+  </si>
+  <si>
     <t>Flexible Member</t>
   </si>
   <si>
     <t>If Mono's discard has no Mono 🃏🃏🃏, discard its deck. Mono plays 1 Mono 🃏 from its discard.</t>
   </si>
   <si>
+    <t>Chameleons make you play your cards as if they’re other cards in the game. They are recommended for more experienced players with long-term plans.</t>
+  </si>
+  <si>
     <t>Tireless Member</t>
   </si>
   <si>
     <t>Order 🃏🃏🃏 in the market from the highest to lowest value. Mono ignores the market's added costs this turn. Acquire.</t>
   </si>
   <si>
+    <t>Platypuses get the right cards into their hands at the right time. Rookies grasp platypuses quickly and experienced players like to try out new things with them.</t>
+  </si>
+  <si>
     <t>Steady Member</t>
   </si>
   <si>
     <t>At the start of Mono’s next turn, it takes the leftmost 🃏 from the market.</t>
   </si>
   <si>
+    <t>You need to make plans with sloths if you don’t want to waste their delayed effects. Feel free to include them even in your first game – just don’t expect to be able to unleash their full potential right away!</t>
+  </si>
+  <si>
     <t>Little Member</t>
   </si>
   <si>
     <t>Mono draws 1 🃏 from your deck. It places back its lowest 🃏. Acquire.</t>
   </si>
   <si>
+    <t>Crocodiles bully other competitors by stealing their property and making threats. Invite crocodiles if you want interaction and conflict!</t>
+  </si>
+  <si>
     <t>Cunning Member</t>
   </si>
   <si>
     <t>Mono draws 1 🃏 from its and your deck. It gives you the lower valued 🃏 of those. Acquire.</t>
   </si>
   <si>
+    <t>Foxes love to get everyone involved. Other folks are wary of their seemingly friendly gestures, but can’t resist foxes’ tempting aid. Playing with them requires skill as timing can be critical with foxes.</t>
+  </si>
+  <si>
     <t>Daring Member</t>
   </si>
   <si>
     <t>Roll 💈. Multiply the value of each 🃏 Mono uses this turn by the rolled value. Acquire.</t>
   </si>
   <si>
+    <t>No mountain is too tall or ocean too deep for polecats! These brave adventurers live for danger and aren’t afraid of taking chances. Feeling lucky?</t>
+  </si>
+  <si>
     <t>Wise Member</t>
   </si>
   <si>
     <t>If you purchased on your last turn, Mono draws 4 🃏🃏🃏. Otherwise, it draws 2 🃏🃏. Acquire.</t>
   </si>
   <si>
+    <t>Owls wait patiently for their target to make a move before making their own. They are great at adding more interaction between players and will keep you on your toes. Stay vigilant!</t>
+  </si>
+  <si>
     <t>Rigorous Member</t>
   </si>
   <si>
     <t>Mono discards all junk 🃏🃏🃏. It draws as many 🃏🃏🃏 +1. Acquire.</t>
   </si>
   <si>
+    <t>Monitors excel at manipulating their discard piles. Do you have great cards in your discard and useless junk in your deck? You can fix that in no time with the monitors!</t>
+  </si>
+  <si>
     <t>Voracious Member</t>
   </si>
   <si>
     <t>Mono tosses its lowest valued animalfolk 🃏. Mono takes the highest valued 🃏 from the market. Acquire.</t>
   </si>
   <si>
+    <t>Getting rid of old items and trying out new things is second nature to the rather impatient lemurs. Don’t get too attached to your cards and introduce them to your game!</t>
+  </si>
+  <si>
     <t>Pompous Member</t>
   </si>
   <si>
     <t>Discard 1 random 🃏 from your hand. If the 🃏 value matches any 🃏🃏🃏 in the market, Mono takes it. Acquire.</t>
   </si>
   <si>
+    <t>Magpies are choosy thieves. They try to steal only specific items and nothing more. You need to keep an eye on your opponents to utilise magpies to their full potential. For advanced players only!</t>
+  </si>
+  <si>
     <t>Carefree Member</t>
   </si>
   <si>
     <t>Swap Mono's lowest animalfolk 🃏 with 1 random animalfolk 🃏 of higher value from you. Acquire.</t>
   </si>
   <si>
+    <t>Echidnas borrow cards from everyone, but at least they always leave something as a replacement. Add them in when you want a lot of interaction between players without straight-out stealing.</t>
+  </si>
+  <si>
     <t>Arcane Member</t>
   </si>
   <si>
     <t>Roll 🐰. Mono draws 1 🃏 from [☄️: nowhere] [🪐: the supply] [✨: its deck]. Acquire.</t>
   </si>
   <si>
+    <t>Statistics and calculations or blind trust in beliefs from previous generations? Hares introduce luck, but you can do a lot to play around it with precise timing and careful preparations.</t>
+  </si>
+  <si>
     <t>Clever Member</t>
   </si>
   <si>
     <t>Mono stores the top 3 🃏🃏🃏 of its deck. Acquire.</t>
   </si>
   <si>
+    <t>Kangaroos are excellent at hiding their valuables and creating diversions for mischief makers. However, their techniques are useful even when no one is playing dirty.</t>
+  </si>
+  <si>
     <t>Avid Member</t>
   </si>
   <si>
     <t>Mono gains 10 🟡. Acquire.</t>
   </si>
   <si>
+    <t>Tuataras benefit from the riches gathered by their ancestors. You can save up gold and gain new options, including purchasing expensive cards more easily.</t>
+  </si>
+  <si>
     <t>Dodo Mono</t>
   </si>
   <si>
@@ -1869,12 +1929,18 @@
     <t>Add +1 to Mono’s highest valued animalfolk 🃏 for each junk 🃏 in its hand.</t>
   </si>
   <si>
+    <t>Penguins give you potent effects for tough situations. Their power comes at a cost which seasoned players can turn into an advantage.</t>
+  </si>
+  <si>
     <t>Impulsive Member</t>
   </si>
   <si>
     <t>Next time Mono starts its turn with no Mono 🃏🃏🃏, it takes the leftmost 🃏 from the market.</t>
   </si>
   <si>
+    <t>Turtles like to play new techniques but struggle to finish them. If you’re not careful, everything can come to a standstill. You will have to think around this.</t>
+  </si>
+  <si>
     <t>Skink Mono</t>
   </si>
   <si>
@@ -1890,6 +1956,9 @@
     <t>onMonoFailsToBuild</t>
   </si>
   <si>
+    <t>Do you have what it takes to create a plan and then execute it with precision? Master beavers to unleash awesome combos! They are recommended for a bit more experienced players.</t>
+  </si>
+  <si>
     <t>Pristine Member</t>
   </si>
   <si>
@@ -1902,12 +1971,18 @@
     <t>Place 1 junk 🃏 from Mono’s discard and 1 junk 🃏 from the junkyard on your discard. Acquire.</t>
   </si>
   <si>
+    <t>Gulls absolutely love gifting junk to their opponents to slow them down! Novices can get the hang of them pretty fast. Just be prepared for a slightly slower game.</t>
+  </si>
+  <si>
     <t>Fumbling Member</t>
   </si>
   <si>
     <t>Roll ❇️✳️. Look at 1 🃏 from your [source]. If it is not junk, place it into Mono's [destination]. Acquire.</t>
   </si>
   <si>
+    <t>Pangolins cause destruction by being so absent-minded. Even more skilled players may have trouble exploiting their potential without it backfiring.</t>
+  </si>
+  <si>
     <t>Glassfrog Mono</t>
   </si>
   <si>
@@ -1932,6 +2007,9 @@
     <t>You discard 1 random 🃏. Shuffle 2 junk 🃏🃏 from your discard into your deck. Acquire.</t>
   </si>
   <si>
+    <t>Tasmanian devils are your best bet if you want to mess up your opponents’ plans! They’re not ones to steal, but they do enhance it if you invite those that are.</t>
+  </si>
+  <si>
     <t>Junglefowl Mono</t>
   </si>
   <si>
@@ -1944,10 +2022,16 @@
     <t>Mono draws [🌅 3 🃏🃏🃏] [☀️ 4 🃏🃏🃏] [🌙 2 🃏🃏]. Acquire.</t>
   </si>
   <si>
+    <t>Mongooses work hard during the day. Managing your tempo becomes increasingly important as you try to benefit more from them than your opponents do.</t>
+  </si>
+  <si>
     <t>Stealthy Member</t>
   </si>
   <si>
     <t>[☀️ Mono draws 1 🃏 from your deck.] [🌙 Mono takes 1 random animalfolk 🃏 from you.] Acquire.</t>
+  </si>
+  <si>
+    <t>Bats appear innocent during the day, but just wait for the night to set in! Your possessions will end up either missing or destroyed by the time dawn approaches.</t>
   </si>
 </sst>
 </file>
@@ -2213,6 +2297,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -2243,9 +2330,6 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -32671,7 +32755,7 @@
     <col customWidth="1" min="14" max="14" width="22.0"/>
     <col customWidth="1" min="15" max="15" width="22.29"/>
     <col customWidth="1" min="16" max="16" width="21.71"/>
-    <col customWidth="1" min="17" max="17" width="19.43"/>
+    <col customWidth="1" min="17" max="17" width="222.14"/>
     <col customWidth="1" min="18" max="18" width="29.0"/>
   </cols>
   <sheetData>
@@ -32724,256 +32808,268 @@
       <c r="P1" s="70" t="s">
         <v>498</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="71" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="71">
+      <c r="A2" s="72">
         <v>222.0</v>
       </c>
-      <c r="B2" s="72" t="s">
-        <v>499</v>
-      </c>
-      <c r="C2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>500</v>
       </c>
-      <c r="D2" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73">
+      <c r="C2" s="73" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74">
         <v>2.0</v>
       </c>
-      <c r="I2" s="73">
+      <c r="I2" s="74">
         <v>0.0</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="74">
+      <c r="K2" s="75">
         <v>1.0</v>
       </c>
-      <c r="L2" s="75">
+      <c r="L2" s="76">
         <v>1.0</v>
       </c>
-      <c r="M2" s="75">
+      <c r="M2" s="76">
         <v>1.0</v>
       </c>
-      <c r="N2" s="75">
+      <c r="N2" s="76">
         <v>0.0</v>
       </c>
-      <c r="O2" s="75">
+      <c r="O2" s="76">
         <v>1.0</v>
       </c>
-      <c r="P2" s="76">
+      <c r="P2" s="77">
         <v>1.0</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="76" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="71">
+      <c r="A3" s="72">
         <v>223.0</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>501</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>502</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73">
+      <c r="B3" s="73" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74">
         <v>2.0</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I3" s="74">
         <v>0.0</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="74">
+      <c r="K3" s="75">
         <v>2.0</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="76">
         <v>1.0</v>
       </c>
-      <c r="M3" s="75">
+      <c r="M3" s="76">
         <v>2.0</v>
       </c>
-      <c r="N3" s="75">
+      <c r="N3" s="76">
         <v>0.0</v>
       </c>
-      <c r="O3" s="75">
+      <c r="O3" s="76">
         <v>1.0</v>
       </c>
-      <c r="P3" s="76">
+      <c r="P3" s="77">
         <v>1.0</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="76" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="71">
+      <c r="A4" s="72">
         <v>224.0</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>503</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73">
+      <c r="B4" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74">
         <v>2.0</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="74">
         <v>0.0</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="75">
         <v>3.0</v>
       </c>
-      <c r="L4" s="75">
+      <c r="L4" s="76">
         <v>1.0</v>
       </c>
-      <c r="M4" s="75">
+      <c r="M4" s="76">
         <v>3.0</v>
       </c>
-      <c r="N4" s="75">
+      <c r="N4" s="76">
         <v>3.0</v>
       </c>
-      <c r="O4" s="75">
+      <c r="O4" s="76">
         <v>2.0</v>
       </c>
-      <c r="P4" s="76">
+      <c r="P4" s="77">
         <v>1.0</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="76" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="71">
+      <c r="A5" s="72">
         <v>225.0</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>505</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>506</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73">
+      <c r="B5" s="73" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>510</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74">
         <v>2.0</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="74">
         <v>0.0</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="75">
         <v>4.0</v>
       </c>
-      <c r="L5" s="75">
+      <c r="L5" s="76">
         <v>1.0</v>
       </c>
-      <c r="M5" s="75">
+      <c r="M5" s="76">
         <v>2.0</v>
       </c>
-      <c r="N5" s="75">
+      <c r="N5" s="76">
         <v>0.0</v>
       </c>
-      <c r="O5" s="75">
+      <c r="O5" s="76">
         <v>1.0</v>
       </c>
-      <c r="P5" s="76">
+      <c r="P5" s="77">
         <v>1.0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="76" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="71">
+      <c r="A6" s="72">
         <v>226.0</v>
       </c>
-      <c r="B6" s="72" t="s">
-        <v>507</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>508</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73">
+      <c r="B6" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>513</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74">
         <v>2.0</v>
       </c>
-      <c r="I6" s="73">
+      <c r="I6" s="74">
         <v>0.0</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="74">
+      <c r="K6" s="75">
         <v>5.0</v>
       </c>
-      <c r="L6" s="75">
+      <c r="L6" s="76">
         <v>2.0</v>
       </c>
-      <c r="M6" s="75">
+      <c r="M6" s="76">
         <v>3.0</v>
       </c>
-      <c r="N6" s="75">
+      <c r="N6" s="76">
         <v>2.0</v>
       </c>
-      <c r="O6" s="75">
+      <c r="O6" s="76">
         <v>3.0</v>
       </c>
-      <c r="P6" s="76">
+      <c r="P6" s="77">
         <v>1.0</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="76" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="78">
+      <c r="A7" s="79">
         <v>227.0</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>509</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>510</v>
+        <v>515</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>516</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>17</v>
@@ -32983,287 +33079,299 @@
       </c>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
-      <c r="H7" s="80">
+      <c r="H7" s="81">
         <v>2.0</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="81">
         <v>0.0</v>
       </c>
       <c r="J7" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="81">
+      <c r="K7" s="82">
         <v>6.0</v>
       </c>
-      <c r="L7" s="82">
+      <c r="L7" s="71">
         <v>3.0</v>
       </c>
-      <c r="M7" s="82">
+      <c r="M7" s="71">
         <v>2.0</v>
       </c>
-      <c r="N7" s="82">
+      <c r="N7" s="71">
         <v>0.0</v>
       </c>
-      <c r="O7" s="82">
+      <c r="O7" s="71">
         <v>1.0</v>
       </c>
       <c r="P7" s="83">
         <v>1.0</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="71" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="71">
+      <c r="A8" s="72">
         <v>228.0</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73">
+        <v>518</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74">
         <v>2.0</v>
       </c>
-      <c r="I8" s="73">
+      <c r="I8" s="74">
         <v>0.0</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="75">
         <v>7.0</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="76">
         <v>1.0</v>
       </c>
-      <c r="M8" s="75">
+      <c r="M8" s="76">
         <v>1.0</v>
       </c>
-      <c r="N8" s="75">
+      <c r="N8" s="76">
         <v>0.0</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="76">
         <v>1.0</v>
       </c>
       <c r="P8" s="85">
         <v>2.0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="76" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="71">
+      <c r="A9" s="72">
         <v>229.0</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>513</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>514</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>522</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="74">
         <v>2.0</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="74">
         <v>0.0</v>
       </c>
       <c r="J9" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="75">
         <v>8.0</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="76">
         <v>2.0</v>
       </c>
-      <c r="M9" s="75">
+      <c r="M9" s="76">
         <v>1.0</v>
       </c>
-      <c r="N9" s="75">
+      <c r="N9" s="76">
         <v>0.0</v>
       </c>
-      <c r="O9" s="75">
+      <c r="O9" s="76">
         <v>1.0</v>
       </c>
       <c r="P9" s="85">
         <v>2.0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="76" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="71">
+      <c r="A10" s="72">
         <v>230.0</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>515</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>516</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73">
+        <v>524</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74">
         <v>2.0</v>
       </c>
-      <c r="I10" s="73">
+      <c r="I10" s="74">
         <v>0.0</v>
       </c>
       <c r="J10" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="75">
         <v>9.0</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="76">
         <v>2.0</v>
       </c>
-      <c r="M10" s="75">
+      <c r="M10" s="76">
         <v>3.0</v>
       </c>
-      <c r="N10" s="75">
+      <c r="N10" s="76">
         <v>3.0</v>
       </c>
-      <c r="O10" s="75">
+      <c r="O10" s="76">
         <v>1.0</v>
       </c>
       <c r="P10" s="85">
         <v>2.0</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="76" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="71">
+      <c r="A11" s="72">
         <v>231.0</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>517</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>518</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73">
+        <v>527</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>528</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74">
         <v>2.0</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="74">
         <v>0.0</v>
       </c>
       <c r="J11" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="75">
         <v>10.0</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="76">
         <v>3.0</v>
       </c>
-      <c r="M11" s="75">
+      <c r="M11" s="76">
         <v>3.0</v>
       </c>
-      <c r="N11" s="75">
+      <c r="N11" s="76">
         <v>2.0</v>
       </c>
-      <c r="O11" s="75">
+      <c r="O11" s="76">
         <v>2.0</v>
       </c>
       <c r="P11" s="85">
         <v>2.0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="76" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="71">
+      <c r="A12" s="72">
         <v>232.0</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>519</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>520</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="73">
+        <v>530</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>531</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74">
         <v>2.0</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="74">
         <v>0.0</v>
       </c>
       <c r="J12" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="75">
         <v>11.0</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="76">
         <v>1.0</v>
       </c>
-      <c r="M12" s="75">
+      <c r="M12" s="76">
         <v>2.0</v>
       </c>
-      <c r="N12" s="75">
+      <c r="N12" s="76">
         <v>0.0</v>
       </c>
-      <c r="O12" s="75">
+      <c r="O12" s="76">
         <v>3.0</v>
       </c>
       <c r="P12" s="85">
         <v>2.0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="76" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="78">
+      <c r="A13" s="79">
         <v>233.0</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>521</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>522</v>
+        <v>533</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>534</v>
       </c>
       <c r="D13" s="67" t="s">
         <v>17</v>
@@ -33275,74 +33383,76 @@
         <v>17</v>
       </c>
       <c r="G13" s="67"/>
-      <c r="H13" s="80">
+      <c r="H13" s="81">
         <v>2.0</v>
       </c>
-      <c r="I13" s="80">
+      <c r="I13" s="81">
         <v>0.0</v>
       </c>
       <c r="J13" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="K13" s="81">
+      <c r="K13" s="82">
         <v>12.0</v>
       </c>
-      <c r="L13" s="82">
+      <c r="L13" s="71">
         <v>3.0</v>
       </c>
-      <c r="M13" s="82">
+      <c r="M13" s="71">
         <v>3.0</v>
       </c>
-      <c r="N13" s="82">
+      <c r="N13" s="71">
         <v>0.0</v>
       </c>
-      <c r="O13" s="82">
+      <c r="O13" s="71">
         <v>1.0</v>
       </c>
       <c r="P13" s="90">
         <v>2.0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="71" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="71">
+      <c r="A14" s="72">
         <v>234.0</v>
       </c>
-      <c r="B14" s="72" t="s">
-        <v>523</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>524</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73">
+      <c r="B14" s="73" t="s">
+        <v>536</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74">
         <v>2.0</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="74">
         <v>0.0</v>
       </c>
       <c r="J14" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="75">
         <v>13.0</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="76">
         <v>1.0</v>
       </c>
-      <c r="M14" s="75">
+      <c r="M14" s="76">
         <v>1.0</v>
       </c>
-      <c r="N14" s="75">
+      <c r="N14" s="76">
         <v>0.0</v>
       </c>
       <c r="O14" s="91">
@@ -33351,213 +33461,223 @@
       <c r="P14" s="92">
         <v>3.0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="76" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="71">
+      <c r="A15" s="72">
         <v>235.0</v>
       </c>
-      <c r="B15" s="72" t="s">
-        <v>525</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>526</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73">
+      <c r="B15" s="73" t="s">
+        <v>539</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>540</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74">
         <v>2.0</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="74">
         <v>0.0</v>
       </c>
       <c r="J15" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="75">
         <v>14.0</v>
       </c>
-      <c r="L15" s="75">
+      <c r="L15" s="76">
         <v>1.0</v>
       </c>
-      <c r="M15" s="75">
+      <c r="M15" s="76">
         <v>1.0</v>
       </c>
-      <c r="N15" s="75">
+      <c r="N15" s="76">
         <v>0.0</v>
       </c>
-      <c r="O15" s="75">
+      <c r="O15" s="76">
         <v>2.0</v>
       </c>
       <c r="P15" s="92">
         <v>3.0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="76" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="71">
+      <c r="A16" s="72">
         <v>236.0</v>
       </c>
-      <c r="B16" s="72" t="s">
-        <v>527</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>528</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73">
+      <c r="B16" s="73" t="s">
+        <v>542</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74">
         <v>2.0</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="74">
         <v>0.0</v>
       </c>
       <c r="J16" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="K16" s="74">
+      <c r="K16" s="75">
         <v>15.0</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="76">
         <v>3.0</v>
       </c>
-      <c r="M16" s="75">
+      <c r="M16" s="76">
         <v>3.0</v>
       </c>
-      <c r="N16" s="75">
+      <c r="N16" s="76">
         <v>3.0</v>
       </c>
-      <c r="O16" s="75">
+      <c r="O16" s="76">
         <v>2.0</v>
       </c>
       <c r="P16" s="92">
         <v>3.0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="76" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="71">
+      <c r="A17" s="72">
         <v>237.0</v>
       </c>
-      <c r="B17" s="72" t="s">
-        <v>529</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>530</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73">
+      <c r="B17" s="73" t="s">
+        <v>545</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74">
         <v>2.0</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="74">
         <v>0.0</v>
       </c>
       <c r="J17" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="K17" s="74">
+      <c r="K17" s="75">
         <v>16.0</v>
       </c>
-      <c r="L17" s="75">
+      <c r="L17" s="76">
         <v>2.0</v>
       </c>
-      <c r="M17" s="75">
+      <c r="M17" s="76">
         <v>3.0</v>
       </c>
-      <c r="N17" s="75">
+      <c r="N17" s="76">
         <v>1.0</v>
       </c>
-      <c r="O17" s="75">
+      <c r="O17" s="76">
         <v>2.0</v>
       </c>
       <c r="P17" s="92">
         <v>3.0</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="76" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="71">
+      <c r="A18" s="72">
         <v>238.0</v>
       </c>
-      <c r="B18" s="72" t="s">
-        <v>531</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>532</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73">
+      <c r="B18" s="73" t="s">
+        <v>548</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>549</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74">
         <v>2.0</v>
       </c>
-      <c r="I18" s="73">
+      <c r="I18" s="74">
         <v>0.0</v>
       </c>
       <c r="J18" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="K18" s="74">
+      <c r="K18" s="75">
         <v>17.0</v>
       </c>
-      <c r="L18" s="75">
+      <c r="L18" s="76">
         <v>2.0</v>
       </c>
-      <c r="M18" s="75">
+      <c r="M18" s="76">
         <v>1.0</v>
       </c>
-      <c r="N18" s="75">
+      <c r="N18" s="76">
         <v>0.0</v>
       </c>
-      <c r="O18" s="75">
+      <c r="O18" s="76">
         <v>3.0</v>
       </c>
       <c r="P18" s="92">
         <v>3.0</v>
       </c>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="76" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="78">
+      <c r="A19" s="79">
         <v>239.0</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>533</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>534</v>
+        <v>551</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>552</v>
       </c>
       <c r="D19" s="67" t="s">
         <v>17</v>
@@ -33569,7 +33689,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="67"/>
-      <c r="H19" s="80">
+      <c r="H19" s="81">
         <v>2.0</v>
       </c>
       <c r="I19" s="94">
@@ -33578,47 +33698,49 @@
       <c r="J19" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="K19" s="81">
+      <c r="K19" s="82">
         <v>18.0</v>
       </c>
-      <c r="L19" s="82">
+      <c r="L19" s="71">
         <v>2.0</v>
       </c>
-      <c r="M19" s="82">
+      <c r="M19" s="71">
         <v>1.0</v>
       </c>
-      <c r="N19" s="82">
+      <c r="N19" s="71">
         <v>0.0</v>
       </c>
-      <c r="O19" s="82">
+      <c r="O19" s="71">
         <v>1.0</v>
       </c>
       <c r="P19" s="96">
         <v>3.0</v>
       </c>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="71" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="71">
+      <c r="A20" s="72">
         <v>240.0</v>
       </c>
-      <c r="B20" s="72" t="s">
-        <v>535</v>
-      </c>
-      <c r="C20" s="72" t="s">
-        <v>536</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="72" t="s">
+      <c r="B20" s="73" t="s">
+        <v>554</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>555</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="73" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73">
+      <c r="G20" s="73"/>
+      <c r="H20" s="74">
         <v>2.0</v>
       </c>
       <c r="I20" s="98">
@@ -33627,190 +33749,194 @@
       <c r="J20" s="99" t="s">
         <v>259</v>
       </c>
-      <c r="K20" s="74">
+      <c r="K20" s="75">
         <v>19.0</v>
       </c>
-      <c r="L20" s="75">
+      <c r="L20" s="76">
         <v>2.0</v>
       </c>
-      <c r="M20" s="75">
+      <c r="M20" s="76">
         <v>1.0</v>
       </c>
-      <c r="N20" s="75">
+      <c r="N20" s="76">
         <v>0.0</v>
       </c>
-      <c r="O20" s="75">
+      <c r="O20" s="76">
         <v>1.0</v>
       </c>
       <c r="P20" s="100">
         <v>4.0</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="76" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="71">
+      <c r="A21" s="72">
         <v>241.0</v>
       </c>
-      <c r="B21" s="75" t="s">
-        <v>537</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>538</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="75" t="s">
+      <c r="B21" s="76" t="s">
+        <v>557</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="76" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="101"/>
-      <c r="H21" s="75">
+      <c r="H21" s="76">
         <v>2.0</v>
       </c>
-      <c r="I21" s="75">
+      <c r="I21" s="76">
         <v>0.0</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="K21" s="74">
+      <c r="K21" s="75">
         <v>20.0</v>
       </c>
-      <c r="L21" s="75">
+      <c r="L21" s="76">
         <v>2.0</v>
       </c>
-      <c r="M21" s="75">
+      <c r="M21" s="76">
         <v>1.0</v>
       </c>
-      <c r="N21" s="75">
+      <c r="N21" s="76">
         <v>0.0</v>
       </c>
-      <c r="O21" s="75">
+      <c r="O21" s="76">
         <v>1.0</v>
       </c>
       <c r="P21" s="100">
         <v>4.0</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" s="76"/>
     </row>
     <row r="22">
-      <c r="A22" s="71">
+      <c r="A22" s="72">
         <v>242.0</v>
       </c>
-      <c r="B22" s="75" t="s">
-        <v>539</v>
-      </c>
-      <c r="C22" s="75" t="s">
-        <v>540</v>
-      </c>
-      <c r="D22" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="75" t="s">
+      <c r="B22" s="76" t="s">
+        <v>559</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>560</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="76" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="101"/>
-      <c r="H22" s="75">
+      <c r="H22" s="76">
         <v>2.0</v>
       </c>
-      <c r="I22" s="75">
+      <c r="I22" s="76">
         <v>0.0</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="K22" s="74">
+      <c r="K22" s="75">
         <v>21.0</v>
       </c>
-      <c r="L22" s="75">
+      <c r="L22" s="76">
         <v>2.0</v>
       </c>
-      <c r="M22" s="75">
+      <c r="M22" s="76">
         <v>3.0</v>
       </c>
-      <c r="N22" s="75">
+      <c r="N22" s="76">
         <v>3.0</v>
       </c>
-      <c r="O22" s="75">
+      <c r="O22" s="76">
         <v>1.0</v>
       </c>
       <c r="P22" s="100">
         <v>4.0</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" s="76" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="71">
+      <c r="A23" s="72">
         <v>243.0</v>
       </c>
-      <c r="B23" s="75" t="s">
-        <v>541</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>542</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="75"/>
+      <c r="B23" s="76" t="s">
+        <v>561</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>562</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="76"/>
       <c r="G23" s="101"/>
-      <c r="H23" s="75">
+      <c r="H23" s="76">
         <v>2.0</v>
       </c>
-      <c r="I23" s="75">
+      <c r="I23" s="76">
         <v>0.0</v>
       </c>
-      <c r="J23" s="75" t="s">
+      <c r="J23" s="76" t="s">
         <v>299</v>
       </c>
-      <c r="K23" s="74">
+      <c r="K23" s="75">
         <v>22.0</v>
       </c>
-      <c r="L23" s="75">
+      <c r="L23" s="76">
         <v>2.0</v>
       </c>
-      <c r="M23" s="75">
+      <c r="M23" s="76">
         <v>3.0</v>
       </c>
-      <c r="N23" s="75">
+      <c r="N23" s="76">
         <v>2.0</v>
       </c>
-      <c r="O23" s="75">
+      <c r="O23" s="76">
         <v>2.0</v>
       </c>
       <c r="P23" s="100">
         <v>4.0</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" s="76"/>
     </row>
     <row r="24">
-      <c r="A24" s="71">
+      <c r="A24" s="72">
         <v>244.0</v>
       </c>
-      <c r="B24" s="72" t="s">
-        <v>543</v>
-      </c>
-      <c r="C24" s="77" t="s">
-        <v>544</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="72" t="s">
+      <c r="B24" s="73" t="s">
+        <v>563</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>564</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="73" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="97"/>
       <c r="G24" s="97"/>
-      <c r="H24" s="73">
+      <c r="H24" s="74">
         <v>2.0</v>
       </c>
       <c r="I24" s="98">
@@ -33819,35 +33945,37 @@
       <c r="J24" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="K24" s="74">
+      <c r="K24" s="75">
         <v>23.0</v>
       </c>
-      <c r="L24" s="75">
+      <c r="L24" s="76">
         <v>2.0</v>
       </c>
-      <c r="M24" s="75">
+      <c r="M24" s="76">
         <v>1.0</v>
       </c>
-      <c r="N24" s="75">
+      <c r="N24" s="76">
         <v>0.0</v>
       </c>
-      <c r="O24" s="75">
+      <c r="O24" s="76">
         <v>1.0</v>
       </c>
       <c r="P24" s="100">
         <v>4.0</v>
       </c>
-      <c r="Q24" s="2"/>
+      <c r="Q24" s="76" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="78">
+      <c r="A25" s="79">
         <v>245.0</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>545</v>
-      </c>
-      <c r="C25" s="79" t="s">
-        <v>546</v>
+        <v>566</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>567</v>
       </c>
       <c r="D25" s="67" t="s">
         <v>17</v>
@@ -33857,7 +33985,7 @@
       <c r="G25" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="80">
+      <c r="H25" s="81">
         <v>2.0</v>
       </c>
       <c r="I25" s="94">
@@ -33866,143 +33994,149 @@
       <c r="J25" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="K25" s="81">
+      <c r="K25" s="82">
         <v>24.0</v>
       </c>
-      <c r="L25" s="82">
+      <c r="L25" s="71">
         <v>3.0</v>
       </c>
-      <c r="M25" s="82">
+      <c r="M25" s="71">
         <v>1.0</v>
       </c>
-      <c r="N25" s="82">
+      <c r="N25" s="71">
         <v>0.0</v>
       </c>
-      <c r="O25" s="82">
+      <c r="O25" s="71">
         <v>1.0</v>
       </c>
       <c r="P25" s="103">
         <v>4.0</v>
       </c>
-      <c r="Q25" s="2"/>
+      <c r="Q25" s="71" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="71">
+      <c r="A26" s="72">
         <v>246.0</v>
       </c>
-      <c r="B26" s="75" t="s">
-        <v>547</v>
-      </c>
-      <c r="C26" s="75" t="s">
-        <v>548</v>
-      </c>
-      <c r="D26" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="75" t="s">
+      <c r="B26" s="76" t="s">
+        <v>569</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>570</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="76" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="101"/>
-      <c r="H26" s="75">
+      <c r="H26" s="76">
         <v>2.0</v>
       </c>
-      <c r="I26" s="75">
+      <c r="I26" s="76">
         <v>0.0</v>
       </c>
-      <c r="J26" s="75" t="s">
+      <c r="J26" s="76" t="s">
         <v>338</v>
       </c>
-      <c r="K26" s="74">
+      <c r="K26" s="75">
         <v>25.0</v>
       </c>
-      <c r="L26" s="75">
+      <c r="L26" s="76">
         <v>2.0</v>
       </c>
-      <c r="M26" s="75">
+      <c r="M26" s="76">
         <v>1.0</v>
       </c>
-      <c r="N26" s="75">
+      <c r="N26" s="76">
         <v>0.0</v>
       </c>
-      <c r="O26" s="75">
+      <c r="O26" s="76">
         <v>1.0</v>
       </c>
       <c r="P26" s="104">
         <v>5.0</v>
       </c>
-      <c r="Q26" s="2"/>
+      <c r="Q26" s="76" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="71">
+      <c r="A27" s="72">
         <v>247.0</v>
       </c>
-      <c r="B27" s="72" t="s">
-        <v>549</v>
-      </c>
-      <c r="C27" s="77" t="s">
-        <v>550</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72" t="s">
-        <v>551</v>
-      </c>
-      <c r="H27" s="73">
+      <c r="B27" s="73" t="s">
+        <v>571</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>572</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73" t="s">
+        <v>573</v>
+      </c>
+      <c r="H27" s="74">
         <v>2.0</v>
       </c>
-      <c r="I27" s="73">
+      <c r="I27" s="74">
         <v>0.0</v>
       </c>
       <c r="J27" s="87" t="s">
         <v>352</v>
       </c>
-      <c r="K27" s="74">
+      <c r="K27" s="75">
         <v>26.0</v>
       </c>
-      <c r="L27" s="75">
+      <c r="L27" s="76">
         <v>3.0</v>
       </c>
-      <c r="M27" s="75">
+      <c r="M27" s="76">
         <v>1.0</v>
       </c>
-      <c r="N27" s="75">
+      <c r="N27" s="76">
         <v>0.0</v>
       </c>
-      <c r="O27" s="75">
+      <c r="O27" s="76">
         <v>1.0</v>
       </c>
       <c r="P27" s="104">
         <v>5.0</v>
       </c>
-      <c r="Q27" s="2"/>
+      <c r="Q27" s="76" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="71">
+      <c r="A28" s="72">
         <v>248.0</v>
       </c>
-      <c r="B28" s="72" t="s">
-        <v>552</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>553</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="72" t="s">
+      <c r="B28" s="73" t="s">
+        <v>575</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>576</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="73" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="105" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="105"/>
-      <c r="H28" s="73">
+      <c r="H28" s="74">
         <v>2.0</v>
       </c>
       <c r="I28" s="106">
@@ -34011,47 +34145,47 @@
       <c r="J28" s="97" t="s">
         <v>366</v>
       </c>
-      <c r="K28" s="74">
+      <c r="K28" s="75">
         <v>27.0</v>
       </c>
-      <c r="L28" s="75">
+      <c r="L28" s="76">
         <v>2.0</v>
       </c>
-      <c r="M28" s="75">
+      <c r="M28" s="76">
         <v>1.0</v>
       </c>
-      <c r="N28" s="75">
+      <c r="N28" s="76">
         <v>0.0</v>
       </c>
-      <c r="O28" s="75">
+      <c r="O28" s="76">
         <v>2.0</v>
       </c>
       <c r="P28" s="104">
         <v>5.0</v>
       </c>
-      <c r="Q28" s="2"/>
+      <c r="Q28" s="76"/>
     </row>
     <row r="29">
-      <c r="A29" s="71">
+      <c r="A29" s="72">
         <v>249.0</v>
       </c>
       <c r="B29" s="105" t="s">
-        <v>554</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>555</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="72" t="s">
+        <v>577</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>578</v>
+      </c>
+      <c r="D29" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="73" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="97" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="97"/>
-      <c r="H29" s="73">
+      <c r="H29" s="74">
         <v>2.0</v>
       </c>
       <c r="I29" s="98">
@@ -34060,47 +34194,49 @@
       <c r="J29" s="99" t="s">
         <v>379</v>
       </c>
-      <c r="K29" s="74">
+      <c r="K29" s="75">
         <v>28.0</v>
       </c>
-      <c r="L29" s="75">
+      <c r="L29" s="76">
         <v>1.0</v>
       </c>
-      <c r="M29" s="75">
+      <c r="M29" s="76">
         <v>2.0</v>
       </c>
-      <c r="N29" s="75">
+      <c r="N29" s="76">
         <v>1.0</v>
       </c>
-      <c r="O29" s="75">
+      <c r="O29" s="76">
         <v>1.0</v>
       </c>
       <c r="P29" s="104">
         <v>5.0</v>
       </c>
-      <c r="Q29" s="2"/>
+      <c r="Q29" s="76" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="71">
+      <c r="A30" s="72">
         <v>250.0</v>
       </c>
-      <c r="B30" s="72" t="s">
-        <v>556</v>
-      </c>
-      <c r="C30" s="77" t="s">
-        <v>557</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="72" t="s">
+      <c r="B30" s="73" t="s">
+        <v>580</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>581</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="73" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="97" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="97"/>
-      <c r="H30" s="73">
+      <c r="H30" s="74">
         <v>2.0</v>
       </c>
       <c r="I30" s="98">
@@ -34109,192 +34245,194 @@
       <c r="J30" s="99" t="s">
         <v>392</v>
       </c>
-      <c r="K30" s="74">
+      <c r="K30" s="75">
         <v>29.0</v>
       </c>
-      <c r="L30" s="75">
+      <c r="L30" s="76">
         <v>3.0</v>
       </c>
-      <c r="M30" s="75">
+      <c r="M30" s="76">
         <v>3.0</v>
       </c>
-      <c r="N30" s="75">
+      <c r="N30" s="76">
         <v>3.0</v>
       </c>
-      <c r="O30" s="75">
+      <c r="O30" s="76">
         <v>3.0</v>
       </c>
       <c r="P30" s="104">
         <v>5.0</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" s="76" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="78">
+      <c r="A31" s="79">
         <v>251.0</v>
       </c>
-      <c r="B31" s="82" t="s">
-        <v>558</v>
-      </c>
-      <c r="C31" s="82" t="s">
-        <v>559</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="82" t="s">
+      <c r="B31" s="71" t="s">
+        <v>583</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>584</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="71" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="69"/>
-      <c r="H31" s="80">
+      <c r="H31" s="81">
         <v>2.0</v>
       </c>
       <c r="I31" s="107">
         <v>0.0</v>
       </c>
-      <c r="J31" s="82" t="s">
+      <c r="J31" s="71" t="s">
         <v>405</v>
       </c>
-      <c r="K31" s="81">
+      <c r="K31" s="82">
         <v>30.0</v>
       </c>
-      <c r="L31" s="82">
+      <c r="L31" s="71">
         <v>3.0</v>
       </c>
-      <c r="M31" s="82">
+      <c r="M31" s="71">
         <v>1.0</v>
       </c>
-      <c r="N31" s="82">
+      <c r="N31" s="71">
         <v>0.0</v>
       </c>
-      <c r="O31" s="82">
+      <c r="O31" s="71">
         <v>1.0</v>
       </c>
       <c r="P31" s="108">
         <v>5.0</v>
       </c>
-      <c r="Q31" s="2"/>
+      <c r="Q31" s="71"/>
     </row>
     <row r="32">
-      <c r="A32" s="71">
+      <c r="A32" s="72">
         <v>252.0</v>
       </c>
-      <c r="B32" s="75" t="s">
-        <v>560</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>561</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="75" t="s">
+      <c r="B32" s="76" t="s">
+        <v>585</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>586</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="76" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="73">
+      <c r="H32" s="74">
         <v>2.0</v>
       </c>
       <c r="I32" s="106">
         <v>0.0</v>
       </c>
-      <c r="J32" s="75" t="s">
+      <c r="J32" s="76" t="s">
         <v>418</v>
       </c>
-      <c r="K32" s="74">
+      <c r="K32" s="75">
         <v>31.0</v>
       </c>
-      <c r="L32" s="75">
+      <c r="L32" s="76">
         <v>1.0</v>
       </c>
-      <c r="M32" s="75">
+      <c r="M32" s="76">
         <v>1.0</v>
       </c>
-      <c r="N32" s="75">
+      <c r="N32" s="76">
         <v>0.0</v>
       </c>
-      <c r="O32" s="75">
+      <c r="O32" s="76">
         <v>1.0</v>
       </c>
       <c r="P32" s="109">
         <v>6.0</v>
       </c>
-      <c r="Q32" s="2"/>
+      <c r="Q32" s="76"/>
     </row>
     <row r="33">
-      <c r="A33" s="71">
+      <c r="A33" s="72">
         <v>253.0</v>
       </c>
-      <c r="B33" s="75" t="s">
-        <v>562</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>563</v>
-      </c>
-      <c r="D33" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="75" t="s">
+      <c r="B33" s="76" t="s">
+        <v>587</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>588</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="76" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="73">
+      <c r="H33" s="74">
         <v>2.0</v>
       </c>
       <c r="I33" s="106">
         <v>0.0</v>
       </c>
-      <c r="J33" s="75" t="s">
+      <c r="J33" s="76" t="s">
         <v>431</v>
       </c>
-      <c r="K33" s="74">
+      <c r="K33" s="75">
         <v>32.0</v>
       </c>
-      <c r="L33" s="75">
+      <c r="L33" s="76">
         <v>1.0</v>
       </c>
-      <c r="M33" s="75">
+      <c r="M33" s="76">
         <v>2.0</v>
       </c>
-      <c r="N33" s="75">
+      <c r="N33" s="76">
         <v>0.0</v>
       </c>
-      <c r="O33" s="75">
+      <c r="O33" s="76">
         <v>1.0</v>
       </c>
       <c r="P33" s="109">
         <v>6.0</v>
       </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" s="76"/>
     </row>
     <row r="34">
-      <c r="A34" s="71">
+      <c r="A34" s="72">
         <v>254.0</v>
       </c>
-      <c r="B34" s="77" t="s">
-        <v>564</v>
-      </c>
-      <c r="C34" s="77" t="s">
-        <v>565</v>
-      </c>
-      <c r="D34" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="72" t="s">
+      <c r="B34" s="78" t="s">
+        <v>589</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>590</v>
+      </c>
+      <c r="D34" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="73" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="110" t="s">
         <v>17</v>
       </c>
       <c r="G34" s="97"/>
-      <c r="H34" s="73">
+      <c r="H34" s="74">
         <v>2.0</v>
       </c>
       <c r="I34" s="98">
@@ -34303,96 +34441,100 @@
       <c r="J34" s="99" t="s">
         <v>444</v>
       </c>
-      <c r="K34" s="74">
+      <c r="K34" s="75">
         <v>33.0</v>
       </c>
-      <c r="L34" s="75">
+      <c r="L34" s="76">
         <v>2.0</v>
       </c>
-      <c r="M34" s="75">
+      <c r="M34" s="76">
         <v>3.0</v>
       </c>
-      <c r="N34" s="75">
+      <c r="N34" s="76">
         <v>1.0</v>
       </c>
-      <c r="O34" s="75">
+      <c r="O34" s="76">
         <v>2.0</v>
       </c>
       <c r="P34" s="109">
         <v>6.0</v>
       </c>
-      <c r="Q34" s="2"/>
+      <c r="Q34" s="76" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="71">
+      <c r="A35" s="72">
         <v>255.0</v>
       </c>
-      <c r="B35" s="75" t="s">
-        <v>566</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>567</v>
-      </c>
-      <c r="D35" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="75" t="s">
+      <c r="B35" s="76" t="s">
+        <v>592</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>593</v>
+      </c>
+      <c r="D35" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="76" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="73">
+      <c r="H35" s="74">
         <v>2.0</v>
       </c>
       <c r="I35" s="106">
         <v>0.0</v>
       </c>
-      <c r="J35" s="75" t="s">
+      <c r="J35" s="76" t="s">
         <v>457</v>
       </c>
-      <c r="K35" s="74">
+      <c r="K35" s="75">
         <v>34.0</v>
       </c>
-      <c r="L35" s="75">
+      <c r="L35" s="76">
         <v>2.0</v>
       </c>
-      <c r="M35" s="75">
+      <c r="M35" s="76">
         <v>1.0</v>
       </c>
-      <c r="N35" s="75">
+      <c r="N35" s="76">
         <v>0.0</v>
       </c>
-      <c r="O35" s="75">
+      <c r="O35" s="76">
         <v>1.0</v>
       </c>
       <c r="P35" s="109">
         <v>6.0</v>
       </c>
-      <c r="Q35" s="2"/>
+      <c r="Q35" s="76" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="71">
+      <c r="A36" s="72">
         <v>256.0</v>
       </c>
-      <c r="B36" s="72" t="s">
-        <v>568</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>569</v>
-      </c>
-      <c r="D36" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="72" t="s">
+      <c r="B36" s="73" t="s">
+        <v>594</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>595</v>
+      </c>
+      <c r="D36" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="73" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="110" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="97"/>
-      <c r="H36" s="73">
+      <c r="H36" s="74">
         <v>2.0</v>
       </c>
       <c r="I36" s="98">
@@ -34401,35 +34543,37 @@
       <c r="J36" s="111" t="s">
         <v>470</v>
       </c>
-      <c r="K36" s="74">
+      <c r="K36" s="75">
         <v>35.0</v>
       </c>
-      <c r="L36" s="75">
+      <c r="L36" s="76">
         <v>3.0</v>
       </c>
-      <c r="M36" s="75">
+      <c r="M36" s="76">
         <v>1.0</v>
       </c>
-      <c r="N36" s="75">
+      <c r="N36" s="76">
         <v>0.0</v>
       </c>
-      <c r="O36" s="75">
+      <c r="O36" s="76">
         <v>1.0</v>
       </c>
       <c r="P36" s="109">
         <v>6.0</v>
       </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" s="76" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="78">
+      <c r="A37" s="79">
         <v>257.0</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>570</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>571</v>
+        <v>597</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>598</v>
       </c>
       <c r="D37" s="67" t="s">
         <v>17</v>
@@ -34441,7 +34585,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="93"/>
-      <c r="H37" s="80">
+      <c r="H37" s="81">
         <v>2.0</v>
       </c>
       <c r="I37" s="94">
@@ -34450,41 +34594,43 @@
       <c r="J37" s="95" t="s">
         <v>483</v>
       </c>
-      <c r="K37" s="81">
+      <c r="K37" s="82">
         <v>36.0</v>
       </c>
-      <c r="L37" s="82">
+      <c r="L37" s="71">
         <v>3.0</v>
       </c>
-      <c r="M37" s="82">
+      <c r="M37" s="71">
         <v>3.0</v>
       </c>
-      <c r="N37" s="82">
+      <c r="N37" s="71">
         <v>3.0</v>
       </c>
-      <c r="O37" s="82">
+      <c r="O37" s="71">
         <v>2.0</v>
       </c>
       <c r="P37" s="112">
         <v>6.0</v>
       </c>
-      <c r="Q37" s="2"/>
+      <c r="Q37" s="71" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="39">
       <c r="Q39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="73"/>
-      <c r="B40" s="75"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="73"/>
+      <c r="H40" s="74"/>
       <c r="I40" s="106"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="73"/>
+      <c r="K40" s="74"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -34493,14 +34639,14 @@
       <c r="Q40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="73"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="73"/>
+      <c r="H41" s="74"/>
       <c r="I41" s="106"/>
       <c r="J41" s="2"/>
       <c r="K41" s="113"/>
@@ -34512,14 +34658,14 @@
       <c r="Q41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="73"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="73"/>
+      <c r="H42" s="74"/>
       <c r="I42" s="106"/>
       <c r="J42" s="2"/>
       <c r="K42" s="113"/>
@@ -34531,17 +34677,17 @@
       <c r="Q42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="73"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="73"/>
+      <c r="H43" s="74"/>
       <c r="I43" s="106"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="73"/>
+      <c r="K43" s="74"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="600">
   <si>
     <t>type_id</t>
   </si>
@@ -34035,7 +34035,9 @@
       <c r="F26" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="101"/>
+      <c r="G26" s="76" t="s">
+        <v>21</v>
+      </c>
       <c r="H26" s="76">
         <v>2.0</v>
       </c>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="604">
   <si>
     <t>type_id</t>
   </si>
@@ -1917,6 +1917,9 @@
     <t>Mono takes 1 🟡 from you. Discard 1 🃏 from your deck. If it is not junk, Mono takes it. Acquire.</t>
   </si>
   <si>
+    <t>Capuchins. Warning: this deck has placeholder names and artwork</t>
+  </si>
+  <si>
     <t>Olm Mono</t>
   </si>
   <si>
@@ -1947,6 +1950,9 @@
     <t>Mono draws 2 🃏🃏. Acquire. At the end of Mono's turn, it draws 2 🃏🃏.</t>
   </si>
   <si>
+    <t>Skinks. Warning: this deck has placeholder names and artwork</t>
+  </si>
+  <si>
     <t>Master Member</t>
   </si>
   <si>
@@ -1965,6 +1971,9 @@
     <t>Mono draws 4 🃏🃏🃏. Mono places 2 junk 🃏🃏 on its deck. Acquire.</t>
   </si>
   <si>
+    <t>Snow Macaques. Warning: this deck has placeholder names and artwork</t>
+  </si>
+  <si>
     <t>Meddling Member</t>
   </si>
   <si>
@@ -2014,6 +2023,9 @@
   </si>
   <si>
     <t>Mono's hand size [🌅 +4] [☀️ +3] [🌙 -1] for this turn. Acquire.</t>
+  </si>
+  <si>
+    <t>Junglefowls. Warning: this deck has placeholder names and artwork</t>
   </si>
   <si>
     <t>Dramatic Member</t>
@@ -2151,7 +2163,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2205,6 +2217,9 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2385,14 +2400,14 @@
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -6499,7 +6514,7 @@
       <c r="F85" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G85" s="23" t="s">
+      <c r="G85" s="26" t="s">
         <v>21</v>
       </c>
       <c r="H85" s="23">
@@ -7758,33 +7773,33 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="26">
+      <c r="A115" s="27">
         <v>113.0</v>
       </c>
-      <c r="B115" s="27" t="s">
+      <c r="B115" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" s="27" t="s">
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H115" s="27">
+      <c r="H115" s="28">
         <v>5.0</v>
       </c>
-      <c r="I115" s="27">
+      <c r="I115" s="28">
         <v>1.0</v>
       </c>
-      <c r="J115" s="28" t="s">
+      <c r="J115" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K115" s="29">
+      <c r="K115" s="30">
         <v>18.0</v>
       </c>
       <c r="O115" s="2"/>
@@ -7801,35 +7816,35 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="30">
+      <c r="A116" s="31">
         <v>114.0</v>
       </c>
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="D116" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31" t="s">
+      <c r="D116" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="H116" s="31">
+      <c r="H116" s="32">
         <v>1.0</v>
       </c>
-      <c r="I116" s="31">
+      <c r="I116" s="32">
         <v>0.0</v>
       </c>
-      <c r="J116" s="32" t="s">
+      <c r="J116" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="K116" s="33">
+      <c r="K116" s="34">
         <v>19.0</v>
       </c>
       <c r="O116" s="2"/>
@@ -7846,31 +7861,31 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="30">
+      <c r="A117" s="31">
         <v>115.0</v>
       </c>
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31">
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32">
         <v>2.0</v>
       </c>
-      <c r="I117" s="31">
+      <c r="I117" s="32">
         <v>3.0</v>
       </c>
-      <c r="J117" s="32" t="s">
+      <c r="J117" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="K117" s="33">
+      <c r="K117" s="34">
         <v>19.0</v>
       </c>
       <c r="O117" s="2"/>
@@ -7887,33 +7902,33 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="30">
+      <c r="A118" s="31">
         <v>116.0</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="D118" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31">
+      <c r="D118" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32">
         <v>3.0</v>
       </c>
-      <c r="I118" s="31">
+      <c r="I118" s="32">
         <v>3.0</v>
       </c>
-      <c r="J118" s="32" t="s">
+      <c r="J118" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="K118" s="33">
+      <c r="K118" s="34">
         <v>19.0</v>
       </c>
       <c r="O118" s="2"/>
@@ -7930,33 +7945,33 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="30">
+      <c r="A119" s="31">
         <v>117.0</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="C119" s="30" t="s">
+      <c r="C119" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="D119" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31">
+      <c r="D119" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32">
         <v>4.0</v>
       </c>
-      <c r="I119" s="31">
+      <c r="I119" s="32">
         <v>3.0</v>
       </c>
-      <c r="J119" s="32" t="s">
+      <c r="J119" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="K119" s="33">
+      <c r="K119" s="34">
         <v>19.0</v>
       </c>
       <c r="O119" s="2"/>
@@ -7973,33 +7988,33 @@
       <c r="Z119" s="2"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="30">
+      <c r="A120" s="31">
         <v>118.0</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="D120" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31">
+      <c r="D120" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32">
         <v>5.0</v>
       </c>
-      <c r="I120" s="31">
+      <c r="I120" s="32">
         <v>1.0</v>
       </c>
-      <c r="J120" s="32" t="s">
+      <c r="J120" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="K120" s="33">
+      <c r="K120" s="34">
         <v>19.0</v>
       </c>
       <c r="O120" s="2"/>
@@ -8016,33 +8031,33 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="30">
+      <c r="A121" s="31">
         <v>119.0</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="D121" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31">
+      <c r="D121" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32">
         <v>5.0</v>
       </c>
-      <c r="I121" s="31">
+      <c r="I121" s="32">
         <v>1.0</v>
       </c>
-      <c r="J121" s="32" t="s">
+      <c r="J121" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="K121" s="33">
+      <c r="K121" s="34">
         <v>19.0</v>
       </c>
       <c r="O121" s="2"/>
@@ -8059,35 +8074,35 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="30">
+      <c r="A122" s="31">
         <v>120.0</v>
       </c>
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="C122" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="D122" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F122" s="35"/>
-      <c r="G122" s="31" t="s">
+      <c r="D122" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="36"/>
+      <c r="G122" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H122" s="31">
+      <c r="H122" s="32">
         <v>1.0</v>
       </c>
-      <c r="I122" s="31">
+      <c r="I122" s="32">
         <v>0.0</v>
       </c>
-      <c r="J122" s="33" t="s">
+      <c r="J122" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="K122" s="36">
+      <c r="K122" s="37">
         <v>20.0</v>
       </c>
       <c r="O122" s="2"/>
@@ -8104,29 +8119,29 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="30">
+      <c r="A123" s="31">
         <v>121.0</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="C123" s="37" t="s">
+      <c r="C123" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31">
+      <c r="D123" s="38"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32">
         <v>2.0</v>
       </c>
-      <c r="I123" s="31">
+      <c r="I123" s="32">
         <v>3.0</v>
       </c>
-      <c r="J123" s="33" t="s">
+      <c r="J123" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="K123" s="36">
+      <c r="K123" s="37">
         <v>20.0</v>
       </c>
       <c r="O123" s="2"/>
@@ -8143,35 +8158,35 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="30">
+      <c r="A124" s="31">
         <v>122.0</v>
       </c>
-      <c r="B124" s="33" t="s">
+      <c r="B124" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="D124" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F124" s="35"/>
-      <c r="G124" s="31" t="s">
+      <c r="D124" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="36"/>
+      <c r="G124" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H124" s="31">
+      <c r="H124" s="32">
         <v>3.0</v>
       </c>
-      <c r="I124" s="31">
+      <c r="I124" s="32">
         <v>3.0</v>
       </c>
-      <c r="J124" s="33" t="s">
+      <c r="J124" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="K124" s="36">
+      <c r="K124" s="37">
         <v>20.0</v>
       </c>
       <c r="O124" s="2"/>
@@ -8188,35 +8203,35 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="30">
+      <c r="A125" s="31">
         <v>123.0</v>
       </c>
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="C125" s="34" t="s">
+      <c r="C125" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="D125" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F125" s="35"/>
-      <c r="G125" s="31" t="s">
+      <c r="D125" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="36"/>
+      <c r="G125" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H125" s="31">
+      <c r="H125" s="32">
         <v>4.0</v>
       </c>
-      <c r="I125" s="31">
+      <c r="I125" s="32">
         <v>3.0</v>
       </c>
-      <c r="J125" s="33" t="s">
+      <c r="J125" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="K125" s="36">
+      <c r="K125" s="37">
         <v>20.0</v>
       </c>
       <c r="O125" s="2"/>
@@ -8233,35 +8248,35 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="30">
+      <c r="A126" s="31">
         <v>124.0</v>
       </c>
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="C126" s="34" t="s">
+      <c r="C126" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="D126" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F126" s="35"/>
-      <c r="G126" s="31" t="s">
+      <c r="D126" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="36"/>
+      <c r="G126" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H126" s="31">
+      <c r="H126" s="32">
         <v>5.0</v>
       </c>
-      <c r="I126" s="31">
+      <c r="I126" s="32">
         <v>1.0</v>
       </c>
-      <c r="J126" s="33" t="s">
+      <c r="J126" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="K126" s="36">
+      <c r="K126" s="37">
         <v>20.0</v>
       </c>
       <c r="O126" s="2"/>
@@ -8278,35 +8293,35 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="30">
+      <c r="A127" s="31">
         <v>125.0</v>
       </c>
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="C127" s="34" t="s">
+      <c r="C127" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="D127" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F127" s="35"/>
-      <c r="G127" s="31" t="s">
+      <c r="D127" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" s="36"/>
+      <c r="G127" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H127" s="31">
+      <c r="H127" s="32">
         <v>5.0</v>
       </c>
-      <c r="I127" s="31">
+      <c r="I127" s="32">
         <v>1.0</v>
       </c>
-      <c r="J127" s="33" t="s">
+      <c r="J127" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="K127" s="36">
+      <c r="K127" s="37">
         <v>20.0</v>
       </c>
       <c r="O127" s="2"/>
@@ -8323,33 +8338,33 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="30">
+      <c r="A128" s="31">
         <v>126.0</v>
       </c>
-      <c r="B128" s="33" t="s">
+      <c r="B128" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="C128" s="37" t="s">
+      <c r="C128" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="D128" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F128" s="34"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="31">
+      <c r="D128" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="35"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="32">
         <v>1.0</v>
       </c>
-      <c r="I128" s="31">
+      <c r="I128" s="32">
         <v>0.0</v>
       </c>
-      <c r="J128" s="33" t="s">
+      <c r="J128" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="K128" s="33">
+      <c r="K128" s="34">
         <v>21.0</v>
       </c>
       <c r="O128" s="2"/>
@@ -8366,31 +8381,31 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="30">
+      <c r="A129" s="31">
         <v>127.0</v>
       </c>
-      <c r="B129" s="33" t="s">
+      <c r="B129" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="C129" s="37" t="s">
+      <c r="C129" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G129" s="38"/>
-      <c r="H129" s="31">
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" s="39"/>
+      <c r="H129" s="32">
         <v>2.0</v>
       </c>
-      <c r="I129" s="31">
+      <c r="I129" s="32">
         <v>3.0</v>
       </c>
-      <c r="J129" s="33" t="s">
+      <c r="J129" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="K129" s="33">
+      <c r="K129" s="34">
         <v>21.0</v>
       </c>
       <c r="O129" s="2"/>
@@ -8407,33 +8422,33 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="30">
+      <c r="A130" s="31">
         <v>128.0</v>
       </c>
-      <c r="B130" s="33" t="s">
+      <c r="B130" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="C130" s="37" t="s">
+      <c r="C130" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="D130" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F130" s="34"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="31">
+      <c r="D130" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="35"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="32">
         <v>3.0</v>
       </c>
-      <c r="I130" s="31">
+      <c r="I130" s="32">
         <v>3.0</v>
       </c>
-      <c r="J130" s="33" t="s">
+      <c r="J130" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="K130" s="33">
+      <c r="K130" s="34">
         <v>21.0</v>
       </c>
       <c r="O130" s="2"/>
@@ -8450,33 +8465,33 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="30">
+      <c r="A131" s="31">
         <v>129.0</v>
       </c>
-      <c r="B131" s="33" t="s">
+      <c r="B131" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C131" s="37" t="s">
+      <c r="C131" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="D131" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F131" s="34"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="31">
+      <c r="D131" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="35"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="32">
         <v>4.0</v>
       </c>
-      <c r="I131" s="31">
+      <c r="I131" s="32">
         <v>3.0</v>
       </c>
-      <c r="J131" s="33" t="s">
+      <c r="J131" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="K131" s="33">
+      <c r="K131" s="34">
         <v>21.0</v>
       </c>
       <c r="O131" s="2"/>
@@ -8493,33 +8508,33 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="30">
+      <c r="A132" s="31">
         <v>130.0</v>
       </c>
-      <c r="B132" s="33" t="s">
+      <c r="B132" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="C132" s="37" t="s">
+      <c r="C132" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="D132" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F132" s="37"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="31">
+      <c r="D132" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="38"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="32">
         <v>5.0</v>
       </c>
-      <c r="I132" s="31">
+      <c r="I132" s="32">
         <v>1.0</v>
       </c>
-      <c r="J132" s="33" t="s">
+      <c r="J132" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="K132" s="33">
+      <c r="K132" s="34">
         <v>21.0</v>
       </c>
       <c r="O132" s="2"/>
@@ -8536,31 +8551,31 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="30">
+      <c r="A133" s="31">
         <v>131.0</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C133" s="37" t="s">
+      <c r="C133" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="D133" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="34"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="31">
+      <c r="D133" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="35"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="32">
         <v>5.0</v>
       </c>
-      <c r="I133" s="31">
+      <c r="I133" s="32">
         <v>1.0</v>
       </c>
-      <c r="J133" s="33" t="s">
+      <c r="J133" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="K133" s="33">
+      <c r="K133" s="34">
         <v>21.0</v>
       </c>
       <c r="O133" s="2"/>
@@ -8577,29 +8592,29 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="30">
+      <c r="A134" s="31">
         <v>132.0</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="B134" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="C134" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="31">
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="32">
         <v>1.0</v>
       </c>
-      <c r="I134" s="31">
+      <c r="I134" s="32">
         <v>0.0</v>
       </c>
-      <c r="J134" s="33" t="s">
+      <c r="J134" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="K134" s="33">
+      <c r="K134" s="34">
         <v>22.0</v>
       </c>
       <c r="O134" s="2"/>
@@ -8616,33 +8631,33 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="30">
+      <c r="A135" s="31">
         <v>133.0</v>
       </c>
-      <c r="B135" s="33" t="s">
+      <c r="B135" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="C135" s="34" t="s">
+      <c r="C135" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="D135" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F135" s="35"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="31">
+      <c r="D135" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="36"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="32">
         <v>2.0</v>
       </c>
-      <c r="I135" s="31">
+      <c r="I135" s="32">
         <v>3.0</v>
       </c>
-      <c r="J135" s="33" t="s">
+      <c r="J135" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="K135" s="33">
+      <c r="K135" s="34">
         <v>22.0</v>
       </c>
       <c r="O135" s="2"/>
@@ -8659,33 +8674,33 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="30">
+      <c r="A136" s="31">
         <v>134.0</v>
       </c>
-      <c r="B136" s="33" t="s">
+      <c r="B136" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C136" s="34" t="s">
+      <c r="C136" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="D136" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F136" s="35"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="31">
+      <c r="D136" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136" s="36"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="32">
         <v>3.0</v>
       </c>
-      <c r="I136" s="31">
+      <c r="I136" s="32">
         <v>3.0</v>
       </c>
-      <c r="J136" s="33" t="s">
+      <c r="J136" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="K136" s="33">
+      <c r="K136" s="34">
         <v>22.0</v>
       </c>
       <c r="O136" s="2"/>
@@ -8702,33 +8717,33 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="30">
+      <c r="A137" s="31">
         <v>135.0</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D137" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" s="35"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="31">
+      <c r="D137" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" s="36"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="32">
         <v>4.0</v>
       </c>
-      <c r="I137" s="31">
+      <c r="I137" s="32">
         <v>3.0</v>
       </c>
-      <c r="J137" s="33" t="s">
+      <c r="J137" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="K137" s="33">
+      <c r="K137" s="34">
         <v>22.0</v>
       </c>
       <c r="O137" s="2"/>
@@ -8745,33 +8760,33 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="30">
+      <c r="A138" s="31">
         <v>136.0</v>
       </c>
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="C138" s="34" t="s">
+      <c r="C138" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="D138" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F138" s="35"/>
-      <c r="G138" s="38"/>
-      <c r="H138" s="31">
+      <c r="D138" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" s="36"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="32">
         <v>5.0</v>
       </c>
-      <c r="I138" s="31">
+      <c r="I138" s="32">
         <v>1.0</v>
       </c>
-      <c r="J138" s="33" t="s">
+      <c r="J138" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="K138" s="33">
+      <c r="K138" s="34">
         <v>22.0</v>
       </c>
       <c r="O138" s="2"/>
@@ -8788,29 +8803,29 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="30">
+      <c r="A139" s="31">
         <v>137.0</v>
       </c>
-      <c r="B139" s="33" t="s">
+      <c r="B139" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="C139" s="34" t="s">
+      <c r="C139" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="35"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="31">
+      <c r="D139" s="36"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="32">
         <v>5.0</v>
       </c>
-      <c r="I139" s="31">
+      <c r="I139" s="32">
         <v>1.0</v>
       </c>
-      <c r="J139" s="33" t="s">
+      <c r="J139" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="K139" s="33">
+      <c r="K139" s="34">
         <v>22.0</v>
       </c>
       <c r="O139" s="2"/>
@@ -8827,33 +8842,33 @@
       <c r="Z139" s="2"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="30">
+      <c r="A140" s="31">
         <v>138.0</v>
       </c>
-      <c r="B140" s="31" t="s">
+      <c r="B140" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="C140" s="30" t="s">
+      <c r="C140" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="D140" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
-      <c r="H140" s="31">
+      <c r="D140" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32">
         <v>1.0</v>
       </c>
-      <c r="I140" s="31">
+      <c r="I140" s="32">
         <v>0.0</v>
       </c>
-      <c r="J140" s="32" t="s">
+      <c r="J140" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="K140" s="33">
+      <c r="K140" s="34">
         <v>23.0</v>
       </c>
       <c r="O140" s="2"/>
@@ -8870,31 +8885,31 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="30">
+      <c r="A141" s="31">
         <v>139.0</v>
       </c>
-      <c r="B141" s="31" t="s">
+      <c r="B141" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="C141" s="30" t="s">
+      <c r="C141" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="D141" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="31"/>
-      <c r="H141" s="31">
+      <c r="D141" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32">
         <v>2.0</v>
       </c>
-      <c r="I141" s="31">
+      <c r="I141" s="32">
         <v>3.0</v>
       </c>
-      <c r="J141" s="32" t="s">
+      <c r="J141" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="K141" s="33">
+      <c r="K141" s="34">
         <v>23.0</v>
       </c>
       <c r="O141" s="2"/>
@@ -8911,33 +8926,33 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="30">
+      <c r="A142" s="31">
         <v>140.0</v>
       </c>
-      <c r="B142" s="31" t="s">
+      <c r="B142" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="C142" s="30" t="s">
+      <c r="C142" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="D142" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F142" s="31"/>
-      <c r="G142" s="31"/>
-      <c r="H142" s="31">
+      <c r="D142" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32">
         <v>3.0</v>
       </c>
-      <c r="I142" s="31">
+      <c r="I142" s="32">
         <v>3.0</v>
       </c>
-      <c r="J142" s="32" t="s">
+      <c r="J142" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="K142" s="33">
+      <c r="K142" s="34">
         <v>23.0</v>
       </c>
       <c r="O142" s="2"/>
@@ -8954,29 +8969,29 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="30">
+      <c r="A143" s="31">
         <v>141.0</v>
       </c>
-      <c r="B143" s="31" t="s">
+      <c r="B143" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="C143" s="30" t="s">
+      <c r="C143" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="31">
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32">
         <v>4.0</v>
       </c>
-      <c r="I143" s="31">
+      <c r="I143" s="32">
         <v>3.0</v>
       </c>
-      <c r="J143" s="32" t="s">
+      <c r="J143" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="K143" s="33">
+      <c r="K143" s="34">
         <v>23.0</v>
       </c>
       <c r="O143" s="2"/>
@@ -8993,33 +9008,33 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="30">
+      <c r="A144" s="31">
         <v>142.0</v>
       </c>
-      <c r="B144" s="31" t="s">
+      <c r="B144" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="C144" s="30" t="s">
+      <c r="C144" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="D144" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F144" s="31"/>
-      <c r="G144" s="31"/>
-      <c r="H144" s="31">
+      <c r="D144" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32">
         <v>5.0</v>
       </c>
-      <c r="I144" s="31">
+      <c r="I144" s="32">
         <v>1.0</v>
       </c>
-      <c r="J144" s="32" t="s">
+      <c r="J144" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="K144" s="33">
+      <c r="K144" s="34">
         <v>23.0</v>
       </c>
       <c r="O144" s="2"/>
@@ -9036,33 +9051,33 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="30">
+      <c r="A145" s="31">
         <v>143.0</v>
       </c>
-      <c r="B145" s="31" t="s">
+      <c r="B145" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="C145" s="30" t="s">
+      <c r="C145" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="D145" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F145" s="31"/>
-      <c r="G145" s="31"/>
-      <c r="H145" s="31">
+      <c r="D145" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32">
         <v>5.0</v>
       </c>
-      <c r="I145" s="31">
+      <c r="I145" s="32">
         <v>1.0</v>
       </c>
-      <c r="J145" s="32" t="s">
+      <c r="J145" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="K145" s="33">
+      <c r="K145" s="34">
         <v>23.0</v>
       </c>
       <c r="O145" s="2"/>
@@ -9079,35 +9094,35 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="30">
+      <c r="A146" s="31">
         <v>144.0</v>
       </c>
-      <c r="B146" s="31" t="s">
+      <c r="B146" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="C146" s="30" t="s">
+      <c r="C146" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D146" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F146" s="31"/>
-      <c r="G146" s="31" t="s">
+      <c r="D146" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H146" s="31">
+      <c r="H146" s="32">
         <v>1.0</v>
       </c>
-      <c r="I146" s="31">
+      <c r="I146" s="32">
         <v>0.0</v>
       </c>
-      <c r="J146" s="32" t="s">
+      <c r="J146" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="K146" s="33">
+      <c r="K146" s="34">
         <v>24.0</v>
       </c>
       <c r="O146" s="2"/>
@@ -9124,33 +9139,33 @@
       <c r="Z146" s="2"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="30">
+      <c r="A147" s="31">
         <v>145.0</v>
       </c>
-      <c r="B147" s="31" t="s">
+      <c r="B147" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="C147" s="30" t="s">
+      <c r="C147" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="D147" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="31" t="s">
+      <c r="D147" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H147" s="31">
+      <c r="H147" s="32">
         <v>2.0</v>
       </c>
-      <c r="I147" s="31">
+      <c r="I147" s="32">
         <v>3.0</v>
       </c>
-      <c r="J147" s="32" t="s">
+      <c r="J147" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="K147" s="33">
+      <c r="K147" s="34">
         <v>24.0</v>
       </c>
       <c r="O147" s="2"/>
@@ -9167,35 +9182,35 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="30">
+      <c r="A148" s="31">
         <v>146.0</v>
       </c>
-      <c r="B148" s="31" t="s">
+      <c r="B148" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="C148" s="31" t="s">
+      <c r="C148" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="D148" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31" t="s">
+      <c r="D148" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H148" s="31">
+      <c r="H148" s="32">
         <v>3.0</v>
       </c>
-      <c r="I148" s="31">
+      <c r="I148" s="32">
         <v>3.0</v>
       </c>
-      <c r="J148" s="32" t="s">
+      <c r="J148" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="K148" s="33">
+      <c r="K148" s="34">
         <v>24.0</v>
       </c>
       <c r="O148" s="2"/>
@@ -9212,35 +9227,35 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="30">
+      <c r="A149" s="31">
         <v>147.0</v>
       </c>
-      <c r="B149" s="31" t="s">
+      <c r="B149" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="C149" s="30" t="s">
+      <c r="C149" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="D149" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F149" s="31"/>
-      <c r="G149" s="31" t="s">
+      <c r="D149" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H149" s="31">
+      <c r="H149" s="32">
         <v>4.0</v>
       </c>
-      <c r="I149" s="31">
+      <c r="I149" s="32">
         <v>3.0</v>
       </c>
-      <c r="J149" s="32" t="s">
+      <c r="J149" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="K149" s="33">
+      <c r="K149" s="34">
         <v>24.0</v>
       </c>
       <c r="O149" s="2"/>
@@ -9257,35 +9272,35 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="30">
+      <c r="A150" s="31">
         <v>148.0</v>
       </c>
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="C150" s="30" t="s">
+      <c r="C150" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="D150" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F150" s="31"/>
-      <c r="G150" s="31" t="s">
+      <c r="D150" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H150" s="31">
+      <c r="H150" s="32">
         <v>5.0</v>
       </c>
-      <c r="I150" s="31">
+      <c r="I150" s="32">
         <v>1.0</v>
       </c>
-      <c r="J150" s="32" t="s">
+      <c r="J150" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="K150" s="33">
+      <c r="K150" s="34">
         <v>24.0</v>
       </c>
       <c r="O150" s="2"/>
@@ -9302,35 +9317,35 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="39">
+      <c r="A151" s="40">
         <v>149.0</v>
       </c>
-      <c r="B151" s="40" t="s">
+      <c r="B151" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="C151" s="40" t="s">
+      <c r="C151" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="D151" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F151" s="40"/>
-      <c r="G151" s="40" t="s">
+      <c r="D151" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151" s="41"/>
+      <c r="G151" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="H151" s="40">
+      <c r="H151" s="41">
         <v>5.0</v>
       </c>
-      <c r="I151" s="40">
+      <c r="I151" s="41">
         <v>1.0</v>
       </c>
-      <c r="J151" s="41" t="s">
+      <c r="J151" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="K151" s="42">
+      <c r="K151" s="43">
         <v>24.0</v>
       </c>
       <c r="O151" s="2"/>
@@ -9347,35 +9362,35 @@
       <c r="Z151" s="2"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="43">
+      <c r="A152" s="44">
         <v>150.0</v>
       </c>
-      <c r="B152" s="44" t="s">
+      <c r="B152" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="C152" s="43" t="s">
+      <c r="C152" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="D152" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F152" s="45"/>
-      <c r="G152" s="44" t="s">
+      <c r="D152" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="46"/>
+      <c r="G152" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H152" s="46">
+      <c r="H152" s="47">
         <v>1.0</v>
       </c>
-      <c r="I152" s="46">
+      <c r="I152" s="47">
         <v>0.0</v>
       </c>
-      <c r="J152" s="44" t="s">
+      <c r="J152" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="K152" s="44">
+      <c r="K152" s="45">
         <v>25.0</v>
       </c>
       <c r="O152" s="2"/>
@@ -9392,35 +9407,35 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="43">
+      <c r="A153" s="44">
         <v>151.0</v>
       </c>
-      <c r="B153" s="44" t="s">
+      <c r="B153" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="C153" s="43" t="s">
+      <c r="C153" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="D153" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F153" s="45"/>
-      <c r="G153" s="44" t="s">
+      <c r="D153" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" s="46"/>
+      <c r="G153" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H153" s="46">
+      <c r="H153" s="47">
         <v>2.0</v>
       </c>
-      <c r="I153" s="46">
+      <c r="I153" s="47">
         <v>3.0</v>
       </c>
-      <c r="J153" s="44" t="s">
+      <c r="J153" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="K153" s="44">
+      <c r="K153" s="45">
         <v>25.0</v>
       </c>
       <c r="O153" s="2"/>
@@ -9437,35 +9452,35 @@
       <c r="Z153" s="2"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="43">
+      <c r="A154" s="44">
         <v>152.0</v>
       </c>
-      <c r="B154" s="44" t="s">
+      <c r="B154" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="C154" s="43" t="s">
+      <c r="C154" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="D154" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F154" s="45"/>
-      <c r="G154" s="44" t="s">
+      <c r="D154" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" s="46"/>
+      <c r="G154" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H154" s="46">
+      <c r="H154" s="47">
         <v>3.0</v>
       </c>
-      <c r="I154" s="46">
+      <c r="I154" s="47">
         <v>3.0</v>
       </c>
-      <c r="J154" s="44" t="s">
+      <c r="J154" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="K154" s="44">
+      <c r="K154" s="45">
         <v>25.0</v>
       </c>
       <c r="O154" s="2"/>
@@ -9482,35 +9497,35 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="43">
+      <c r="A155" s="44">
         <v>153.0</v>
       </c>
-      <c r="B155" s="44" t="s">
+      <c r="B155" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="C155" s="43" t="s">
+      <c r="C155" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="D155" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F155" s="45"/>
-      <c r="G155" s="44" t="s">
+      <c r="D155" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="46"/>
+      <c r="G155" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H155" s="46">
+      <c r="H155" s="47">
         <v>4.0</v>
       </c>
-      <c r="I155" s="46">
+      <c r="I155" s="47">
         <v>3.0</v>
       </c>
-      <c r="J155" s="44" t="s">
+      <c r="J155" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="K155" s="44">
+      <c r="K155" s="45">
         <v>25.0</v>
       </c>
       <c r="O155" s="2"/>
@@ -9527,35 +9542,35 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="43">
+      <c r="A156" s="44">
         <v>154.0</v>
       </c>
-      <c r="B156" s="44" t="s">
+      <c r="B156" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="C156" s="43" t="s">
+      <c r="C156" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="D156" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F156" s="45"/>
-      <c r="G156" s="44" t="s">
+      <c r="D156" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" s="46"/>
+      <c r="G156" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H156" s="46">
+      <c r="H156" s="47">
         <v>5.0</v>
       </c>
-      <c r="I156" s="46">
+      <c r="I156" s="47">
         <v>1.0</v>
       </c>
-      <c r="J156" s="44" t="s">
+      <c r="J156" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="K156" s="44">
+      <c r="K156" s="45">
         <v>25.0</v>
       </c>
       <c r="O156" s="2"/>
@@ -9572,33 +9587,33 @@
       <c r="Z156" s="2"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="43">
+      <c r="A157" s="44">
         <v>155.0</v>
       </c>
-      <c r="B157" s="44" t="s">
+      <c r="B157" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="C157" s="43" t="s">
+      <c r="C157" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="D157" s="45"/>
-      <c r="E157" s="45"/>
-      <c r="F157" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" s="44" t="s">
+      <c r="D157" s="46"/>
+      <c r="E157" s="46"/>
+      <c r="F157" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H157" s="46">
+      <c r="H157" s="47">
         <v>5.0</v>
       </c>
-      <c r="I157" s="46">
+      <c r="I157" s="47">
         <v>1.0</v>
       </c>
-      <c r="J157" s="44" t="s">
+      <c r="J157" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="K157" s="44">
+      <c r="K157" s="45">
         <v>25.0</v>
       </c>
       <c r="O157" s="2"/>
@@ -9615,35 +9630,35 @@
       <c r="Z157" s="2"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="43">
+      <c r="A158" s="44">
         <v>156.0</v>
       </c>
-      <c r="B158" s="46" t="s">
+      <c r="B158" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="C158" s="43" t="s">
+      <c r="C158" s="44" t="s">
         <v>350</v>
       </c>
-      <c r="D158" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F158" s="46"/>
-      <c r="G158" s="46" t="s">
+      <c r="D158" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="47"/>
+      <c r="G158" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="H158" s="46">
+      <c r="H158" s="47">
         <v>1.0</v>
       </c>
-      <c r="I158" s="46">
+      <c r="I158" s="47">
         <v>0.0</v>
       </c>
-      <c r="J158" s="47" t="s">
+      <c r="J158" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="K158" s="44">
+      <c r="K158" s="45">
         <v>26.0</v>
       </c>
       <c r="O158" s="2"/>
@@ -9660,33 +9675,33 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="43">
+      <c r="A159" s="44">
         <v>157.0</v>
       </c>
-      <c r="B159" s="46" t="s">
+      <c r="B159" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="C159" s="43" t="s">
+      <c r="C159" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="D159" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159" s="46"/>
-      <c r="F159" s="46"/>
-      <c r="G159" s="46" t="s">
+      <c r="D159" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="47"/>
+      <c r="F159" s="47"/>
+      <c r="G159" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="H159" s="46">
+      <c r="H159" s="47">
         <v>2.0</v>
       </c>
-      <c r="I159" s="46">
+      <c r="I159" s="47">
         <v>3.0</v>
       </c>
-      <c r="J159" s="47" t="s">
+      <c r="J159" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="K159" s="44">
+      <c r="K159" s="45">
         <v>26.0</v>
       </c>
       <c r="O159" s="2"/>
@@ -9703,35 +9718,35 @@
       <c r="Z159" s="2"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="43">
+      <c r="A160" s="44">
         <v>158.0</v>
       </c>
-      <c r="B160" s="46" t="s">
+      <c r="B160" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="C160" s="43" t="s">
+      <c r="C160" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="D160" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F160" s="46"/>
-      <c r="G160" s="46" t="s">
+      <c r="D160" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" s="47"/>
+      <c r="G160" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="H160" s="46">
+      <c r="H160" s="47">
         <v>3.0</v>
       </c>
-      <c r="I160" s="46">
+      <c r="I160" s="47">
         <v>3.0</v>
       </c>
-      <c r="J160" s="47" t="s">
+      <c r="J160" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="K160" s="44">
+      <c r="K160" s="45">
         <v>26.0</v>
       </c>
       <c r="O160" s="2"/>
@@ -9748,35 +9763,35 @@
       <c r="Z160" s="2"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="43">
+      <c r="A161" s="44">
         <v>159.0</v>
       </c>
-      <c r="B161" s="46" t="s">
+      <c r="B161" s="47" t="s">
         <v>358</v>
       </c>
-      <c r="C161" s="43" t="s">
+      <c r="C161" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="D161" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E161" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F161" s="46"/>
-      <c r="G161" s="46" t="s">
+      <c r="D161" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" s="47"/>
+      <c r="G161" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="H161" s="46">
+      <c r="H161" s="47">
         <v>4.0</v>
       </c>
-      <c r="I161" s="46">
+      <c r="I161" s="47">
         <v>3.0</v>
       </c>
-      <c r="J161" s="47" t="s">
+      <c r="J161" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="K161" s="44">
+      <c r="K161" s="45">
         <v>26.0</v>
       </c>
       <c r="O161" s="2"/>
@@ -9793,35 +9808,35 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="43">
+      <c r="A162" s="44">
         <v>160.0</v>
       </c>
-      <c r="B162" s="46" t="s">
+      <c r="B162" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="C162" s="43" t="s">
+      <c r="C162" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="D162" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E162" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F162" s="46"/>
-      <c r="G162" s="46" t="s">
+      <c r="D162" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" s="47"/>
+      <c r="G162" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="H162" s="46">
+      <c r="H162" s="47">
         <v>5.0</v>
       </c>
-      <c r="I162" s="46">
+      <c r="I162" s="47">
         <v>1.0</v>
       </c>
-      <c r="J162" s="47" t="s">
+      <c r="J162" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="K162" s="44">
+      <c r="K162" s="45">
         <v>26.0</v>
       </c>
       <c r="O162" s="2"/>
@@ -9838,35 +9853,35 @@
       <c r="Z162" s="2"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="43">
+      <c r="A163" s="44">
         <v>161.0</v>
       </c>
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="C163" s="43" t="s">
+      <c r="C163" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="D163" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E163" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F163" s="46"/>
-      <c r="G163" s="46" t="s">
+      <c r="D163" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" s="47"/>
+      <c r="G163" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="H163" s="46">
+      <c r="H163" s="47">
         <v>5.0</v>
       </c>
-      <c r="I163" s="46">
+      <c r="I163" s="47">
         <v>1.0</v>
       </c>
-      <c r="J163" s="47" t="s">
+      <c r="J163" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="K163" s="44">
+      <c r="K163" s="45">
         <v>26.0</v>
       </c>
       <c r="O163" s="2"/>
@@ -9883,33 +9898,33 @@
       <c r="Z163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="43">
+      <c r="A164" s="44">
         <v>162.0</v>
       </c>
-      <c r="B164" s="48" t="s">
+      <c r="B164" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="C164" s="49" t="s">
+      <c r="C164" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="D164" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E164" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F164" s="48"/>
-      <c r="G164" s="50"/>
-      <c r="H164" s="50">
+      <c r="D164" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" s="49"/>
+      <c r="G164" s="51"/>
+      <c r="H164" s="51">
         <v>1.0</v>
       </c>
-      <c r="I164" s="50">
+      <c r="I164" s="51">
         <v>0.0</v>
       </c>
-      <c r="J164" s="51" t="s">
+      <c r="J164" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="K164" s="44">
+      <c r="K164" s="45">
         <v>27.0</v>
       </c>
       <c r="O164" s="2"/>
@@ -9926,33 +9941,33 @@
       <c r="Z164" s="2"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="43">
+      <c r="A165" s="44">
         <v>163.0</v>
       </c>
-      <c r="B165" s="48" t="s">
+      <c r="B165" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="C165" s="49" t="s">
+      <c r="C165" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="D165" s="48"/>
-      <c r="E165" s="48"/>
-      <c r="F165" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" s="46" t="s">
+      <c r="D165" s="49"/>
+      <c r="E165" s="49"/>
+      <c r="F165" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H165" s="46">
+      <c r="H165" s="47">
         <v>2.0</v>
       </c>
-      <c r="I165" s="46">
+      <c r="I165" s="47">
         <v>3.0</v>
       </c>
-      <c r="J165" s="51" t="s">
+      <c r="J165" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="K165" s="44">
+      <c r="K165" s="45">
         <v>27.0</v>
       </c>
       <c r="O165" s="2"/>
@@ -9969,33 +9984,33 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="43">
+      <c r="A166" s="44">
         <v>164.0</v>
       </c>
-      <c r="B166" s="48" t="s">
+      <c r="B166" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="C166" s="49" t="s">
+      <c r="C166" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="D166" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F166" s="48"/>
-      <c r="G166" s="50"/>
-      <c r="H166" s="50">
+      <c r="D166" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" s="49"/>
+      <c r="G166" s="51"/>
+      <c r="H166" s="51">
         <v>3.0</v>
       </c>
-      <c r="I166" s="50">
+      <c r="I166" s="51">
         <v>3.0</v>
       </c>
-      <c r="J166" s="51" t="s">
+      <c r="J166" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="K166" s="44">
+      <c r="K166" s="45">
         <v>27.0</v>
       </c>
       <c r="O166" s="2"/>
@@ -10012,33 +10027,33 @@
       <c r="Z166" s="2"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="43">
+      <c r="A167" s="44">
         <v>165.0</v>
       </c>
-      <c r="B167" s="48" t="s">
+      <c r="B167" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="C167" s="49" t="s">
+      <c r="C167" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="D167" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F167" s="48"/>
-      <c r="G167" s="50"/>
-      <c r="H167" s="50">
+      <c r="D167" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" s="49"/>
+      <c r="G167" s="51"/>
+      <c r="H167" s="51">
         <v>4.0</v>
       </c>
-      <c r="I167" s="50">
+      <c r="I167" s="51">
         <v>3.0</v>
       </c>
-      <c r="J167" s="51" t="s">
+      <c r="J167" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="K167" s="44">
+      <c r="K167" s="45">
         <v>27.0</v>
       </c>
       <c r="O167" s="2"/>
@@ -10055,33 +10070,33 @@
       <c r="Z167" s="2"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="43">
+      <c r="A168" s="44">
         <v>166.0</v>
       </c>
-      <c r="B168" s="48" t="s">
+      <c r="B168" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="49" t="s">
+      <c r="C168" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="D168" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E168" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F168" s="48"/>
-      <c r="G168" s="50"/>
-      <c r="H168" s="50">
+      <c r="D168" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F168" s="49"/>
+      <c r="G168" s="51"/>
+      <c r="H168" s="51">
         <v>5.0</v>
       </c>
-      <c r="I168" s="50">
+      <c r="I168" s="51">
         <v>1.0</v>
       </c>
-      <c r="J168" s="51" t="s">
+      <c r="J168" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="K168" s="44">
+      <c r="K168" s="45">
         <v>27.0</v>
       </c>
       <c r="O168" s="2"/>
@@ -10098,29 +10113,29 @@
       <c r="Z168" s="2"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="43">
+      <c r="A169" s="44">
         <v>167.0</v>
       </c>
-      <c r="B169" s="48" t="s">
+      <c r="B169" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="C169" s="49" t="s">
+      <c r="C169" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="D169" s="48"/>
-      <c r="E169" s="48"/>
-      <c r="F169" s="48"/>
-      <c r="G169" s="50"/>
-      <c r="H169" s="50">
+      <c r="D169" s="49"/>
+      <c r="E169" s="49"/>
+      <c r="F169" s="49"/>
+      <c r="G169" s="51"/>
+      <c r="H169" s="51">
         <v>5.0</v>
       </c>
-      <c r="I169" s="50">
+      <c r="I169" s="51">
         <v>1.0</v>
       </c>
-      <c r="J169" s="51" t="s">
+      <c r="J169" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="K169" s="44">
+      <c r="K169" s="45">
         <v>27.0</v>
       </c>
       <c r="O169" s="2"/>
@@ -10137,33 +10152,33 @@
       <c r="Z169" s="2"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="43">
+      <c r="A170" s="44">
         <v>168.0</v>
       </c>
-      <c r="B170" s="46" t="s">
+      <c r="B170" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="C170" s="43" t="s">
+      <c r="C170" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="D170" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E170" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F170" s="46"/>
-      <c r="G170" s="46"/>
-      <c r="H170" s="46">
+      <c r="D170" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" s="47"/>
+      <c r="G170" s="47"/>
+      <c r="H170" s="47">
         <v>1.0</v>
       </c>
-      <c r="I170" s="46">
+      <c r="I170" s="47">
         <v>0.0</v>
       </c>
-      <c r="J170" s="47" t="s">
+      <c r="J170" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="K170" s="44">
+      <c r="K170" s="45">
         <v>28.0</v>
       </c>
       <c r="O170" s="2"/>
@@ -10180,33 +10195,33 @@
       <c r="Z170" s="2"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="43">
+      <c r="A171" s="44">
         <v>169.0</v>
       </c>
-      <c r="B171" s="46" t="s">
+      <c r="B171" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="C171" s="43" t="s">
+      <c r="C171" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="D171" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E171" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F171" s="46"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="46">
+      <c r="D171" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" s="47"/>
+      <c r="G171" s="47"/>
+      <c r="H171" s="47">
         <v>2.0</v>
       </c>
-      <c r="I171" s="46">
+      <c r="I171" s="47">
         <v>3.0</v>
       </c>
-      <c r="J171" s="47" t="s">
+      <c r="J171" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="K171" s="44">
+      <c r="K171" s="45">
         <v>28.0</v>
       </c>
       <c r="O171" s="2"/>
@@ -10223,33 +10238,33 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="43">
+      <c r="A172" s="44">
         <v>170.0</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="C172" s="43" t="s">
+      <c r="C172" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="D172" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E172" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F172" s="46"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="46">
+      <c r="D172" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" s="47"/>
+      <c r="G172" s="47"/>
+      <c r="H172" s="47">
         <v>3.0</v>
       </c>
-      <c r="I172" s="46">
+      <c r="I172" s="47">
         <v>3.0</v>
       </c>
-      <c r="J172" s="47" t="s">
+      <c r="J172" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="K172" s="44">
+      <c r="K172" s="45">
         <v>28.0</v>
       </c>
       <c r="O172" s="2"/>
@@ -10266,33 +10281,33 @@
       <c r="Z172" s="2"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="43">
+      <c r="A173" s="44">
         <v>171.0</v>
       </c>
-      <c r="B173" s="46" t="s">
+      <c r="B173" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="C173" s="43" t="s">
+      <c r="C173" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="D173" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E173" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F173" s="46"/>
-      <c r="G173" s="46"/>
-      <c r="H173" s="46">
+      <c r="D173" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" s="47"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="47">
         <v>4.0</v>
       </c>
-      <c r="I173" s="46">
+      <c r="I173" s="47">
         <v>3.0</v>
       </c>
-      <c r="J173" s="47" t="s">
+      <c r="J173" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="K173" s="44">
+      <c r="K173" s="45">
         <v>28.0</v>
       </c>
       <c r="O173" s="2"/>
@@ -10309,33 +10324,33 @@
       <c r="Z173" s="2"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="43">
+      <c r="A174" s="44">
         <v>172.0</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="C174" s="43" t="s">
+      <c r="C174" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="D174" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E174" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F174" s="46"/>
-      <c r="G174" s="46"/>
-      <c r="H174" s="46">
+      <c r="D174" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="47"/>
+      <c r="G174" s="47"/>
+      <c r="H174" s="47">
         <v>5.0</v>
       </c>
-      <c r="I174" s="46">
+      <c r="I174" s="47">
         <v>1.0</v>
       </c>
-      <c r="J174" s="47" t="s">
+      <c r="J174" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="K174" s="44">
+      <c r="K174" s="45">
         <v>28.0</v>
       </c>
       <c r="O174" s="2"/>
@@ -10352,33 +10367,33 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="43">
+      <c r="A175" s="44">
         <v>173.0</v>
       </c>
-      <c r="B175" s="46" t="s">
+      <c r="B175" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="C175" s="43" t="s">
+      <c r="C175" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="D175" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E175" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F175" s="46"/>
-      <c r="G175" s="46"/>
-      <c r="H175" s="46">
+      <c r="D175" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="47"/>
+      <c r="G175" s="47"/>
+      <c r="H175" s="47">
         <v>5.0</v>
       </c>
-      <c r="I175" s="46">
+      <c r="I175" s="47">
         <v>1.0</v>
       </c>
-      <c r="J175" s="47" t="s">
+      <c r="J175" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="K175" s="44">
+      <c r="K175" s="45">
         <v>28.0</v>
       </c>
       <c r="O175" s="2"/>
@@ -10395,33 +10410,33 @@
       <c r="Z175" s="2"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="43">
+      <c r="A176" s="44">
         <v>174.0</v>
       </c>
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="C176" s="43" t="s">
+      <c r="C176" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="D176" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E176" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F176" s="46"/>
-      <c r="G176" s="46"/>
-      <c r="H176" s="46">
+      <c r="D176" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" s="47"/>
+      <c r="G176" s="47"/>
+      <c r="H176" s="47">
         <v>1.0</v>
       </c>
-      <c r="I176" s="46">
+      <c r="I176" s="47">
         <v>0.0</v>
       </c>
-      <c r="J176" s="47" t="s">
+      <c r="J176" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="K176" s="44">
+      <c r="K176" s="45">
         <v>29.0</v>
       </c>
       <c r="O176" s="2"/>
@@ -10438,31 +10453,31 @@
       <c r="Z176" s="2"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="43">
+      <c r="A177" s="44">
         <v>175.0</v>
       </c>
-      <c r="B177" s="46" t="s">
+      <c r="B177" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="C177" s="43" t="s">
+      <c r="C177" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="D177" s="46"/>
-      <c r="E177" s="46"/>
-      <c r="F177" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" s="46"/>
-      <c r="H177" s="46">
+      <c r="D177" s="47"/>
+      <c r="E177" s="47"/>
+      <c r="F177" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" s="47"/>
+      <c r="H177" s="47">
         <v>2.0</v>
       </c>
-      <c r="I177" s="46">
+      <c r="I177" s="47">
         <v>3.0</v>
       </c>
-      <c r="J177" s="47" t="s">
+      <c r="J177" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="K177" s="44">
+      <c r="K177" s="45">
         <v>29.0</v>
       </c>
       <c r="O177" s="2"/>
@@ -10479,33 +10494,33 @@
       <c r="Z177" s="2"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="43">
+      <c r="A178" s="44">
         <v>176.0</v>
       </c>
-      <c r="B178" s="46" t="s">
+      <c r="B178" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="C178" s="43" t="s">
+      <c r="C178" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="D178" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F178" s="46"/>
-      <c r="G178" s="46"/>
-      <c r="H178" s="46">
+      <c r="D178" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="47"/>
+      <c r="G178" s="47"/>
+      <c r="H178" s="47">
         <v>3.0</v>
       </c>
-      <c r="I178" s="46">
+      <c r="I178" s="47">
         <v>3.0</v>
       </c>
-      <c r="J178" s="47" t="s">
+      <c r="J178" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="K178" s="44">
+      <c r="K178" s="45">
         <v>29.0</v>
       </c>
       <c r="O178" s="2"/>
@@ -10522,33 +10537,33 @@
       <c r="Z178" s="2"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="43">
+      <c r="A179" s="44">
         <v>177.0</v>
       </c>
-      <c r="B179" s="46" t="s">
+      <c r="B179" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="C179" s="43" t="s">
+      <c r="C179" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="D179" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E179" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F179" s="46"/>
-      <c r="G179" s="46"/>
-      <c r="H179" s="46">
+      <c r="D179" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" s="47"/>
+      <c r="G179" s="47"/>
+      <c r="H179" s="47">
         <v>4.0</v>
       </c>
-      <c r="I179" s="46">
+      <c r="I179" s="47">
         <v>3.0</v>
       </c>
-      <c r="J179" s="47" t="s">
+      <c r="J179" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="K179" s="44">
+      <c r="K179" s="45">
         <v>29.0</v>
       </c>
       <c r="O179" s="2"/>
@@ -10565,33 +10580,33 @@
       <c r="Z179" s="2"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="43">
+      <c r="A180" s="44">
         <v>178.0</v>
       </c>
-      <c r="B180" s="46" t="s">
+      <c r="B180" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="C180" s="43" t="s">
+      <c r="C180" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="D180" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E180" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F180" s="46"/>
-      <c r="G180" s="46"/>
-      <c r="H180" s="46">
+      <c r="D180" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180" s="47"/>
+      <c r="G180" s="47"/>
+      <c r="H180" s="47">
         <v>5.0</v>
       </c>
-      <c r="I180" s="46">
+      <c r="I180" s="47">
         <v>1.0</v>
       </c>
-      <c r="J180" s="47" t="s">
+      <c r="J180" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="K180" s="44">
+      <c r="K180" s="45">
         <v>29.0</v>
       </c>
       <c r="O180" s="2"/>
@@ -10608,33 +10623,33 @@
       <c r="Z180" s="2"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="43">
+      <c r="A181" s="44">
         <v>179.0</v>
       </c>
-      <c r="B181" s="43" t="s">
+      <c r="B181" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="C181" s="43" t="s">
+      <c r="C181" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="D181" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E181" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F181" s="46"/>
-      <c r="G181" s="46"/>
-      <c r="H181" s="46">
+      <c r="D181" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181" s="47"/>
+      <c r="G181" s="47"/>
+      <c r="H181" s="47">
         <v>5.0</v>
       </c>
-      <c r="I181" s="46">
+      <c r="I181" s="47">
         <v>1.0</v>
       </c>
-      <c r="J181" s="47" t="s">
+      <c r="J181" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="K181" s="44">
+      <c r="K181" s="45">
         <v>29.0</v>
       </c>
       <c r="O181" s="2"/>
@@ -10651,33 +10666,33 @@
       <c r="Z181" s="2"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="43">
+      <c r="A182" s="44">
         <v>180.0</v>
       </c>
-      <c r="B182" s="44" t="s">
+      <c r="B182" s="45" t="s">
         <v>403</v>
       </c>
-      <c r="C182" s="44" t="s">
+      <c r="C182" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="D182" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E182" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F182" s="52"/>
-      <c r="G182" s="52"/>
-      <c r="H182" s="46">
+      <c r="D182" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F182" s="53"/>
+      <c r="G182" s="53"/>
+      <c r="H182" s="47">
         <v>1.0</v>
       </c>
-      <c r="I182" s="46">
+      <c r="I182" s="47">
         <v>0.0</v>
       </c>
-      <c r="J182" s="44" t="s">
+      <c r="J182" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="K182" s="44">
+      <c r="K182" s="45">
         <v>30.0</v>
       </c>
       <c r="O182" s="2"/>
@@ -10694,33 +10709,33 @@
       <c r="Z182" s="2"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="43">
+      <c r="A183" s="44">
         <v>181.0</v>
       </c>
-      <c r="B183" s="44" t="s">
+      <c r="B183" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C183" s="44" t="s">
+      <c r="C183" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D183" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E183" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F183" s="52"/>
-      <c r="G183" s="52"/>
-      <c r="H183" s="46">
+      <c r="D183" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" s="53"/>
+      <c r="G183" s="53"/>
+      <c r="H183" s="47">
         <v>2.0</v>
       </c>
-      <c r="I183" s="46">
+      <c r="I183" s="47">
         <v>3.0</v>
       </c>
-      <c r="J183" s="44" t="s">
+      <c r="J183" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="K183" s="44">
+      <c r="K183" s="45">
         <v>30.0</v>
       </c>
       <c r="O183" s="2"/>
@@ -10737,29 +10752,29 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="43">
+      <c r="A184" s="44">
         <v>182.0</v>
       </c>
-      <c r="B184" s="44" t="s">
+      <c r="B184" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="C184" s="44" t="s">
+      <c r="C184" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D184" s="52"/>
-      <c r="E184" s="52"/>
-      <c r="F184" s="52"/>
-      <c r="G184" s="52"/>
-      <c r="H184" s="46">
+      <c r="D184" s="53"/>
+      <c r="E184" s="53"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="53"/>
+      <c r="H184" s="47">
         <v>3.0</v>
       </c>
-      <c r="I184" s="46">
+      <c r="I184" s="47">
         <v>3.0</v>
       </c>
-      <c r="J184" s="44" t="s">
+      <c r="J184" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="K184" s="44">
+      <c r="K184" s="45">
         <v>30.0</v>
       </c>
       <c r="O184" s="2"/>
@@ -10776,33 +10791,33 @@
       <c r="Z184" s="2"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="43">
+      <c r="A185" s="44">
         <v>183.0</v>
       </c>
-      <c r="B185" s="44" t="s">
+      <c r="B185" s="45" t="s">
         <v>410</v>
       </c>
-      <c r="C185" s="44" t="s">
+      <c r="C185" s="45" t="s">
         <v>411</v>
       </c>
-      <c r="D185" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E185" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F185" s="52"/>
-      <c r="G185" s="52"/>
-      <c r="H185" s="46">
+      <c r="D185" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="53"/>
+      <c r="G185" s="53"/>
+      <c r="H185" s="47">
         <v>4.0</v>
       </c>
-      <c r="I185" s="46">
+      <c r="I185" s="47">
         <v>3.0</v>
       </c>
-      <c r="J185" s="44" t="s">
+      <c r="J185" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="K185" s="44">
+      <c r="K185" s="45">
         <v>30.0</v>
       </c>
       <c r="O185" s="2"/>
@@ -10819,33 +10834,33 @@
       <c r="Z185" s="2"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="43">
+      <c r="A186" s="44">
         <v>184.0</v>
       </c>
-      <c r="B186" s="44" t="s">
+      <c r="B186" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="C186" s="44" t="s">
+      <c r="C186" s="45" t="s">
         <v>413</v>
       </c>
-      <c r="D186" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E186" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F186" s="52"/>
-      <c r="G186" s="52"/>
-      <c r="H186" s="46">
+      <c r="D186" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F186" s="53"/>
+      <c r="G186" s="53"/>
+      <c r="H186" s="47">
         <v>5.0</v>
       </c>
-      <c r="I186" s="46">
+      <c r="I186" s="47">
         <v>1.0</v>
       </c>
-      <c r="J186" s="44" t="s">
+      <c r="J186" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="K186" s="44">
+      <c r="K186" s="45">
         <v>30.0</v>
       </c>
       <c r="O186" s="2"/>
@@ -10862,31 +10877,31 @@
       <c r="Z186" s="2"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="53">
+      <c r="A187" s="54">
         <v>185.0</v>
       </c>
-      <c r="B187" s="54" t="s">
+      <c r="B187" s="55" t="s">
         <v>414</v>
       </c>
-      <c r="C187" s="54" t="s">
+      <c r="C187" s="55" t="s">
         <v>415</v>
       </c>
-      <c r="D187" s="55"/>
-      <c r="E187" s="55"/>
-      <c r="F187" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" s="55"/>
-      <c r="H187" s="56">
+      <c r="D187" s="56"/>
+      <c r="E187" s="56"/>
+      <c r="F187" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187" s="56"/>
+      <c r="H187" s="57">
         <v>5.0</v>
       </c>
-      <c r="I187" s="56">
+      <c r="I187" s="57">
         <v>1.0</v>
       </c>
-      <c r="J187" s="54" t="s">
+      <c r="J187" s="55" t="s">
         <v>405</v>
       </c>
-      <c r="K187" s="54">
+      <c r="K187" s="55">
         <v>30.0</v>
       </c>
       <c r="O187" s="2"/>
@@ -10903,33 +10918,33 @@
       <c r="Z187" s="2"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="57">
+      <c r="A188" s="58">
         <v>186.0</v>
       </c>
-      <c r="B188" s="58" t="s">
+      <c r="B188" s="59" t="s">
         <v>416</v>
       </c>
-      <c r="C188" s="58" t="s">
+      <c r="C188" s="59" t="s">
         <v>417</v>
       </c>
-      <c r="D188" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F188" s="59"/>
-      <c r="G188" s="59"/>
-      <c r="H188" s="60">
+      <c r="D188" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" s="60"/>
+      <c r="G188" s="60"/>
+      <c r="H188" s="61">
         <v>1.0</v>
       </c>
-      <c r="I188" s="60">
+      <c r="I188" s="61">
         <v>0.0</v>
       </c>
-      <c r="J188" s="58" t="s">
+      <c r="J188" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="K188" s="58">
+      <c r="K188" s="59">
         <v>31.0</v>
       </c>
       <c r="O188" s="2"/>
@@ -10946,31 +10961,31 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="57">
+      <c r="A189" s="58">
         <v>187.0</v>
       </c>
-      <c r="B189" s="58" t="s">
+      <c r="B189" s="59" t="s">
         <v>419</v>
       </c>
-      <c r="C189" s="58" t="s">
+      <c r="C189" s="59" t="s">
         <v>420</v>
       </c>
-      <c r="D189" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="59"/>
-      <c r="F189" s="59"/>
-      <c r="G189" s="59"/>
-      <c r="H189" s="60">
+      <c r="D189" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="60"/>
+      <c r="F189" s="60"/>
+      <c r="G189" s="60"/>
+      <c r="H189" s="61">
         <v>2.0</v>
       </c>
-      <c r="I189" s="60">
+      <c r="I189" s="61">
         <v>3.0</v>
       </c>
-      <c r="J189" s="58" t="s">
+      <c r="J189" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="K189" s="58">
+      <c r="K189" s="59">
         <v>31.0</v>
       </c>
       <c r="O189" s="2"/>
@@ -10987,33 +11002,33 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="57">
+      <c r="A190" s="58">
         <v>188.0</v>
       </c>
-      <c r="B190" s="58" t="s">
+      <c r="B190" s="59" t="s">
         <v>421</v>
       </c>
-      <c r="C190" s="58" t="s">
+      <c r="C190" s="59" t="s">
         <v>422</v>
       </c>
-      <c r="D190" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E190" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F190" s="59"/>
-      <c r="G190" s="59"/>
-      <c r="H190" s="60">
+      <c r="D190" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" s="60"/>
+      <c r="G190" s="60"/>
+      <c r="H190" s="61">
         <v>3.0</v>
       </c>
-      <c r="I190" s="60">
+      <c r="I190" s="61">
         <v>3.0</v>
       </c>
-      <c r="J190" s="58" t="s">
+      <c r="J190" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="K190" s="58">
+      <c r="K190" s="59">
         <v>31.0</v>
       </c>
       <c r="O190" s="2"/>
@@ -11030,33 +11045,33 @@
       <c r="Z190" s="2"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="57">
+      <c r="A191" s="58">
         <v>189.0</v>
       </c>
-      <c r="B191" s="58" t="s">
+      <c r="B191" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="C191" s="58" t="s">
+      <c r="C191" s="59" t="s">
         <v>424</v>
       </c>
-      <c r="D191" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E191" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F191" s="59"/>
-      <c r="G191" s="59"/>
-      <c r="H191" s="60">
+      <c r="D191" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F191" s="60"/>
+      <c r="G191" s="60"/>
+      <c r="H191" s="61">
         <v>4.0</v>
       </c>
-      <c r="I191" s="60">
+      <c r="I191" s="61">
         <v>3.0</v>
       </c>
-      <c r="J191" s="58" t="s">
+      <c r="J191" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="K191" s="58">
+      <c r="K191" s="59">
         <v>31.0</v>
       </c>
       <c r="O191" s="2"/>
@@ -11073,33 +11088,33 @@
       <c r="Z191" s="2"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="57">
+      <c r="A192" s="58">
         <v>190.0</v>
       </c>
-      <c r="B192" s="58" t="s">
+      <c r="B192" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="C192" s="58" t="s">
+      <c r="C192" s="59" t="s">
         <v>426</v>
       </c>
-      <c r="D192" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E192" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F192" s="59"/>
-      <c r="G192" s="59"/>
-      <c r="H192" s="60">
+      <c r="D192" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F192" s="60"/>
+      <c r="G192" s="60"/>
+      <c r="H192" s="61">
         <v>5.0</v>
       </c>
-      <c r="I192" s="60">
+      <c r="I192" s="61">
         <v>1.0</v>
       </c>
-      <c r="J192" s="58" t="s">
+      <c r="J192" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="K192" s="58">
+      <c r="K192" s="59">
         <v>31.0</v>
       </c>
       <c r="O192" s="2"/>
@@ -11116,31 +11131,31 @@
       <c r="Z192" s="2"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="57">
+      <c r="A193" s="58">
         <v>191.0</v>
       </c>
-      <c r="B193" s="58" t="s">
+      <c r="B193" s="59" t="s">
         <v>427</v>
       </c>
-      <c r="C193" s="58" t="s">
+      <c r="C193" s="59" t="s">
         <v>428</v>
       </c>
-      <c r="D193" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E193" s="59"/>
-      <c r="F193" s="59"/>
-      <c r="G193" s="59"/>
-      <c r="H193" s="60">
+      <c r="D193" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193" s="60"/>
+      <c r="F193" s="60"/>
+      <c r="G193" s="60"/>
+      <c r="H193" s="61">
         <v>5.0</v>
       </c>
-      <c r="I193" s="60">
+      <c r="I193" s="61">
         <v>1.0</v>
       </c>
-      <c r="J193" s="58" t="s">
+      <c r="J193" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="K193" s="58">
+      <c r="K193" s="59">
         <v>31.0</v>
       </c>
       <c r="O193" s="2"/>
@@ -11157,29 +11172,29 @@
       <c r="Z193" s="2"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="57">
+      <c r="A194" s="58">
         <v>192.0</v>
       </c>
-      <c r="B194" s="58" t="s">
+      <c r="B194" s="59" t="s">
         <v>429</v>
       </c>
-      <c r="C194" s="58" t="s">
+      <c r="C194" s="59" t="s">
         <v>430</v>
       </c>
-      <c r="D194" s="59"/>
-      <c r="E194" s="59"/>
-      <c r="F194" s="59"/>
-      <c r="G194" s="59"/>
-      <c r="H194" s="60">
+      <c r="D194" s="60"/>
+      <c r="E194" s="60"/>
+      <c r="F194" s="60"/>
+      <c r="G194" s="60"/>
+      <c r="H194" s="61">
         <v>1.0</v>
       </c>
-      <c r="I194" s="60">
+      <c r="I194" s="61">
         <v>0.0</v>
       </c>
-      <c r="J194" s="58" t="s">
+      <c r="J194" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="K194" s="58">
+      <c r="K194" s="59">
         <v>32.0</v>
       </c>
       <c r="L194" s="2"/>
@@ -11199,33 +11214,33 @@
       <c r="Z194" s="2"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="57">
+      <c r="A195" s="58">
         <v>193.0</v>
       </c>
-      <c r="B195" s="58" t="s">
+      <c r="B195" s="59" t="s">
         <v>432</v>
       </c>
-      <c r="C195" s="58" t="s">
+      <c r="C195" s="59" t="s">
         <v>433</v>
       </c>
-      <c r="D195" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F195" s="59"/>
-      <c r="G195" s="59"/>
-      <c r="H195" s="60">
+      <c r="D195" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" s="60"/>
+      <c r="G195" s="60"/>
+      <c r="H195" s="61">
         <v>2.0</v>
       </c>
-      <c r="I195" s="60">
+      <c r="I195" s="61">
         <v>3.0</v>
       </c>
-      <c r="J195" s="58" t="s">
+      <c r="J195" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="K195" s="58">
+      <c r="K195" s="59">
         <v>32.0</v>
       </c>
       <c r="L195" s="2"/>
@@ -11245,33 +11260,33 @@
       <c r="Z195" s="2"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="57">
+      <c r="A196" s="58">
         <v>194.0</v>
       </c>
-      <c r="B196" s="58" t="s">
+      <c r="B196" s="59" t="s">
         <v>434</v>
       </c>
-      <c r="C196" s="58" t="s">
+      <c r="C196" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="D196" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E196" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F196" s="59"/>
-      <c r="G196" s="59"/>
-      <c r="H196" s="60">
+      <c r="D196" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196" s="60"/>
+      <c r="G196" s="60"/>
+      <c r="H196" s="61">
         <v>3.0</v>
       </c>
-      <c r="I196" s="60">
+      <c r="I196" s="61">
         <v>3.0</v>
       </c>
-      <c r="J196" s="58" t="s">
+      <c r="J196" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="K196" s="58">
+      <c r="K196" s="59">
         <v>32.0</v>
       </c>
       <c r="L196" s="2"/>
@@ -11291,33 +11306,33 @@
       <c r="Z196" s="2"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="57">
+      <c r="A197" s="58">
         <v>195.0</v>
       </c>
-      <c r="B197" s="58" t="s">
+      <c r="B197" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="C197" s="58" t="s">
+      <c r="C197" s="59" t="s">
         <v>437</v>
       </c>
-      <c r="D197" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E197" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F197" s="59"/>
-      <c r="G197" s="59"/>
-      <c r="H197" s="60">
+      <c r="D197" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F197" s="60"/>
+      <c r="G197" s="60"/>
+      <c r="H197" s="61">
         <v>4.0</v>
       </c>
-      <c r="I197" s="60">
+      <c r="I197" s="61">
         <v>3.0</v>
       </c>
-      <c r="J197" s="58" t="s">
+      <c r="J197" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="K197" s="58">
+      <c r="K197" s="59">
         <v>32.0</v>
       </c>
       <c r="L197" s="2"/>
@@ -11337,33 +11352,33 @@
       <c r="Z197" s="2"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="57">
+      <c r="A198" s="58">
         <v>196.0</v>
       </c>
-      <c r="B198" s="58" t="s">
+      <c r="B198" s="59" t="s">
         <v>438</v>
       </c>
-      <c r="C198" s="58" t="s">
+      <c r="C198" s="59" t="s">
         <v>439</v>
       </c>
-      <c r="D198" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E198" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F198" s="59"/>
-      <c r="G198" s="59"/>
-      <c r="H198" s="60">
+      <c r="D198" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F198" s="60"/>
+      <c r="G198" s="60"/>
+      <c r="H198" s="61">
         <v>5.0</v>
       </c>
-      <c r="I198" s="60">
+      <c r="I198" s="61">
         <v>1.0</v>
       </c>
-      <c r="J198" s="58" t="s">
+      <c r="J198" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="K198" s="58">
+      <c r="K198" s="59">
         <v>32.0</v>
       </c>
       <c r="L198" s="2"/>
@@ -11383,29 +11398,29 @@
       <c r="Z198" s="2"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="57">
+      <c r="A199" s="58">
         <v>197.0</v>
       </c>
-      <c r="B199" s="58" t="s">
+      <c r="B199" s="59" t="s">
         <v>440</v>
       </c>
-      <c r="C199" s="58" t="s">
+      <c r="C199" s="59" t="s">
         <v>441</v>
       </c>
-      <c r="D199" s="59"/>
-      <c r="E199" s="59"/>
-      <c r="F199" s="59"/>
-      <c r="G199" s="59"/>
-      <c r="H199" s="60">
+      <c r="D199" s="60"/>
+      <c r="E199" s="60"/>
+      <c r="F199" s="60"/>
+      <c r="G199" s="60"/>
+      <c r="H199" s="61">
         <v>5.0</v>
       </c>
-      <c r="I199" s="60">
+      <c r="I199" s="61">
         <v>1.0</v>
       </c>
-      <c r="J199" s="58" t="s">
+      <c r="J199" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="K199" s="58">
+      <c r="K199" s="59">
         <v>32.0</v>
       </c>
       <c r="L199" s="2"/>
@@ -11425,31 +11440,31 @@
       <c r="Z199" s="2"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="57">
+      <c r="A200" s="58">
         <v>198.0</v>
       </c>
-      <c r="B200" s="58" t="s">
+      <c r="B200" s="59" t="s">
         <v>442</v>
       </c>
-      <c r="C200" s="58" t="s">
+      <c r="C200" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="D200" s="59"/>
-      <c r="E200" s="59"/>
-      <c r="F200" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G200" s="59"/>
-      <c r="H200" s="60">
+      <c r="D200" s="60"/>
+      <c r="E200" s="60"/>
+      <c r="F200" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" s="60"/>
+      <c r="H200" s="61">
         <v>1.0</v>
       </c>
-      <c r="I200" s="60">
+      <c r="I200" s="61">
         <v>0.0</v>
       </c>
-      <c r="J200" s="58" t="s">
+      <c r="J200" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="K200" s="58">
+      <c r="K200" s="59">
         <v>33.0</v>
       </c>
       <c r="L200" s="2"/>
@@ -11469,33 +11484,33 @@
       <c r="Z200" s="2"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="57">
+      <c r="A201" s="58">
         <v>199.0</v>
       </c>
-      <c r="B201" s="58" t="s">
+      <c r="B201" s="59" t="s">
         <v>445</v>
       </c>
-      <c r="C201" s="58" t="s">
+      <c r="C201" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="D201" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E201" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F201" s="59"/>
-      <c r="G201" s="59"/>
-      <c r="H201" s="60">
+      <c r="D201" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" s="60"/>
+      <c r="G201" s="60"/>
+      <c r="H201" s="61">
         <v>2.0</v>
       </c>
-      <c r="I201" s="60">
+      <c r="I201" s="61">
         <v>3.0</v>
       </c>
-      <c r="J201" s="58" t="s">
+      <c r="J201" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="K201" s="58">
+      <c r="K201" s="59">
         <v>33.0</v>
       </c>
       <c r="L201" s="2"/>
@@ -11515,33 +11530,33 @@
       <c r="Z201" s="2"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="57">
+      <c r="A202" s="58">
         <v>200.0</v>
       </c>
-      <c r="B202" s="58" t="s">
+      <c r="B202" s="59" t="s">
         <v>447</v>
       </c>
-      <c r="C202" s="58" t="s">
+      <c r="C202" s="59" t="s">
         <v>448</v>
       </c>
-      <c r="D202" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E202" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F202" s="59"/>
-      <c r="G202" s="59"/>
-      <c r="H202" s="60">
+      <c r="D202" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" s="60"/>
+      <c r="G202" s="60"/>
+      <c r="H202" s="61">
         <v>3.0</v>
       </c>
-      <c r="I202" s="60">
+      <c r="I202" s="61">
         <v>3.0</v>
       </c>
-      <c r="J202" s="58" t="s">
+      <c r="J202" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="K202" s="58">
+      <c r="K202" s="59">
         <v>33.0</v>
       </c>
       <c r="L202" s="2"/>
@@ -11561,33 +11576,33 @@
       <c r="Z202" s="2"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="57">
+      <c r="A203" s="58">
         <v>201.0</v>
       </c>
-      <c r="B203" s="58" t="s">
+      <c r="B203" s="59" t="s">
         <v>449</v>
       </c>
-      <c r="C203" s="58" t="s">
+      <c r="C203" s="59" t="s">
         <v>450</v>
       </c>
-      <c r="D203" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E203" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F203" s="59"/>
-      <c r="G203" s="59"/>
-      <c r="H203" s="60">
+      <c r="D203" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" s="60"/>
+      <c r="G203" s="60"/>
+      <c r="H203" s="61">
         <v>4.0</v>
       </c>
-      <c r="I203" s="60">
+      <c r="I203" s="61">
         <v>3.0</v>
       </c>
-      <c r="J203" s="58" t="s">
+      <c r="J203" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="K203" s="58">
+      <c r="K203" s="59">
         <v>33.0</v>
       </c>
       <c r="L203" s="2"/>
@@ -11607,31 +11622,31 @@
       <c r="Z203" s="2"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="57">
+      <c r="A204" s="58">
         <v>202.0</v>
       </c>
-      <c r="B204" s="58" t="s">
+      <c r="B204" s="59" t="s">
         <v>451</v>
       </c>
-      <c r="C204" s="58" t="s">
+      <c r="C204" s="59" t="s">
         <v>452</v>
       </c>
-      <c r="D204" s="58"/>
-      <c r="E204" s="58"/>
-      <c r="F204" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G204" s="59"/>
-      <c r="H204" s="60">
+      <c r="D204" s="59"/>
+      <c r="E204" s="59"/>
+      <c r="F204" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" s="60"/>
+      <c r="H204" s="61">
         <v>5.0</v>
       </c>
-      <c r="I204" s="60">
+      <c r="I204" s="61">
         <v>1.0</v>
       </c>
-      <c r="J204" s="58" t="s">
+      <c r="J204" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="K204" s="58">
+      <c r="K204" s="59">
         <v>33.0</v>
       </c>
       <c r="L204" s="2"/>
@@ -11651,33 +11666,33 @@
       <c r="Z204" s="2"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="57">
+      <c r="A205" s="58">
         <v>203.0</v>
       </c>
-      <c r="B205" s="58" t="s">
+      <c r="B205" s="59" t="s">
         <v>453</v>
       </c>
-      <c r="C205" s="58" t="s">
+      <c r="C205" s="59" t="s">
         <v>454</v>
       </c>
-      <c r="D205" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E205" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F205" s="59"/>
-      <c r="G205" s="59"/>
-      <c r="H205" s="60">
+      <c r="D205" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F205" s="60"/>
+      <c r="G205" s="60"/>
+      <c r="H205" s="61">
         <v>5.0</v>
       </c>
-      <c r="I205" s="60">
+      <c r="I205" s="61">
         <v>1.0</v>
       </c>
-      <c r="J205" s="58" t="s">
+      <c r="J205" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="K205" s="58">
+      <c r="K205" s="59">
         <v>33.0</v>
       </c>
       <c r="L205" s="2"/>
@@ -11697,33 +11712,33 @@
       <c r="Z205" s="2"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="57">
+      <c r="A206" s="58">
         <v>204.0</v>
       </c>
-      <c r="B206" s="58" t="s">
+      <c r="B206" s="59" t="s">
         <v>455</v>
       </c>
-      <c r="C206" s="58" t="s">
+      <c r="C206" s="59" t="s">
         <v>456</v>
       </c>
-      <c r="D206" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E206" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F206" s="59"/>
-      <c r="G206" s="59"/>
-      <c r="H206" s="60">
+      <c r="D206" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206" s="60"/>
+      <c r="G206" s="60"/>
+      <c r="H206" s="61">
         <v>1.0</v>
       </c>
-      <c r="I206" s="60">
+      <c r="I206" s="61">
         <v>0.0</v>
       </c>
-      <c r="J206" s="58" t="s">
+      <c r="J206" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="K206" s="58">
+      <c r="K206" s="59">
         <v>34.0</v>
       </c>
       <c r="L206" s="2"/>
@@ -11743,31 +11758,31 @@
       <c r="Z206" s="2"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="57">
+      <c r="A207" s="58">
         <v>205.0</v>
       </c>
-      <c r="B207" s="58" t="s">
+      <c r="B207" s="59" t="s">
         <v>458</v>
       </c>
-      <c r="C207" s="58" t="s">
+      <c r="C207" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="D207" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E207" s="59"/>
-      <c r="F207" s="59"/>
-      <c r="G207" s="59"/>
-      <c r="H207" s="60">
+      <c r="D207" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207" s="60"/>
+      <c r="F207" s="60"/>
+      <c r="G207" s="60"/>
+      <c r="H207" s="61">
         <v>2.0</v>
       </c>
-      <c r="I207" s="60">
+      <c r="I207" s="61">
         <v>3.0</v>
       </c>
-      <c r="J207" s="58" t="s">
+      <c r="J207" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="K207" s="58">
+      <c r="K207" s="59">
         <v>34.0</v>
       </c>
       <c r="L207" s="2"/>
@@ -11787,33 +11802,33 @@
       <c r="Z207" s="2"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="57">
+      <c r="A208" s="58">
         <v>206.0</v>
       </c>
-      <c r="B208" s="58" t="s">
+      <c r="B208" s="59" t="s">
         <v>460</v>
       </c>
-      <c r="C208" s="58" t="s">
+      <c r="C208" s="59" t="s">
         <v>461</v>
       </c>
-      <c r="D208" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E208" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F208" s="59"/>
-      <c r="G208" s="59"/>
-      <c r="H208" s="60">
+      <c r="D208" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208" s="60"/>
+      <c r="G208" s="60"/>
+      <c r="H208" s="61">
         <v>3.0</v>
       </c>
-      <c r="I208" s="60">
+      <c r="I208" s="61">
         <v>3.0</v>
       </c>
-      <c r="J208" s="58" t="s">
+      <c r="J208" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="K208" s="58">
+      <c r="K208" s="59">
         <v>34.0</v>
       </c>
       <c r="L208" s="2"/>
@@ -11833,33 +11848,33 @@
       <c r="Z208" s="2"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="57">
+      <c r="A209" s="58">
         <v>207.0</v>
       </c>
-      <c r="B209" s="58" t="s">
+      <c r="B209" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="C209" s="58" t="s">
+      <c r="C209" s="59" t="s">
         <v>463</v>
       </c>
-      <c r="D209" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E209" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F209" s="59"/>
-      <c r="G209" s="59"/>
-      <c r="H209" s="60">
+      <c r="D209" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209" s="60"/>
+      <c r="G209" s="60"/>
+      <c r="H209" s="61">
         <v>4.0</v>
       </c>
-      <c r="I209" s="60">
+      <c r="I209" s="61">
         <v>3.0</v>
       </c>
-      <c r="J209" s="58" t="s">
+      <c r="J209" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="K209" s="58">
+      <c r="K209" s="59">
         <v>34.0</v>
       </c>
       <c r="L209" s="2"/>
@@ -11879,33 +11894,33 @@
       <c r="Z209" s="2"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="57">
+      <c r="A210" s="58">
         <v>208.0</v>
       </c>
-      <c r="B210" s="58" t="s">
+      <c r="B210" s="59" t="s">
         <v>464</v>
       </c>
-      <c r="C210" s="58" t="s">
+      <c r="C210" s="59" t="s">
         <v>465</v>
       </c>
-      <c r="D210" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F210" s="59"/>
-      <c r="G210" s="59"/>
-      <c r="H210" s="60">
+      <c r="D210" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" s="60"/>
+      <c r="G210" s="60"/>
+      <c r="H210" s="61">
         <v>5.0</v>
       </c>
-      <c r="I210" s="60">
+      <c r="I210" s="61">
         <v>1.0</v>
       </c>
-      <c r="J210" s="58" t="s">
+      <c r="J210" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="K210" s="58">
+      <c r="K210" s="59">
         <v>34.0</v>
       </c>
       <c r="L210" s="2"/>
@@ -11925,33 +11940,33 @@
       <c r="Z210" s="2"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="57">
+      <c r="A211" s="58">
         <v>209.0</v>
       </c>
-      <c r="B211" s="58" t="s">
+      <c r="B211" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="C211" s="58" t="s">
+      <c r="C211" s="59" t="s">
         <v>467</v>
       </c>
-      <c r="D211" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F211" s="59"/>
-      <c r="G211" s="59"/>
-      <c r="H211" s="60">
+      <c r="D211" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F211" s="60"/>
+      <c r="G211" s="60"/>
+      <c r="H211" s="61">
         <v>5.0</v>
       </c>
-      <c r="I211" s="60">
+      <c r="I211" s="61">
         <v>1.0</v>
       </c>
-      <c r="J211" s="58" t="s">
+      <c r="J211" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="K211" s="58">
+      <c r="K211" s="59">
         <v>34.0</v>
       </c>
       <c r="L211" s="2"/>
@@ -11971,31 +11986,31 @@
       <c r="Z211" s="2"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="57">
+      <c r="A212" s="58">
         <v>210.0</v>
       </c>
-      <c r="B212" s="60" t="s">
+      <c r="B212" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="C212" s="57" t="s">
+      <c r="C212" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="D212" s="60"/>
-      <c r="E212" s="60"/>
-      <c r="F212" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G212" s="60"/>
-      <c r="H212" s="60">
+      <c r="D212" s="61"/>
+      <c r="E212" s="61"/>
+      <c r="F212" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G212" s="61"/>
+      <c r="H212" s="61">
         <v>1.0</v>
       </c>
-      <c r="I212" s="60">
+      <c r="I212" s="61">
         <v>0.0</v>
       </c>
-      <c r="J212" s="61" t="s">
+      <c r="J212" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="K212" s="58">
+      <c r="K212" s="59">
         <v>35.0</v>
       </c>
       <c r="L212" s="2"/>
@@ -12015,33 +12030,33 @@
       <c r="Z212" s="2"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="57">
+      <c r="A213" s="58">
         <v>211.0</v>
       </c>
-      <c r="B213" s="57" t="s">
+      <c r="B213" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="C213" s="57" t="s">
+      <c r="C213" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="D213" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E213" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F213" s="60"/>
-      <c r="G213" s="60"/>
-      <c r="H213" s="60">
+      <c r="D213" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F213" s="61"/>
+      <c r="G213" s="61"/>
+      <c r="H213" s="61">
         <v>2.0</v>
       </c>
-      <c r="I213" s="60">
+      <c r="I213" s="61">
         <v>3.0</v>
       </c>
-      <c r="J213" s="61" t="s">
+      <c r="J213" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="K213" s="58">
+      <c r="K213" s="59">
         <v>35.0</v>
       </c>
       <c r="L213" s="2"/>
@@ -12061,33 +12076,33 @@
       <c r="Z213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="57">
+      <c r="A214" s="58">
         <v>212.0</v>
       </c>
-      <c r="B214" s="60" t="s">
+      <c r="B214" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="C214" s="57" t="s">
+      <c r="C214" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="D214" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E214" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F214" s="60"/>
-      <c r="G214" s="60"/>
-      <c r="H214" s="60">
+      <c r="D214" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E214" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F214" s="61"/>
+      <c r="G214" s="61"/>
+      <c r="H214" s="61">
         <v>3.0</v>
       </c>
-      <c r="I214" s="60">
+      <c r="I214" s="61">
         <v>3.0</v>
       </c>
-      <c r="J214" s="61" t="s">
+      <c r="J214" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="K214" s="58">
+      <c r="K214" s="59">
         <v>35.0</v>
       </c>
       <c r="L214" s="2"/>
@@ -12107,33 +12122,33 @@
       <c r="Z214" s="2"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="57">
+      <c r="A215" s="58">
         <v>213.0</v>
       </c>
-      <c r="B215" s="57" t="s">
+      <c r="B215" s="58" t="s">
         <v>475</v>
       </c>
-      <c r="C215" s="57" t="s">
+      <c r="C215" s="58" t="s">
         <v>476</v>
       </c>
-      <c r="D215" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E215" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F215" s="60"/>
-      <c r="G215" s="60"/>
-      <c r="H215" s="60">
+      <c r="D215" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F215" s="61"/>
+      <c r="G215" s="61"/>
+      <c r="H215" s="61">
         <v>4.0</v>
       </c>
-      <c r="I215" s="60">
+      <c r="I215" s="61">
         <v>3.0</v>
       </c>
-      <c r="J215" s="61" t="s">
+      <c r="J215" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="K215" s="58">
+      <c r="K215" s="59">
         <v>35.0</v>
       </c>
       <c r="L215" s="2"/>
@@ -12153,31 +12168,31 @@
       <c r="Z215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="57">
+      <c r="A216" s="58">
         <v>214.0</v>
       </c>
-      <c r="B216" s="60" t="s">
+      <c r="B216" s="61" t="s">
         <v>477</v>
       </c>
-      <c r="C216" s="57" t="s">
+      <c r="C216" s="58" t="s">
         <v>478</v>
       </c>
-      <c r="D216" s="60"/>
-      <c r="E216" s="60"/>
-      <c r="F216" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G216" s="60"/>
-      <c r="H216" s="60">
+      <c r="D216" s="61"/>
+      <c r="E216" s="61"/>
+      <c r="F216" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G216" s="61"/>
+      <c r="H216" s="61">
         <v>5.0</v>
       </c>
-      <c r="I216" s="60">
+      <c r="I216" s="61">
         <v>1.0</v>
       </c>
-      <c r="J216" s="61" t="s">
+      <c r="J216" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="K216" s="58">
+      <c r="K216" s="59">
         <v>35.0</v>
       </c>
       <c r="L216" s="2"/>
@@ -12197,31 +12212,31 @@
       <c r="Z216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="57">
+      <c r="A217" s="58">
         <v>215.0</v>
       </c>
-      <c r="B217" s="60" t="s">
+      <c r="B217" s="61" t="s">
         <v>479</v>
       </c>
-      <c r="C217" s="57" t="s">
+      <c r="C217" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="D217" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E217" s="60"/>
-      <c r="F217" s="60"/>
-      <c r="G217" s="60"/>
-      <c r="H217" s="60">
+      <c r="D217" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" s="61"/>
+      <c r="F217" s="61"/>
+      <c r="G217" s="61"/>
+      <c r="H217" s="61">
         <v>5.0</v>
       </c>
-      <c r="I217" s="60">
+      <c r="I217" s="61">
         <v>1.0</v>
       </c>
-      <c r="J217" s="61" t="s">
+      <c r="J217" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="K217" s="58">
+      <c r="K217" s="59">
         <v>35.0</v>
       </c>
       <c r="L217" s="2"/>
@@ -12241,33 +12256,33 @@
       <c r="Z217" s="2"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="57">
+      <c r="A218" s="58">
         <v>216.0</v>
       </c>
-      <c r="B218" s="60" t="s">
+      <c r="B218" s="61" t="s">
         <v>481</v>
       </c>
-      <c r="C218" s="57" t="s">
+      <c r="C218" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="D218" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E218" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F218" s="60"/>
-      <c r="G218" s="60"/>
-      <c r="H218" s="60">
+      <c r="D218" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218" s="61"/>
+      <c r="G218" s="61"/>
+      <c r="H218" s="61">
         <v>1.0</v>
       </c>
-      <c r="I218" s="60">
+      <c r="I218" s="61">
         <v>0.0</v>
       </c>
-      <c r="J218" s="61" t="s">
+      <c r="J218" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="K218" s="58">
+      <c r="K218" s="59">
         <v>36.0</v>
       </c>
       <c r="L218" s="2"/>
@@ -12287,33 +12302,33 @@
       <c r="Z218" s="2"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="57">
+      <c r="A219" s="58">
         <v>217.0</v>
       </c>
-      <c r="B219" s="60" t="s">
+      <c r="B219" s="61" t="s">
         <v>484</v>
       </c>
-      <c r="C219" s="57" t="s">
+      <c r="C219" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="D219" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E219" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F219" s="60"/>
-      <c r="G219" s="60"/>
-      <c r="H219" s="60">
+      <c r="D219" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F219" s="61"/>
+      <c r="G219" s="61"/>
+      <c r="H219" s="61">
         <v>2.0</v>
       </c>
-      <c r="I219" s="60">
+      <c r="I219" s="61">
         <v>3.0</v>
       </c>
-      <c r="J219" s="61" t="s">
+      <c r="J219" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="K219" s="58">
+      <c r="K219" s="59">
         <v>36.0</v>
       </c>
       <c r="L219" s="2"/>
@@ -12333,33 +12348,33 @@
       <c r="Z219" s="2"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="57">
+      <c r="A220" s="58">
         <v>218.0</v>
       </c>
-      <c r="B220" s="60" t="s">
+      <c r="B220" s="61" t="s">
         <v>486</v>
       </c>
-      <c r="C220" s="57" t="s">
+      <c r="C220" s="58" t="s">
         <v>487</v>
       </c>
-      <c r="D220" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E220" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F220" s="60"/>
-      <c r="G220" s="60"/>
-      <c r="H220" s="60">
+      <c r="D220" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220" s="61"/>
+      <c r="G220" s="61"/>
+      <c r="H220" s="61">
         <v>3.0</v>
       </c>
-      <c r="I220" s="60">
+      <c r="I220" s="61">
         <v>3.0</v>
       </c>
-      <c r="J220" s="61" t="s">
+      <c r="J220" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="K220" s="58">
+      <c r="K220" s="59">
         <v>36.0</v>
       </c>
       <c r="L220" s="2"/>
@@ -12379,33 +12394,33 @@
       <c r="Z220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="57">
+      <c r="A221" s="58">
         <v>219.0</v>
       </c>
-      <c r="B221" s="60" t="s">
+      <c r="B221" s="61" t="s">
         <v>488</v>
       </c>
-      <c r="C221" s="57" t="s">
+      <c r="C221" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="D221" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F221" s="60"/>
-      <c r="G221" s="60"/>
-      <c r="H221" s="60">
+      <c r="D221" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F221" s="61"/>
+      <c r="G221" s="61"/>
+      <c r="H221" s="61">
         <v>4.0</v>
       </c>
-      <c r="I221" s="60">
+      <c r="I221" s="61">
         <v>3.0</v>
       </c>
-      <c r="J221" s="61" t="s">
+      <c r="J221" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="K221" s="58">
+      <c r="K221" s="59">
         <v>36.0</v>
       </c>
       <c r="L221" s="2"/>
@@ -12425,33 +12440,33 @@
       <c r="Z221" s="2"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="57">
+      <c r="A222" s="58">
         <v>220.0</v>
       </c>
-      <c r="B222" s="60" t="s">
+      <c r="B222" s="61" t="s">
         <v>490</v>
       </c>
-      <c r="C222" s="57" t="s">
+      <c r="C222" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="D222" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F222" s="60"/>
-      <c r="G222" s="60"/>
-      <c r="H222" s="60">
+      <c r="D222" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F222" s="61"/>
+      <c r="G222" s="61"/>
+      <c r="H222" s="61">
         <v>5.0</v>
       </c>
-      <c r="I222" s="60">
+      <c r="I222" s="61">
         <v>1.0</v>
       </c>
-      <c r="J222" s="61" t="s">
+      <c r="J222" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="K222" s="58">
+      <c r="K222" s="59">
         <v>36.0</v>
       </c>
       <c r="L222" s="2"/>
@@ -12471,33 +12486,33 @@
       <c r="Z222" s="2"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="62">
+      <c r="A223" s="63">
         <v>221.0</v>
       </c>
-      <c r="B223" s="63" t="s">
+      <c r="B223" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="C223" s="62" t="s">
+      <c r="C223" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="D223" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E223" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F223" s="63"/>
-      <c r="G223" s="63"/>
-      <c r="H223" s="63">
+      <c r="D223" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E223" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F223" s="64"/>
+      <c r="G223" s="64"/>
+      <c r="H223" s="64">
         <v>5.0</v>
       </c>
-      <c r="I223" s="63">
+      <c r="I223" s="64">
         <v>1.0</v>
       </c>
-      <c r="J223" s="64" t="s">
+      <c r="J223" s="65" t="s">
         <v>483</v>
       </c>
-      <c r="K223" s="65">
+      <c r="K223" s="66">
         <v>36.0</v>
       </c>
       <c r="L223" s="2"/>
@@ -13361,7 +13376,7 @@
       <c r="Z272" s="2"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="K273" s="66"/>
+      <c r="K273" s="67"/>
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -13379,7 +13394,7 @@
       <c r="Z273" s="2"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="K274" s="66"/>
+      <c r="K274" s="67"/>
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -13397,7 +13412,7 @@
       <c r="Z274" s="2"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="K275" s="66"/>
+      <c r="K275" s="67"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
       <c r="N275" s="2"/>
@@ -13415,7 +13430,7 @@
       <c r="Z275" s="2"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="K276" s="66"/>
+      <c r="K276" s="67"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
@@ -13433,7 +13448,7 @@
       <c r="Z276" s="2"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="K277" s="66"/>
+      <c r="K277" s="67"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
@@ -13451,7 +13466,7 @@
       <c r="Z277" s="2"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="K278" s="66"/>
+      <c r="K278" s="67"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
@@ -13469,7 +13484,7 @@
       <c r="Z278" s="2"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="K279" s="66"/>
+      <c r="K279" s="67"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -13487,7 +13502,7 @@
       <c r="Z279" s="2"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="K280" s="66"/>
+      <c r="K280" s="67"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
@@ -13505,7 +13520,7 @@
       <c r="Z280" s="2"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="K281" s="66"/>
+      <c r="K281" s="67"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
@@ -13523,7 +13538,7 @@
       <c r="Z281" s="2"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="K282" s="66"/>
+      <c r="K282" s="67"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -13541,7 +13556,7 @@
       <c r="Z282" s="2"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="K283" s="66"/>
+      <c r="K283" s="67"/>
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -13559,7 +13574,7 @@
       <c r="Z283" s="2"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="K284" s="66"/>
+      <c r="K284" s="67"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -13577,7 +13592,7 @@
       <c r="Z284" s="2"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="K285" s="66"/>
+      <c r="K285" s="67"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -13595,7 +13610,7 @@
       <c r="Z285" s="2"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="K286" s="66"/>
+      <c r="K286" s="67"/>
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
       <c r="N286" s="2"/>
@@ -13613,7 +13628,7 @@
       <c r="Z286" s="2"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="K287" s="66"/>
+      <c r="K287" s="67"/>
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
@@ -13631,7 +13646,7 @@
       <c r="Z287" s="2"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="K288" s="66"/>
+      <c r="K288" s="67"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
@@ -13649,7 +13664,7 @@
       <c r="Z288" s="2"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="K289" s="66"/>
+      <c r="K289" s="67"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -13667,7 +13682,7 @@
       <c r="Z289" s="2"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="K290" s="66"/>
+      <c r="K290" s="67"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
@@ -13685,7 +13700,7 @@
       <c r="Z290" s="2"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="K291" s="66"/>
+      <c r="K291" s="67"/>
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
       <c r="N291" s="2"/>
@@ -13703,7 +13718,7 @@
       <c r="Z291" s="2"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="K292" s="66"/>
+      <c r="K292" s="67"/>
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
@@ -13721,7 +13736,7 @@
       <c r="Z292" s="2"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="K293" s="66"/>
+      <c r="K293" s="67"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
@@ -13739,7 +13754,7 @@
       <c r="Z293" s="2"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="K294" s="66"/>
+      <c r="K294" s="67"/>
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
@@ -13757,7 +13772,7 @@
       <c r="Z294" s="2"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="K295" s="66"/>
+      <c r="K295" s="67"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -13775,7 +13790,7 @@
       <c r="Z295" s="2"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="K296" s="66"/>
+      <c r="K296" s="67"/>
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
@@ -13793,7 +13808,7 @@
       <c r="Z296" s="2"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="K297" s="66"/>
+      <c r="K297" s="67"/>
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
       <c r="N297" s="2"/>
@@ -13811,7 +13826,7 @@
       <c r="Z297" s="2"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="K298" s="66"/>
+      <c r="K298" s="67"/>
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
       <c r="N298" s="2"/>
@@ -13829,7 +13844,7 @@
       <c r="Z298" s="2"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="K299" s="66"/>
+      <c r="K299" s="67"/>
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -13847,7 +13862,7 @@
       <c r="Z299" s="2"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="K300" s="66"/>
+      <c r="K300" s="67"/>
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
@@ -13865,7 +13880,7 @@
       <c r="Z300" s="2"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="K301" s="66"/>
+      <c r="K301" s="67"/>
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -13883,7 +13898,7 @@
       <c r="Z301" s="2"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="K302" s="66"/>
+      <c r="K302" s="67"/>
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
@@ -13901,7 +13916,7 @@
       <c r="Z302" s="2"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="K303" s="66"/>
+      <c r="K303" s="67"/>
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
       <c r="N303" s="2"/>
@@ -13919,7 +13934,7 @@
       <c r="Z303" s="2"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="K304" s="66"/>
+      <c r="K304" s="67"/>
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
       <c r="N304" s="2"/>
@@ -13937,7 +13952,7 @@
       <c r="Z304" s="2"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="K305" s="66"/>
+      <c r="K305" s="67"/>
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
@@ -13955,7 +13970,7 @@
       <c r="Z305" s="2"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="K306" s="66"/>
+      <c r="K306" s="67"/>
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
@@ -13973,7 +13988,7 @@
       <c r="Z306" s="2"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="K307" s="66"/>
+      <c r="K307" s="67"/>
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
       <c r="N307" s="2"/>
@@ -13991,7 +14006,7 @@
       <c r="Z307" s="2"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="K308" s="66"/>
+      <c r="K308" s="67"/>
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
@@ -32760,1879 +32775,1881 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="70" t="s">
         <v>494</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="70" t="s">
         <v>495</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="70" t="s">
         <v>496</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="70" t="s">
         <v>497</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="72" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="72">
+      <c r="A2" s="73">
         <v>222.0</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>500</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>501</v>
       </c>
-      <c r="D2" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74">
+      <c r="D2" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75">
         <v>2.0</v>
       </c>
-      <c r="I2" s="74">
+      <c r="I2" s="75">
         <v>0.0</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="76">
         <v>1.0</v>
       </c>
-      <c r="L2" s="76">
+      <c r="L2" s="77">
         <v>1.0</v>
       </c>
-      <c r="M2" s="76">
+      <c r="M2" s="77">
         <v>1.0</v>
       </c>
-      <c r="N2" s="76">
+      <c r="N2" s="77">
         <v>0.0</v>
       </c>
-      <c r="O2" s="76">
+      <c r="O2" s="77">
         <v>1.0</v>
       </c>
-      <c r="P2" s="77">
+      <c r="P2" s="78">
         <v>1.0</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="77" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="72">
+      <c r="A3" s="73">
         <v>223.0</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>504</v>
       </c>
-      <c r="D3" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74">
+      <c r="D3" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75">
         <v>2.0</v>
       </c>
-      <c r="I3" s="74">
+      <c r="I3" s="75">
         <v>0.0</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="76">
         <v>2.0</v>
       </c>
-      <c r="L3" s="76">
+      <c r="L3" s="77">
         <v>1.0</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="77">
         <v>2.0</v>
       </c>
-      <c r="N3" s="76">
+      <c r="N3" s="77">
         <v>0.0</v>
       </c>
-      <c r="O3" s="76">
+      <c r="O3" s="77">
         <v>1.0</v>
       </c>
-      <c r="P3" s="77">
+      <c r="P3" s="78">
         <v>1.0</v>
       </c>
-      <c r="Q3" s="76" t="s">
+      <c r="Q3" s="77" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="72">
+      <c r="A4" s="73">
         <v>224.0</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>506</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="79" t="s">
         <v>507</v>
       </c>
-      <c r="D4" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74">
+      <c r="D4" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75">
         <v>2.0</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="75">
         <v>0.0</v>
       </c>
-      <c r="J4" s="73" t="s">
+      <c r="J4" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="76">
         <v>3.0</v>
       </c>
-      <c r="L4" s="76">
+      <c r="L4" s="77">
         <v>1.0</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="77">
         <v>3.0</v>
       </c>
-      <c r="N4" s="76">
+      <c r="N4" s="77">
         <v>3.0</v>
       </c>
-      <c r="O4" s="76">
+      <c r="O4" s="77">
         <v>2.0</v>
       </c>
-      <c r="P4" s="77">
+      <c r="P4" s="78">
         <v>1.0</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="72">
+      <c r="A5" s="73">
         <v>225.0</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>509</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>510</v>
       </c>
-      <c r="D5" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74">
+      <c r="D5" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75">
         <v>2.0</v>
       </c>
-      <c r="I5" s="74">
+      <c r="I5" s="75">
         <v>0.0</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="75">
+      <c r="K5" s="76">
         <v>4.0</v>
       </c>
-      <c r="L5" s="76">
+      <c r="L5" s="77">
         <v>1.0</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="77">
         <v>2.0</v>
       </c>
-      <c r="N5" s="76">
+      <c r="N5" s="77">
         <v>0.0</v>
       </c>
-      <c r="O5" s="76">
+      <c r="O5" s="77">
         <v>1.0</v>
       </c>
-      <c r="P5" s="77">
+      <c r="P5" s="78">
         <v>1.0</v>
       </c>
-      <c r="Q5" s="76" t="s">
+      <c r="Q5" s="77" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="72">
+      <c r="A6" s="73">
         <v>226.0</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="74" t="s">
         <v>512</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>513</v>
       </c>
-      <c r="D6" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74">
+      <c r="D6" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75">
         <v>2.0</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="75">
         <v>0.0</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="75">
+      <c r="K6" s="76">
         <v>5.0</v>
       </c>
-      <c r="L6" s="76">
+      <c r="L6" s="77">
         <v>2.0</v>
       </c>
-      <c r="M6" s="76">
+      <c r="M6" s="77">
         <v>3.0</v>
       </c>
-      <c r="N6" s="76">
+      <c r="N6" s="77">
         <v>2.0</v>
       </c>
-      <c r="O6" s="76">
+      <c r="O6" s="77">
         <v>3.0</v>
       </c>
-      <c r="P6" s="77">
+      <c r="P6" s="78">
         <v>1.0</v>
       </c>
-      <c r="Q6" s="76" t="s">
+      <c r="Q6" s="77" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="79">
+      <c r="A7" s="80">
         <v>227.0</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="68" t="s">
         <v>515</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="81" t="s">
         <v>516</v>
       </c>
-      <c r="D7" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="81">
+      <c r="D7" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="82">
         <v>2.0</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="82">
         <v>0.0</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="83">
         <v>6.0</v>
       </c>
-      <c r="L7" s="71">
+      <c r="L7" s="72">
         <v>3.0</v>
       </c>
-      <c r="M7" s="71">
+      <c r="M7" s="72">
         <v>2.0</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="72">
         <v>0.0</v>
       </c>
-      <c r="O7" s="71">
+      <c r="O7" s="72">
         <v>1.0</v>
       </c>
-      <c r="P7" s="83">
+      <c r="P7" s="84">
         <v>1.0</v>
       </c>
-      <c r="Q7" s="71" t="s">
+      <c r="Q7" s="72" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="72">
+      <c r="A8" s="73">
         <v>228.0</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="85" t="s">
         <v>518</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>519</v>
       </c>
-      <c r="D8" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74">
+      <c r="D8" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75">
         <v>2.0</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="75">
         <v>0.0</v>
       </c>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="76">
         <v>7.0</v>
       </c>
-      <c r="L8" s="76">
+      <c r="L8" s="77">
         <v>1.0</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="77">
         <v>1.0</v>
       </c>
-      <c r="N8" s="76">
+      <c r="N8" s="77">
         <v>0.0</v>
       </c>
-      <c r="O8" s="76">
+      <c r="O8" s="77">
         <v>1.0</v>
       </c>
-      <c r="P8" s="85">
+      <c r="P8" s="86">
         <v>2.0</v>
       </c>
-      <c r="Q8" s="76" t="s">
+      <c r="Q8" s="77" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="72">
+      <c r="A9" s="73">
         <v>229.0</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="74" t="s">
         <v>522</v>
       </c>
-      <c r="D9" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73" t="s">
+      <c r="D9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="75">
         <v>2.0</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="75">
         <v>0.0</v>
       </c>
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="76">
         <v>8.0</v>
       </c>
-      <c r="L9" s="76">
+      <c r="L9" s="77">
         <v>2.0</v>
       </c>
-      <c r="M9" s="76">
+      <c r="M9" s="77">
         <v>1.0</v>
       </c>
-      <c r="N9" s="76">
+      <c r="N9" s="77">
         <v>0.0</v>
       </c>
-      <c r="O9" s="76">
+      <c r="O9" s="77">
         <v>1.0</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="86">
         <v>2.0</v>
       </c>
-      <c r="Q9" s="76" t="s">
+      <c r="Q9" s="77" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="72">
+      <c r="A10" s="73">
         <v>230.0</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="85" t="s">
         <v>524</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="74" t="s">
         <v>525</v>
       </c>
-      <c r="D10" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74">
+      <c r="D10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75">
         <v>2.0</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="75">
         <v>0.0</v>
       </c>
-      <c r="J10" s="87" t="s">
+      <c r="J10" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="76">
         <v>9.0</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="77">
         <v>2.0</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="77">
         <v>3.0</v>
       </c>
-      <c r="N10" s="76">
+      <c r="N10" s="77">
         <v>3.0</v>
       </c>
-      <c r="O10" s="76">
+      <c r="O10" s="77">
         <v>1.0</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="86">
         <v>2.0</v>
       </c>
-      <c r="Q10" s="76" t="s">
+      <c r="Q10" s="77" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="72">
+      <c r="A11" s="73">
         <v>231.0</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="87" t="s">
         <v>527</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>528</v>
       </c>
-      <c r="D11" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="74">
+      <c r="D11" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75">
         <v>2.0</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="75">
         <v>0.0</v>
       </c>
-      <c r="J11" s="87" t="s">
+      <c r="J11" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="76">
         <v>10.0</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="77">
         <v>3.0</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="77">
         <v>3.0</v>
       </c>
-      <c r="N11" s="76">
+      <c r="N11" s="77">
         <v>2.0</v>
       </c>
-      <c r="O11" s="76">
+      <c r="O11" s="77">
         <v>2.0</v>
       </c>
-      <c r="P11" s="85">
+      <c r="P11" s="86">
         <v>2.0</v>
       </c>
-      <c r="Q11" s="76" t="s">
+      <c r="Q11" s="77" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="72">
+      <c r="A12" s="73">
         <v>232.0</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="85" t="s">
         <v>530</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="79" t="s">
         <v>531</v>
       </c>
-      <c r="D12" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74">
+      <c r="D12" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75">
         <v>2.0</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="75">
         <v>0.0</v>
       </c>
-      <c r="J12" s="87" t="s">
+      <c r="J12" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="76">
         <v>11.0</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="77">
         <v>1.0</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="77">
         <v>2.0</v>
       </c>
-      <c r="N12" s="76">
+      <c r="N12" s="77">
         <v>0.0</v>
       </c>
-      <c r="O12" s="76">
+      <c r="O12" s="77">
         <v>3.0</v>
       </c>
-      <c r="P12" s="85">
+      <c r="P12" s="86">
         <v>2.0</v>
       </c>
-      <c r="Q12" s="76" t="s">
+      <c r="Q12" s="77" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="79">
+      <c r="A13" s="80">
         <v>233.0</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="81" t="s">
         <v>534</v>
       </c>
-      <c r="D13" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="81">
+      <c r="D13" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="82">
         <v>2.0</v>
       </c>
-      <c r="I13" s="81">
+      <c r="I13" s="82">
         <v>0.0</v>
       </c>
-      <c r="J13" s="89" t="s">
+      <c r="J13" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="83">
         <v>12.0</v>
       </c>
-      <c r="L13" s="71">
+      <c r="L13" s="72">
         <v>3.0</v>
       </c>
-      <c r="M13" s="71">
+      <c r="M13" s="72">
         <v>3.0</v>
       </c>
-      <c r="N13" s="71">
+      <c r="N13" s="72">
         <v>0.0</v>
       </c>
-      <c r="O13" s="71">
+      <c r="O13" s="72">
         <v>1.0</v>
       </c>
-      <c r="P13" s="90">
+      <c r="P13" s="91">
         <v>2.0</v>
       </c>
-      <c r="Q13" s="71" t="s">
+      <c r="Q13" s="72" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="72">
+      <c r="A14" s="73">
         <v>234.0</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="74" t="s">
         <v>536</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="79" t="s">
         <v>537</v>
       </c>
-      <c r="D14" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74">
+      <c r="D14" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75">
         <v>2.0</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="75">
         <v>0.0</v>
       </c>
-      <c r="J14" s="87" t="s">
+      <c r="J14" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="76">
         <v>13.0</v>
       </c>
-      <c r="L14" s="76">
+      <c r="L14" s="77">
         <v>1.0</v>
       </c>
-      <c r="M14" s="76">
+      <c r="M14" s="77">
         <v>1.0</v>
       </c>
-      <c r="N14" s="76">
+      <c r="N14" s="77">
         <v>0.0</v>
       </c>
-      <c r="O14" s="91">
+      <c r="O14" s="92">
         <v>1.0</v>
       </c>
-      <c r="P14" s="92">
+      <c r="P14" s="93">
         <v>3.0</v>
       </c>
-      <c r="Q14" s="76" t="s">
+      <c r="Q14" s="77" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="72">
+      <c r="A15" s="73">
         <v>235.0</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="74" t="s">
         <v>539</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="79" t="s">
         <v>540</v>
       </c>
-      <c r="D15" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74">
+      <c r="D15" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75">
         <v>2.0</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="75">
         <v>0.0</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="76">
         <v>14.0</v>
       </c>
-      <c r="L15" s="76">
+      <c r="L15" s="77">
         <v>1.0</v>
       </c>
-      <c r="M15" s="76">
+      <c r="M15" s="77">
         <v>1.0</v>
       </c>
-      <c r="N15" s="76">
+      <c r="N15" s="77">
         <v>0.0</v>
       </c>
-      <c r="O15" s="76">
+      <c r="O15" s="77">
         <v>2.0</v>
       </c>
-      <c r="P15" s="92">
+      <c r="P15" s="93">
         <v>3.0</v>
       </c>
-      <c r="Q15" s="76" t="s">
+      <c r="Q15" s="77" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="72">
+      <c r="A16" s="73">
         <v>236.0</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="74" t="s">
         <v>542</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="74" t="s">
         <v>543</v>
       </c>
-      <c r="D16" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74">
+      <c r="D16" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75">
         <v>2.0</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="75">
         <v>0.0</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="76">
         <v>15.0</v>
       </c>
-      <c r="L16" s="76">
+      <c r="L16" s="77">
         <v>3.0</v>
       </c>
-      <c r="M16" s="76">
+      <c r="M16" s="77">
         <v>3.0</v>
       </c>
-      <c r="N16" s="76">
+      <c r="N16" s="77">
         <v>3.0</v>
       </c>
-      <c r="O16" s="76">
+      <c r="O16" s="77">
         <v>2.0</v>
       </c>
-      <c r="P16" s="92">
+      <c r="P16" s="93">
         <v>3.0</v>
       </c>
-      <c r="Q16" s="76" t="s">
+      <c r="Q16" s="77" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="72">
+      <c r="A17" s="73">
         <v>237.0</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="74" t="s">
         <v>545</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="79" t="s">
         <v>546</v>
       </c>
-      <c r="D17" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74">
+      <c r="D17" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75">
         <v>2.0</v>
       </c>
-      <c r="I17" s="74">
+      <c r="I17" s="75">
         <v>0.0</v>
       </c>
-      <c r="J17" s="87" t="s">
+      <c r="J17" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="K17" s="75">
+      <c r="K17" s="76">
         <v>16.0</v>
       </c>
-      <c r="L17" s="76">
+      <c r="L17" s="77">
         <v>2.0</v>
       </c>
-      <c r="M17" s="76">
+      <c r="M17" s="77">
         <v>3.0</v>
       </c>
-      <c r="N17" s="76">
+      <c r="N17" s="77">
         <v>1.0</v>
       </c>
-      <c r="O17" s="76">
+      <c r="O17" s="77">
         <v>2.0</v>
       </c>
-      <c r="P17" s="92">
+      <c r="P17" s="93">
         <v>3.0</v>
       </c>
-      <c r="Q17" s="76" t="s">
+      <c r="Q17" s="77" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="72">
+      <c r="A18" s="73">
         <v>238.0</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="74" t="s">
         <v>548</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="74" t="s">
         <v>549</v>
       </c>
-      <c r="D18" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74">
+      <c r="D18" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75">
         <v>2.0</v>
       </c>
-      <c r="I18" s="74">
+      <c r="I18" s="75">
         <v>0.0</v>
       </c>
-      <c r="J18" s="87" t="s">
+      <c r="J18" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="K18" s="75">
+      <c r="K18" s="76">
         <v>17.0</v>
       </c>
-      <c r="L18" s="76">
+      <c r="L18" s="77">
         <v>2.0</v>
       </c>
-      <c r="M18" s="76">
+      <c r="M18" s="77">
         <v>1.0</v>
       </c>
-      <c r="N18" s="76">
+      <c r="N18" s="77">
         <v>0.0</v>
       </c>
-      <c r="O18" s="76">
+      <c r="O18" s="77">
         <v>3.0</v>
       </c>
-      <c r="P18" s="92">
+      <c r="P18" s="93">
         <v>3.0</v>
       </c>
-      <c r="Q18" s="76" t="s">
+      <c r="Q18" s="77" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="79">
+      <c r="A19" s="80">
         <v>239.0</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="68" t="s">
         <v>551</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="81" t="s">
         <v>552</v>
       </c>
-      <c r="D19" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="81">
+      <c r="D19" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="82">
         <v>2.0</v>
       </c>
-      <c r="I19" s="94">
+      <c r="I19" s="95">
         <v>0.0</v>
       </c>
-      <c r="J19" s="95" t="s">
+      <c r="J19" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="83">
         <v>18.0</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="72">
         <v>2.0</v>
       </c>
-      <c r="M19" s="71">
+      <c r="M19" s="72">
         <v>1.0</v>
       </c>
-      <c r="N19" s="71">
+      <c r="N19" s="72">
         <v>0.0</v>
       </c>
-      <c r="O19" s="71">
+      <c r="O19" s="72">
         <v>1.0</v>
       </c>
-      <c r="P19" s="96">
+      <c r="P19" s="97">
         <v>3.0</v>
       </c>
-      <c r="Q19" s="71" t="s">
+      <c r="Q19" s="72" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="72">
+      <c r="A20" s="73">
         <v>240.0</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="74" t="s">
         <v>554</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="74" t="s">
         <v>555</v>
       </c>
-      <c r="D20" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74">
+      <c r="D20" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75">
         <v>2.0</v>
       </c>
-      <c r="I20" s="98">
+      <c r="I20" s="99">
         <v>0.0</v>
       </c>
-      <c r="J20" s="99" t="s">
+      <c r="J20" s="100" t="s">
         <v>259</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="76">
         <v>19.0</v>
       </c>
-      <c r="L20" s="76">
+      <c r="L20" s="77">
         <v>2.0</v>
       </c>
-      <c r="M20" s="76">
+      <c r="M20" s="77">
         <v>1.0</v>
       </c>
-      <c r="N20" s="76">
+      <c r="N20" s="77">
         <v>0.0</v>
       </c>
-      <c r="O20" s="76">
+      <c r="O20" s="77">
         <v>1.0</v>
       </c>
-      <c r="P20" s="100">
+      <c r="P20" s="101">
         <v>4.0</v>
       </c>
-      <c r="Q20" s="76" t="s">
+      <c r="Q20" s="77" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="72">
+      <c r="A21" s="73">
         <v>241.0</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="77" t="s">
         <v>557</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="77" t="s">
         <v>558</v>
       </c>
-      <c r="D21" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="101"/>
-      <c r="H21" s="76">
+      <c r="D21" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="102"/>
+      <c r="H21" s="77">
         <v>2.0</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="77">
         <v>0.0</v>
       </c>
-      <c r="J21" s="76" t="s">
+      <c r="J21" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="K21" s="75">
+      <c r="K21" s="76">
         <v>20.0</v>
       </c>
-      <c r="L21" s="76">
+      <c r="L21" s="77">
         <v>2.0</v>
       </c>
-      <c r="M21" s="76">
+      <c r="M21" s="77">
         <v>1.0</v>
       </c>
-      <c r="N21" s="76">
+      <c r="N21" s="77">
         <v>0.0</v>
       </c>
-      <c r="O21" s="76">
+      <c r="O21" s="77">
         <v>1.0</v>
       </c>
-      <c r="P21" s="100">
+      <c r="P21" s="101">
         <v>4.0</v>
       </c>
-      <c r="Q21" s="76"/>
+      <c r="Q21" s="77"/>
     </row>
     <row r="22">
-      <c r="A22" s="72">
+      <c r="A22" s="73">
         <v>242.0</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="77" t="s">
         <v>559</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="77" t="s">
         <v>560</v>
       </c>
-      <c r="D22" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="101"/>
-      <c r="H22" s="76">
+      <c r="D22" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="102"/>
+      <c r="H22" s="77">
         <v>2.0</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="77">
         <v>0.0</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="K22" s="75">
+      <c r="K22" s="76">
         <v>21.0</v>
       </c>
-      <c r="L22" s="76">
+      <c r="L22" s="77">
         <v>2.0</v>
       </c>
-      <c r="M22" s="76">
+      <c r="M22" s="77">
         <v>3.0</v>
       </c>
-      <c r="N22" s="76">
+      <c r="N22" s="77">
         <v>3.0</v>
       </c>
-      <c r="O22" s="76">
+      <c r="O22" s="77">
         <v>1.0</v>
       </c>
-      <c r="P22" s="100">
+      <c r="P22" s="101">
         <v>4.0</v>
       </c>
-      <c r="Q22" s="76" t="s">
-        <v>286</v>
+      <c r="Q22" s="77" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="72">
+      <c r="A23" s="73">
         <v>243.0</v>
       </c>
-      <c r="B23" s="76" t="s">
-        <v>561</v>
-      </c>
-      <c r="C23" s="76" t="s">
+      <c r="B23" s="77" t="s">
         <v>562</v>
       </c>
-      <c r="D23" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="76"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="76">
+      <c r="C23" s="77" t="s">
+        <v>563</v>
+      </c>
+      <c r="D23" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="77"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="77">
         <v>2.0</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="77">
         <v>0.0</v>
       </c>
-      <c r="J23" s="76" t="s">
+      <c r="J23" s="77" t="s">
         <v>299</v>
       </c>
-      <c r="K23" s="75">
+      <c r="K23" s="76">
         <v>22.0</v>
       </c>
-      <c r="L23" s="76">
+      <c r="L23" s="77">
         <v>2.0</v>
       </c>
-      <c r="M23" s="76">
+      <c r="M23" s="77">
         <v>3.0</v>
       </c>
-      <c r="N23" s="76">
+      <c r="N23" s="77">
         <v>2.0</v>
       </c>
-      <c r="O23" s="76">
+      <c r="O23" s="77">
         <v>2.0</v>
       </c>
-      <c r="P23" s="100">
+      <c r="P23" s="101">
         <v>4.0</v>
       </c>
-      <c r="Q23" s="76"/>
+      <c r="Q23" s="77"/>
     </row>
     <row r="24">
-      <c r="A24" s="72">
+      <c r="A24" s="73">
         <v>244.0</v>
       </c>
-      <c r="B24" s="73" t="s">
-        <v>563</v>
-      </c>
-      <c r="C24" s="78" t="s">
+      <c r="B24" s="74" t="s">
         <v>564</v>
       </c>
-      <c r="D24" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="74">
+      <c r="C24" s="79" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="75">
         <v>2.0</v>
       </c>
-      <c r="I24" s="98">
+      <c r="I24" s="99">
         <v>0.0</v>
       </c>
-      <c r="J24" s="99" t="s">
+      <c r="J24" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="K24" s="75">
+      <c r="K24" s="76">
         <v>23.0</v>
       </c>
-      <c r="L24" s="76">
+      <c r="L24" s="77">
         <v>2.0</v>
       </c>
-      <c r="M24" s="76">
+      <c r="M24" s="77">
         <v>1.0</v>
       </c>
-      <c r="N24" s="76">
+      <c r="N24" s="77">
         <v>0.0</v>
       </c>
-      <c r="O24" s="76">
+      <c r="O24" s="77">
         <v>1.0</v>
       </c>
-      <c r="P24" s="100">
+      <c r="P24" s="101">
         <v>4.0</v>
       </c>
-      <c r="Q24" s="76" t="s">
-        <v>565</v>
+      <c r="Q24" s="77" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="79">
+      <c r="A25" s="80">
         <v>245.0</v>
       </c>
-      <c r="B25" s="67" t="s">
-        <v>566</v>
-      </c>
-      <c r="C25" s="80" t="s">
+      <c r="B25" s="68" t="s">
         <v>567</v>
       </c>
-      <c r="D25" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="102" t="s">
+      <c r="C25" s="81" t="s">
+        <v>568</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="68"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="81">
+      <c r="H25" s="82">
         <v>2.0</v>
       </c>
-      <c r="I25" s="94">
+      <c r="I25" s="95">
         <v>0.0</v>
       </c>
-      <c r="J25" s="95" t="s">
+      <c r="J25" s="96" t="s">
         <v>325</v>
       </c>
-      <c r="K25" s="82">
+      <c r="K25" s="83">
         <v>24.0</v>
       </c>
-      <c r="L25" s="71">
+      <c r="L25" s="72">
         <v>3.0</v>
       </c>
-      <c r="M25" s="71">
+      <c r="M25" s="72">
         <v>1.0</v>
       </c>
-      <c r="N25" s="71">
+      <c r="N25" s="72">
         <v>0.0</v>
       </c>
-      <c r="O25" s="71">
+      <c r="O25" s="72">
         <v>1.0</v>
       </c>
-      <c r="P25" s="103">
+      <c r="P25" s="104">
         <v>4.0</v>
       </c>
-      <c r="Q25" s="71" t="s">
-        <v>568</v>
+      <c r="Q25" s="72" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="72">
+      <c r="A26" s="73">
         <v>246.0</v>
       </c>
-      <c r="B26" s="76" t="s">
-        <v>569</v>
-      </c>
-      <c r="C26" s="76" t="s">
+      <c r="B26" s="77" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="76" t="s">
+      <c r="C26" s="77" t="s">
+        <v>571</v>
+      </c>
+      <c r="D26" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H26" s="77">
         <v>2.0</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="77">
         <v>0.0</v>
       </c>
-      <c r="J26" s="76" t="s">
+      <c r="J26" s="77" t="s">
         <v>338</v>
       </c>
-      <c r="K26" s="75">
+      <c r="K26" s="76">
         <v>25.0</v>
       </c>
-      <c r="L26" s="76">
+      <c r="L26" s="77">
         <v>2.0</v>
       </c>
-      <c r="M26" s="76">
+      <c r="M26" s="77">
         <v>1.0</v>
       </c>
-      <c r="N26" s="76">
+      <c r="N26" s="77">
         <v>0.0</v>
       </c>
-      <c r="O26" s="76">
+      <c r="O26" s="77">
         <v>1.0</v>
       </c>
-      <c r="P26" s="104">
+      <c r="P26" s="105">
         <v>5.0</v>
       </c>
-      <c r="Q26" s="76" t="s">
-        <v>338</v>
+      <c r="Q26" s="77" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="72">
+      <c r="A27" s="73">
         <v>247.0</v>
       </c>
-      <c r="B27" s="73" t="s">
-        <v>571</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>572</v>
-      </c>
-      <c r="D27" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73" t="s">
+      <c r="B27" s="74" t="s">
         <v>573</v>
       </c>
-      <c r="H27" s="74">
+      <c r="C27" s="79" t="s">
+        <v>574</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="79"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74" t="s">
+        <v>575</v>
+      </c>
+      <c r="H27" s="75">
         <v>2.0</v>
       </c>
-      <c r="I27" s="74">
+      <c r="I27" s="75">
         <v>0.0</v>
       </c>
-      <c r="J27" s="87" t="s">
+      <c r="J27" s="88" t="s">
         <v>352</v>
       </c>
-      <c r="K27" s="75">
+      <c r="K27" s="76">
         <v>26.0</v>
       </c>
-      <c r="L27" s="76">
+      <c r="L27" s="77">
         <v>3.0</v>
       </c>
-      <c r="M27" s="76">
+      <c r="M27" s="77">
         <v>1.0</v>
       </c>
-      <c r="N27" s="76">
+      <c r="N27" s="77">
         <v>0.0</v>
       </c>
-      <c r="O27" s="76">
+      <c r="O27" s="77">
         <v>1.0</v>
       </c>
-      <c r="P27" s="104">
+      <c r="P27" s="105">
         <v>5.0</v>
       </c>
-      <c r="Q27" s="76" t="s">
-        <v>574</v>
+      <c r="Q27" s="77" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="72">
+      <c r="A28" s="73">
         <v>248.0</v>
       </c>
-      <c r="B28" s="73" t="s">
-        <v>575</v>
-      </c>
-      <c r="C28" s="78" t="s">
-        <v>576</v>
-      </c>
-      <c r="D28" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="105"/>
-      <c r="H28" s="74">
+      <c r="B28" s="74" t="s">
+        <v>577</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>578</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="106"/>
+      <c r="H28" s="75">
         <v>2.0</v>
       </c>
-      <c r="I28" s="106">
+      <c r="I28" s="107">
         <v>0.0</v>
       </c>
-      <c r="J28" s="97" t="s">
+      <c r="J28" s="98" t="s">
         <v>366</v>
       </c>
-      <c r="K28" s="75">
+      <c r="K28" s="76">
         <v>27.0</v>
       </c>
-      <c r="L28" s="76">
+      <c r="L28" s="77">
         <v>2.0</v>
       </c>
-      <c r="M28" s="76">
+      <c r="M28" s="77">
         <v>1.0</v>
       </c>
-      <c r="N28" s="76">
+      <c r="N28" s="77">
         <v>0.0</v>
       </c>
-      <c r="O28" s="76">
+      <c r="O28" s="77">
         <v>2.0</v>
       </c>
-      <c r="P28" s="104">
+      <c r="P28" s="105">
         <v>5.0</v>
       </c>
-      <c r="Q28" s="76"/>
+      <c r="Q28" s="108" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="72">
+      <c r="A29" s="73">
         <v>249.0</v>
       </c>
-      <c r="B29" s="105" t="s">
-        <v>577</v>
-      </c>
-      <c r="C29" s="78" t="s">
-        <v>578</v>
-      </c>
-      <c r="D29" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="97"/>
-      <c r="H29" s="74">
+      <c r="B29" s="106" t="s">
+        <v>580</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>581</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="98"/>
+      <c r="H29" s="75">
         <v>2.0</v>
       </c>
-      <c r="I29" s="98">
+      <c r="I29" s="99">
         <v>0.0</v>
       </c>
-      <c r="J29" s="99" t="s">
+      <c r="J29" s="100" t="s">
         <v>379</v>
       </c>
-      <c r="K29" s="75">
+      <c r="K29" s="76">
         <v>28.0</v>
       </c>
-      <c r="L29" s="76">
+      <c r="L29" s="77">
         <v>1.0</v>
       </c>
-      <c r="M29" s="76">
+      <c r="M29" s="77">
         <v>2.0</v>
       </c>
-      <c r="N29" s="76">
+      <c r="N29" s="77">
         <v>1.0</v>
       </c>
-      <c r="O29" s="76">
+      <c r="O29" s="77">
         <v>1.0</v>
       </c>
-      <c r="P29" s="104">
+      <c r="P29" s="105">
         <v>5.0</v>
       </c>
-      <c r="Q29" s="76" t="s">
-        <v>579</v>
+      <c r="Q29" s="77" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="72">
+      <c r="A30" s="73">
         <v>250.0</v>
       </c>
-      <c r="B30" s="73" t="s">
-        <v>580</v>
-      </c>
-      <c r="C30" s="78" t="s">
-        <v>581</v>
-      </c>
-      <c r="D30" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="97"/>
-      <c r="H30" s="74">
+      <c r="B30" s="74" t="s">
+        <v>583</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>584</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="98"/>
+      <c r="H30" s="75">
         <v>2.0</v>
       </c>
-      <c r="I30" s="98">
+      <c r="I30" s="99">
         <v>0.0</v>
       </c>
-      <c r="J30" s="99" t="s">
+      <c r="J30" s="100" t="s">
         <v>392</v>
       </c>
-      <c r="K30" s="75">
+      <c r="K30" s="76">
         <v>29.0</v>
       </c>
-      <c r="L30" s="76">
+      <c r="L30" s="77">
         <v>3.0</v>
       </c>
-      <c r="M30" s="76">
+      <c r="M30" s="77">
         <v>3.0</v>
       </c>
-      <c r="N30" s="76">
+      <c r="N30" s="77">
         <v>3.0</v>
       </c>
-      <c r="O30" s="76">
+      <c r="O30" s="77">
         <v>3.0</v>
       </c>
-      <c r="P30" s="104">
+      <c r="P30" s="105">
         <v>5.0</v>
       </c>
-      <c r="Q30" s="76" t="s">
-        <v>582</v>
+      <c r="Q30" s="77" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="79">
+      <c r="A31" s="80">
         <v>251.0</v>
       </c>
-      <c r="B31" s="71" t="s">
-        <v>583</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>584</v>
-      </c>
-      <c r="D31" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="69"/>
-      <c r="H31" s="81">
+      <c r="B31" s="72" t="s">
+        <v>586</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>587</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="70"/>
+      <c r="H31" s="82">
         <v>2.0</v>
       </c>
-      <c r="I31" s="107">
+      <c r="I31" s="109">
         <v>0.0</v>
       </c>
-      <c r="J31" s="71" t="s">
+      <c r="J31" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="K31" s="82">
+      <c r="K31" s="83">
         <v>30.0</v>
       </c>
-      <c r="L31" s="71">
+      <c r="L31" s="72">
         <v>3.0</v>
       </c>
-      <c r="M31" s="71">
+      <c r="M31" s="72">
         <v>1.0</v>
       </c>
-      <c r="N31" s="71">
+      <c r="N31" s="72">
         <v>0.0</v>
       </c>
-      <c r="O31" s="71">
+      <c r="O31" s="72">
         <v>1.0</v>
       </c>
-      <c r="P31" s="108">
+      <c r="P31" s="110">
         <v>5.0</v>
       </c>
-      <c r="Q31" s="71"/>
+      <c r="Q31" s="72"/>
     </row>
     <row r="32">
-      <c r="A32" s="72">
+      <c r="A32" s="73">
         <v>252.0</v>
       </c>
-      <c r="B32" s="76" t="s">
-        <v>585</v>
-      </c>
-      <c r="C32" s="76" t="s">
-        <v>586</v>
-      </c>
-      <c r="D32" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="76" t="s">
+      <c r="B32" s="77" t="s">
+        <v>588</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>589</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="77" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="74">
+      <c r="H32" s="75">
         <v>2.0</v>
       </c>
-      <c r="I32" s="106">
+      <c r="I32" s="107">
         <v>0.0</v>
       </c>
-      <c r="J32" s="76" t="s">
+      <c r="J32" s="77" t="s">
         <v>418</v>
       </c>
-      <c r="K32" s="75">
+      <c r="K32" s="76">
         <v>31.0</v>
       </c>
-      <c r="L32" s="76">
+      <c r="L32" s="77">
         <v>1.0</v>
       </c>
-      <c r="M32" s="76">
+      <c r="M32" s="77">
         <v>1.0</v>
       </c>
-      <c r="N32" s="76">
+      <c r="N32" s="77">
         <v>0.0</v>
       </c>
-      <c r="O32" s="76">
+      <c r="O32" s="77">
         <v>1.0</v>
       </c>
-      <c r="P32" s="109">
+      <c r="P32" s="111">
         <v>6.0</v>
       </c>
-      <c r="Q32" s="76"/>
+      <c r="Q32" s="77"/>
     </row>
     <row r="33">
-      <c r="A33" s="72">
+      <c r="A33" s="73">
         <v>253.0</v>
       </c>
-      <c r="B33" s="76" t="s">
-        <v>587</v>
-      </c>
-      <c r="C33" s="76" t="s">
-        <v>588</v>
-      </c>
-      <c r="D33" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="76" t="s">
+      <c r="B33" s="77" t="s">
+        <v>590</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>591</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="77" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="74">
+      <c r="H33" s="75">
         <v>2.0</v>
       </c>
-      <c r="I33" s="106">
+      <c r="I33" s="107">
         <v>0.0</v>
       </c>
-      <c r="J33" s="76" t="s">
+      <c r="J33" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="K33" s="75">
+      <c r="K33" s="76">
         <v>32.0</v>
       </c>
-      <c r="L33" s="76">
+      <c r="L33" s="77">
         <v>1.0</v>
       </c>
-      <c r="M33" s="76">
+      <c r="M33" s="77">
         <v>2.0</v>
       </c>
-      <c r="N33" s="76">
+      <c r="N33" s="77">
         <v>0.0</v>
       </c>
-      <c r="O33" s="76">
+      <c r="O33" s="77">
         <v>1.0</v>
       </c>
-      <c r="P33" s="109">
+      <c r="P33" s="111">
         <v>6.0</v>
       </c>
-      <c r="Q33" s="76"/>
+      <c r="Q33" s="77"/>
     </row>
     <row r="34">
-      <c r="A34" s="72">
+      <c r="A34" s="73">
         <v>254.0</v>
       </c>
-      <c r="B34" s="78" t="s">
-        <v>589</v>
-      </c>
-      <c r="C34" s="78" t="s">
-        <v>590</v>
-      </c>
-      <c r="D34" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="97"/>
-      <c r="H34" s="74">
+      <c r="B34" s="79" t="s">
+        <v>592</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>593</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="98"/>
+      <c r="H34" s="75">
         <v>2.0</v>
       </c>
-      <c r="I34" s="98">
+      <c r="I34" s="99">
         <v>0.0</v>
       </c>
-      <c r="J34" s="99" t="s">
+      <c r="J34" s="100" t="s">
         <v>444</v>
       </c>
-      <c r="K34" s="75">
+      <c r="K34" s="76">
         <v>33.0</v>
       </c>
-      <c r="L34" s="76">
+      <c r="L34" s="77">
         <v>2.0</v>
       </c>
-      <c r="M34" s="76">
+      <c r="M34" s="77">
         <v>3.0</v>
       </c>
-      <c r="N34" s="76">
+      <c r="N34" s="77">
         <v>1.0</v>
       </c>
-      <c r="O34" s="76">
+      <c r="O34" s="77">
         <v>2.0</v>
       </c>
-      <c r="P34" s="109">
+      <c r="P34" s="111">
         <v>6.0</v>
       </c>
-      <c r="Q34" s="76" t="s">
-        <v>591</v>
+      <c r="Q34" s="77" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="72">
+      <c r="A35" s="73">
         <v>255.0</v>
       </c>
-      <c r="B35" s="76" t="s">
-        <v>592</v>
-      </c>
-      <c r="C35" s="76" t="s">
-        <v>593</v>
-      </c>
-      <c r="D35" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="76" t="s">
+      <c r="B35" s="77" t="s">
+        <v>595</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>596</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="77" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="74">
+      <c r="H35" s="75">
         <v>2.0</v>
       </c>
-      <c r="I35" s="106">
+      <c r="I35" s="107">
         <v>0.0</v>
       </c>
-      <c r="J35" s="76" t="s">
+      <c r="J35" s="77" t="s">
         <v>457</v>
       </c>
-      <c r="K35" s="75">
+      <c r="K35" s="76">
         <v>34.0</v>
       </c>
-      <c r="L35" s="76">
+      <c r="L35" s="77">
         <v>2.0</v>
       </c>
-      <c r="M35" s="76">
+      <c r="M35" s="77">
         <v>1.0</v>
       </c>
-      <c r="N35" s="76">
+      <c r="N35" s="77">
         <v>0.0</v>
       </c>
-      <c r="O35" s="76">
+      <c r="O35" s="77">
         <v>1.0</v>
       </c>
-      <c r="P35" s="109">
+      <c r="P35" s="111">
         <v>6.0</v>
       </c>
-      <c r="Q35" s="76" t="s">
-        <v>457</v>
+      <c r="Q35" s="77" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="72">
+      <c r="A36" s="73">
         <v>256.0</v>
       </c>
-      <c r="B36" s="73" t="s">
-        <v>594</v>
-      </c>
-      <c r="C36" s="78" t="s">
-        <v>595</v>
-      </c>
-      <c r="D36" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="97"/>
-      <c r="H36" s="74">
+      <c r="B36" s="74" t="s">
+        <v>598</v>
+      </c>
+      <c r="C36" s="79" t="s">
+        <v>599</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="98"/>
+      <c r="H36" s="75">
         <v>2.0</v>
       </c>
-      <c r="I36" s="98">
+      <c r="I36" s="99">
         <v>0.0</v>
       </c>
-      <c r="J36" s="111" t="s">
+      <c r="J36" s="112" t="s">
         <v>470</v>
       </c>
-      <c r="K36" s="75">
+      <c r="K36" s="76">
         <v>35.0</v>
       </c>
-      <c r="L36" s="76">
+      <c r="L36" s="77">
         <v>3.0</v>
       </c>
-      <c r="M36" s="76">
+      <c r="M36" s="77">
         <v>1.0</v>
       </c>
-      <c r="N36" s="76">
+      <c r="N36" s="77">
         <v>0.0</v>
       </c>
-      <c r="O36" s="76">
+      <c r="O36" s="77">
         <v>1.0</v>
       </c>
-      <c r="P36" s="109">
+      <c r="P36" s="111">
         <v>6.0</v>
       </c>
-      <c r="Q36" s="76" t="s">
-        <v>596</v>
+      <c r="Q36" s="77" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="79">
+      <c r="A37" s="80">
         <v>257.0</v>
       </c>
-      <c r="B37" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="C37" s="80" t="s">
-        <v>598</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="93"/>
-      <c r="H37" s="81">
+      <c r="B37" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="C37" s="81" t="s">
+        <v>602</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="94"/>
+      <c r="H37" s="82">
         <v>2.0</v>
       </c>
-      <c r="I37" s="94">
+      <c r="I37" s="95">
         <v>0.0</v>
       </c>
-      <c r="J37" s="95" t="s">
+      <c r="J37" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="K37" s="82">
+      <c r="K37" s="83">
         <v>36.0</v>
       </c>
-      <c r="L37" s="71">
+      <c r="L37" s="72">
         <v>3.0</v>
       </c>
-      <c r="M37" s="71">
+      <c r="M37" s="72">
         <v>3.0</v>
       </c>
-      <c r="N37" s="71">
+      <c r="N37" s="72">
         <v>3.0</v>
       </c>
-      <c r="O37" s="71">
+      <c r="O37" s="72">
         <v>2.0</v>
       </c>
-      <c r="P37" s="112">
+      <c r="P37" s="113">
         <v>6.0</v>
       </c>
-      <c r="Q37" s="71" t="s">
-        <v>599</v>
+      <c r="Q37" s="72" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="39">
       <c r="Q39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="74"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="106"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="107"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="74"/>
+      <c r="K40" s="75"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -34641,17 +34658,17 @@
       <c r="Q40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="74"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="106"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="107"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="113"/>
+      <c r="K41" s="114"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -34660,17 +34677,17 @@
       <c r="Q41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="74"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="106"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="107"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="113"/>
+      <c r="K42" s="114"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -34679,17 +34696,17 @@
       <c r="Q42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="74"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="106"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="107"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="74"/>
+      <c r="K43" s="75"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="604">
   <si>
     <t>type_id</t>
   </si>
@@ -12452,9 +12452,7 @@
       <c r="D222" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E222" s="61" t="s">
-        <v>17</v>
-      </c>
+      <c r="E222" s="61"/>
       <c r="F222" s="61"/>
       <c r="G222" s="61"/>
       <c r="H222" s="61">

--- a/misc/genmaterial/material_11thanniversary.xlsx
+++ b/misc/genmaterial/material_11thanniversary.xlsx
@@ -2037,7 +2037,7 @@
     <t>Mongooses work hard during the day. Managing your tempo becomes increasingly important as you try to benefit more from them than your opponents do.</t>
   </si>
   <si>
-    <t>Stealthy Member</t>
+    <t>Sneaky Member</t>
   </si>
   <si>
     <t>[☀️ Mono draws 1 🃏 from your deck.] [🌙 Mono takes 1 random animalfolk 🃏 from you.] Acquire.</t>
@@ -34586,7 +34586,7 @@
       <c r="A37" s="80">
         <v>257.0</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="81" t="s">
         <v>601</v>
       </c>
       <c r="C37" s="81" t="s">
